--- a/new_data/double_hit/20260127_212524_phrase33/20260127_212524_phrase33_keypoints.xlsx
+++ b/new_data/double_hit/20260127_212524_phrase33/20260127_212524_phrase33_keypoints.xlsx
@@ -491,1804 +491,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.272703709922615</v>
+        <v>3.669075976661007</v>
       </c>
       <c r="B2" t="n">
-        <v>7.22130841795539</v>
+        <v>3.643147047266911</v>
       </c>
       <c r="C2" t="n">
-        <v>7.253990693921524</v>
+        <v>3.659628720324443</v>
       </c>
       <c r="D2" t="n">
-        <v>6.90850393913748</v>
+        <v>3.485345119141418</v>
       </c>
       <c r="E2" t="n">
-        <v>7.048931288505337</v>
+        <v>3.556186465484888</v>
       </c>
       <c r="F2" t="n">
-        <v>6.76782359696048</v>
+        <v>3.414438391894132</v>
       </c>
       <c r="G2" t="n">
-        <v>6.863318521890921</v>
+        <v>3.462593417407964</v>
       </c>
       <c r="H2" t="n">
-        <v>6.850657048807891</v>
+        <v>3.456235550909089</v>
       </c>
       <c r="I2" t="n">
-        <v>6.884376651637353</v>
+        <v>3.473219519866805</v>
       </c>
       <c r="J2" t="n">
-        <v>7.181038048090045</v>
+        <v>3.622917058567148</v>
       </c>
       <c r="K2" t="n">
-        <v>7.275271389724998</v>
+        <v>3.670356021051798</v>
       </c>
       <c r="L2" t="n">
-        <v>6.658725660006964</v>
+        <v>3.359403305445298</v>
       </c>
       <c r="M2" t="n">
-        <v>6.848730584633138</v>
+        <v>3.455218167192758</v>
       </c>
       <c r="N2" t="n">
-        <v>6.615289217547897</v>
+        <v>3.337576032838838</v>
       </c>
       <c r="O2" t="n">
-        <v>7.516542574351149</v>
+        <v>3.792078776598213</v>
       </c>
       <c r="P2" t="n">
-        <v>6.198398200539343</v>
+        <v>3.127206436721554</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.934166650702013</v>
+        <v>4.002522565828088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.397879931528538</v>
+        <v>3.732258376519671</v>
       </c>
       <c r="B3" t="n">
-        <v>7.343517467772998</v>
+        <v>3.704841320901771</v>
       </c>
       <c r="C3" t="n">
-        <v>7.390585399441274</v>
+        <v>3.728604436790773</v>
       </c>
       <c r="D3" t="n">
-        <v>7.090774834146028</v>
+        <v>3.577311035507729</v>
       </c>
       <c r="E3" t="n">
-        <v>7.158948789522379</v>
+        <v>3.611753411373023</v>
       </c>
       <c r="F3" t="n">
-        <v>6.943369052837745</v>
+        <v>3.502958450364559</v>
       </c>
       <c r="G3" t="n">
-        <v>6.965010361999465</v>
+        <v>3.513875924242578</v>
       </c>
       <c r="H3" t="n">
-        <v>6.847450407211365</v>
+        <v>3.454531383437894</v>
       </c>
       <c r="I3" t="n">
-        <v>6.978236983829872</v>
+        <v>3.520568938939708</v>
       </c>
       <c r="J3" t="n">
-        <v>7.044659147126869</v>
+        <v>3.554003596091842</v>
       </c>
       <c r="K3" t="n">
-        <v>7.249284689596418</v>
+        <v>3.657275860581477</v>
       </c>
       <c r="L3" t="n">
-        <v>6.787893420721971</v>
+        <v>3.424491416517789</v>
       </c>
       <c r="M3" t="n">
-        <v>6.949827976158949</v>
+        <v>3.506203901577009</v>
       </c>
       <c r="N3" t="n">
-        <v>6.626043947499203</v>
+        <v>3.34285312457116</v>
       </c>
       <c r="O3" t="n">
-        <v>7.726743537414199</v>
+        <v>3.898198805846218</v>
       </c>
       <c r="P3" t="n">
-        <v>6.158663679586016</v>
+        <v>3.10705831628396</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.985690411178113</v>
+        <v>4.028756795616523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.507229170916082</v>
+        <v>3.787396366825815</v>
       </c>
       <c r="B4" t="n">
-        <v>7.460788931874502</v>
+        <v>3.763966977811072</v>
       </c>
       <c r="C4" t="n">
-        <v>7.486860714217294</v>
+        <v>3.777159138612277</v>
       </c>
       <c r="D4" t="n">
-        <v>7.153730038078517</v>
+        <v>3.609162337728328</v>
       </c>
       <c r="E4" t="n">
-        <v>7.316510344532256</v>
+        <v>3.691212245104196</v>
       </c>
       <c r="F4" t="n">
-        <v>7.060492890845717</v>
+        <v>3.562075295065085</v>
       </c>
       <c r="G4" t="n">
-        <v>7.092428021010236</v>
+        <v>3.578178327410084</v>
       </c>
       <c r="H4" t="n">
-        <v>6.897915429405991</v>
+        <v>3.480112088452972</v>
       </c>
       <c r="I4" t="n">
-        <v>7.037300380785168</v>
+        <v>3.550362732543707</v>
       </c>
       <c r="J4" t="n">
-        <v>7.072806710113063</v>
+        <v>3.56816339426952</v>
       </c>
       <c r="K4" t="n">
-        <v>7.320397080384098</v>
+        <v>3.693196413402602</v>
       </c>
       <c r="L4" t="n">
-        <v>6.852810023248292</v>
+        <v>3.457277381398152</v>
       </c>
       <c r="M4" t="n">
-        <v>7.018406494646582</v>
+        <v>3.540796369256279</v>
       </c>
       <c r="N4" t="n">
-        <v>6.701053779847799</v>
+        <v>3.380804180852961</v>
       </c>
       <c r="O4" t="n">
-        <v>7.799720411955685</v>
+        <v>3.93486924920763</v>
       </c>
       <c r="P4" t="n">
-        <v>6.190638815294965</v>
+        <v>3.123300069850968</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.029333079401427</v>
+        <v>4.050600271316537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.586351122465423</v>
+        <v>3.8273392665556</v>
       </c>
       <c r="B5" t="n">
-        <v>7.541173593636076</v>
+        <v>3.80456482363821</v>
       </c>
       <c r="C5" t="n">
-        <v>7.572234799865221</v>
+        <v>3.820229235398046</v>
       </c>
       <c r="D5" t="n">
-        <v>7.266200273390003</v>
+        <v>3.665862647370867</v>
       </c>
       <c r="E5" t="n">
-        <v>7.397022347885961</v>
+        <v>3.731835959028062</v>
       </c>
       <c r="F5" t="n">
-        <v>7.147226601545905</v>
+        <v>3.605797211035415</v>
       </c>
       <c r="G5" t="n">
-        <v>7.166847348984704</v>
+        <v>3.615706397670678</v>
       </c>
       <c r="H5" t="n">
-        <v>6.96294866781537</v>
+        <v>3.512845180080684</v>
       </c>
       <c r="I5" t="n">
-        <v>7.122090723559434</v>
+        <v>3.593005010806682</v>
       </c>
       <c r="J5" t="n">
-        <v>7.100008226492235</v>
+        <v>3.581994866604123</v>
       </c>
       <c r="K5" t="n">
-        <v>7.393200409746928</v>
+        <v>3.729910065013492</v>
       </c>
       <c r="L5" t="n">
-        <v>6.970547467423654</v>
+        <v>3.51662760749882</v>
       </c>
       <c r="M5" t="n">
-        <v>7.126920125268065</v>
+        <v>3.595534967519549</v>
       </c>
       <c r="N5" t="n">
-        <v>6.778370974230794</v>
+        <v>3.419669148464185</v>
       </c>
       <c r="O5" t="n">
-        <v>7.859763099561968</v>
+        <v>3.965285298457075</v>
       </c>
       <c r="P5" t="n">
-        <v>6.249261024344783</v>
+        <v>3.152573090342835</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.057494728846928</v>
+        <v>4.064982648831988</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.669692813764612</v>
+        <v>3.869373786677888</v>
       </c>
       <c r="B6" t="n">
-        <v>7.628175510521459</v>
+        <v>3.848432567450529</v>
       </c>
       <c r="C6" t="n">
-        <v>7.651122352731702</v>
+        <v>3.85999873360032</v>
       </c>
       <c r="D6" t="n">
-        <v>7.33107856074701</v>
+        <v>3.698566175459463</v>
       </c>
       <c r="E6" t="n">
-        <v>7.495271457340003</v>
+        <v>3.781358582490838</v>
       </c>
       <c r="F6" t="n">
-        <v>7.25143315636984</v>
+        <v>3.658366868880801</v>
       </c>
       <c r="G6" t="n">
-        <v>7.25187941540067</v>
+        <v>3.658562727327448</v>
       </c>
       <c r="H6" t="n">
-        <v>7.011423555039177</v>
+        <v>3.537272338540614</v>
       </c>
       <c r="I6" t="n">
-        <v>7.206412832426353</v>
+        <v>3.635620283913732</v>
       </c>
       <c r="J6" t="n">
-        <v>7.108518701746834</v>
+        <v>3.586210229311439</v>
       </c>
       <c r="K6" t="n">
-        <v>7.473125852935111</v>
+        <v>3.77023814354619</v>
       </c>
       <c r="L6" t="n">
-        <v>7.091731023003751</v>
+        <v>3.577830387295865</v>
       </c>
       <c r="M6" t="n">
-        <v>7.236517849797774</v>
+        <v>3.650839821262822</v>
       </c>
       <c r="N6" t="n">
-        <v>6.875792363335989</v>
+        <v>3.46892598433971</v>
       </c>
       <c r="O6" t="n">
-        <v>7.950375657696785</v>
+        <v>4.010896438282878</v>
       </c>
       <c r="P6" t="n">
-        <v>6.333426491784214</v>
+        <v>3.195250617440911</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.082119550089759</v>
+        <v>4.077316898469213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.758039705784577</v>
+        <v>3.913983745880914</v>
       </c>
       <c r="B7" t="n">
-        <v>7.72660661702974</v>
+        <v>3.898104429932884</v>
       </c>
       <c r="C7" t="n">
-        <v>7.730097805104257</v>
+        <v>3.899900983463819</v>
       </c>
       <c r="D7" t="n">
-        <v>7.439256933637</v>
+        <v>3.753126255428836</v>
       </c>
       <c r="E7" t="n">
-        <v>7.618651373655165</v>
+        <v>3.843642137054435</v>
       </c>
       <c r="F7" t="n">
-        <v>7.310129741924796</v>
+        <v>3.688010854935622</v>
       </c>
       <c r="G7" t="n">
-        <v>7.440782215450705</v>
+        <v>3.753876430233921</v>
       </c>
       <c r="H7" t="n">
-        <v>7.100066262704578</v>
+        <v>3.581970988360991</v>
       </c>
       <c r="I7" t="n">
-        <v>7.369199336922187</v>
+        <v>3.717724770131047</v>
       </c>
       <c r="J7" t="n">
-        <v>7.190381314818842</v>
+        <v>3.627581843921996</v>
       </c>
       <c r="K7" t="n">
-        <v>7.594582685825753</v>
+        <v>3.83156344147169</v>
       </c>
       <c r="L7" t="n">
-        <v>7.305502621771806</v>
+        <v>3.685581527961671</v>
       </c>
       <c r="M7" t="n">
-        <v>7.318555698423556</v>
+        <v>3.692233608527717</v>
       </c>
       <c r="N7" t="n">
-        <v>7.174946499627554</v>
+        <v>3.619716521192971</v>
       </c>
       <c r="O7" t="n">
-        <v>7.964073894184772</v>
+        <v>4.018039444157139</v>
       </c>
       <c r="P7" t="n">
-        <v>6.426169486024542</v>
+        <v>3.241951628506841</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.097922303598132</v>
+        <v>4.085626527079385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.857376289897078</v>
+        <v>3.964010370832669</v>
       </c>
       <c r="B8" t="n">
-        <v>7.820575696688104</v>
+        <v>3.94543537179384</v>
       </c>
       <c r="C8" t="n">
-        <v>7.834063763203238</v>
+        <v>3.952278478304946</v>
       </c>
       <c r="D8" t="n">
-        <v>7.51840086006286</v>
+        <v>3.793012302198781</v>
       </c>
       <c r="E8" t="n">
-        <v>7.695198883901656</v>
+        <v>3.882205215448911</v>
       </c>
       <c r="F8" t="n">
-        <v>7.420852129365534</v>
+        <v>3.743801232955927</v>
       </c>
       <c r="G8" t="n">
-        <v>7.468198409469707</v>
+        <v>3.767716999042099</v>
       </c>
       <c r="H8" t="n">
-        <v>7.186755460193356</v>
+        <v>3.625748335967165</v>
       </c>
       <c r="I8" t="n">
-        <v>7.426095109519403</v>
+        <v>3.746507149579498</v>
       </c>
       <c r="J8" t="n">
-        <v>7.232196687540921</v>
+        <v>3.648691916440078</v>
       </c>
       <c r="K8" t="n">
-        <v>7.659721290950745</v>
+        <v>3.864384086657556</v>
       </c>
       <c r="L8" t="n">
-        <v>7.363790700006875</v>
+        <v>3.715006914385909</v>
       </c>
       <c r="M8" t="n">
-        <v>7.444419339243636</v>
+        <v>3.755662465967285</v>
       </c>
       <c r="N8" t="n">
-        <v>7.29076931225398</v>
+        <v>3.678300937924599</v>
       </c>
       <c r="O8" t="n">
-        <v>8.126285107682529</v>
+        <v>4.099753634805155</v>
       </c>
       <c r="P8" t="n">
-        <v>6.605598297003415</v>
+        <v>3.332646596955936</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.079493834075032</v>
+        <v>4.076042539374406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.950536806791251</v>
+        <v>4.01103800215288</v>
       </c>
       <c r="B9" t="n">
-        <v>7.907083460581016</v>
+        <v>3.989120617605074</v>
       </c>
       <c r="C9" t="n">
-        <v>7.935484016376354</v>
+        <v>4.003449553338275</v>
       </c>
       <c r="D9" t="n">
-        <v>7.646139126887444</v>
+        <v>3.85746991394665</v>
       </c>
       <c r="E9" t="n">
-        <v>7.748123401891192</v>
+        <v>3.908940888343132</v>
       </c>
       <c r="F9" t="n">
-        <v>7.500778699470461</v>
+        <v>3.784185880183666</v>
       </c>
       <c r="G9" t="n">
-        <v>7.501263837128977</v>
+        <v>3.784418977319009</v>
       </c>
       <c r="H9" t="n">
-        <v>7.25249302156806</v>
+        <v>3.658903560821687</v>
       </c>
       <c r="I9" t="n">
-        <v>7.435694749807579</v>
+        <v>3.751367793380993</v>
       </c>
       <c r="J9" t="n">
-        <v>7.340906401675951</v>
+        <v>3.703662190514695</v>
       </c>
       <c r="K9" t="n">
-        <v>7.634722333348734</v>
+        <v>3.851737145741212</v>
       </c>
       <c r="L9" t="n">
-        <v>7.408118533610855</v>
+        <v>3.737442229397856</v>
       </c>
       <c r="M9" t="n">
-        <v>7.503208895430014</v>
+        <v>3.785428117356164</v>
       </c>
       <c r="N9" t="n">
-        <v>7.521405783562116</v>
+        <v>3.794534824463288</v>
       </c>
       <c r="O9" t="n">
-        <v>8.263340158692415</v>
+        <v>4.168930895014117</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876889980245149</v>
+        <v>3.469374554192846</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.106699858121182</v>
+        <v>4.089901301129732</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.009680214835408</v>
+        <v>4.040871308563967</v>
       </c>
       <c r="B10" t="n">
-        <v>7.975225298830147</v>
+        <v>4.023508698893719</v>
       </c>
       <c r="C10" t="n">
-        <v>8.001726436452602</v>
+        <v>4.036882504901613</v>
       </c>
       <c r="D10" t="n">
-        <v>7.708608629703046</v>
+        <v>3.889052870196804</v>
       </c>
       <c r="E10" t="n">
-        <v>7.835853306993533</v>
+        <v>3.953263455834169</v>
       </c>
       <c r="F10" t="n">
-        <v>7.60763238172727</v>
+        <v>3.838149004074723</v>
       </c>
       <c r="G10" t="n">
-        <v>7.615623911821019</v>
+        <v>3.842161970245009</v>
       </c>
       <c r="H10" t="n">
-        <v>7.386831639765286</v>
+        <v>3.726756715595982</v>
       </c>
       <c r="I10" t="n">
-        <v>7.612240907753976</v>
+        <v>3.840478554104155</v>
       </c>
       <c r="J10" t="n">
-        <v>7.440568664727619</v>
+        <v>3.753785749762976</v>
       </c>
       <c r="K10" t="n">
-        <v>7.871739970722703</v>
+        <v>3.97139102207906</v>
       </c>
       <c r="L10" t="n">
-        <v>7.484363466711443</v>
+        <v>3.77585294185996</v>
       </c>
       <c r="M10" t="n">
-        <v>7.56979277127985</v>
+        <v>3.818970226602395</v>
       </c>
       <c r="N10" t="n">
-        <v>7.631363557991699</v>
+        <v>3.850035252388411</v>
       </c>
       <c r="O10" t="n">
-        <v>8.29809765184358</v>
+        <v>4.186472875772658</v>
       </c>
       <c r="P10" t="n">
-        <v>7.09118446838266</v>
+        <v>3.577509168072771</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.170405025147147</v>
+        <v>4.122004461962421</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.121424715763425</v>
+        <v>4.097294460027288</v>
       </c>
       <c r="B11" t="n">
-        <v>8.083581724565772</v>
+        <v>4.078196413757933</v>
       </c>
       <c r="C11" t="n">
-        <v>8.110601243890702</v>
+        <v>4.09183856573627</v>
       </c>
       <c r="D11" t="n">
-        <v>7.781812577968553</v>
+        <v>3.925969202609522</v>
       </c>
       <c r="E11" t="n">
-        <v>7.942059012122243</v>
+        <v>4.006745035155383</v>
       </c>
       <c r="F11" t="n">
-        <v>7.682137918832694</v>
+        <v>3.875644099618609</v>
       </c>
       <c r="G11" t="n">
-        <v>7.704484677876483</v>
+        <v>3.886949310682735</v>
       </c>
       <c r="H11" t="n">
-        <v>7.427567989704489</v>
+        <v>3.747233161876651</v>
       </c>
       <c r="I11" t="n">
-        <v>7.725291505188888</v>
+        <v>3.897509179443363</v>
       </c>
       <c r="J11" t="n">
-        <v>7.56133920532085</v>
+        <v>3.81466958445532</v>
       </c>
       <c r="K11" t="n">
-        <v>7.983216828923896</v>
+        <v>4.02756259919509</v>
       </c>
       <c r="L11" t="n">
-        <v>7.521782737213157</v>
+        <v>3.794759393654656</v>
       </c>
       <c r="M11" t="n">
-        <v>7.587420002997598</v>
+        <v>3.82783928833739</v>
       </c>
       <c r="N11" t="n">
-        <v>7.757365246112983</v>
+        <v>3.91367645563298</v>
       </c>
       <c r="O11" t="n">
-        <v>8.395019253372579</v>
+        <v>4.235256410757518</v>
       </c>
       <c r="P11" t="n">
-        <v>7.288172896074611</v>
+        <v>3.676978253813928</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.299291620134396</v>
+        <v>4.186816551914889</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.191419205140543</v>
+        <v>4.132587356171784</v>
       </c>
       <c r="B12" t="n">
-        <v>8.148711314356806</v>
+        <v>4.111056856015686</v>
       </c>
       <c r="C12" t="n">
-        <v>8.167810299342895</v>
+        <v>4.120684336234943</v>
       </c>
       <c r="D12" t="n">
-        <v>7.840649464658201</v>
+        <v>3.955666630446594</v>
       </c>
       <c r="E12" t="n">
-        <v>7.975785376452173</v>
+        <v>4.023832476500007</v>
       </c>
       <c r="F12" t="n">
-        <v>7.72972197836996</v>
+        <v>3.899712515901951</v>
       </c>
       <c r="G12" t="n">
-        <v>7.738935649673138</v>
+        <v>3.904312773147381</v>
       </c>
       <c r="H12" t="n">
-        <v>7.60198258462863</v>
+        <v>3.835128974848037</v>
       </c>
       <c r="I12" t="n">
-        <v>7.719172347266157</v>
+        <v>3.894360662527439</v>
       </c>
       <c r="J12" t="n">
-        <v>7.853542519132229</v>
+        <v>3.96188549145866</v>
       </c>
       <c r="K12" t="n">
-        <v>8.047644349583097</v>
+        <v>4.059940928353402</v>
       </c>
       <c r="L12" t="n">
-        <v>7.598987239921702</v>
+        <v>3.833711630559233</v>
       </c>
       <c r="M12" t="n">
-        <v>7.680414299671955</v>
+        <v>3.874755772121114</v>
       </c>
       <c r="N12" t="n">
-        <v>7.801793938765598</v>
+        <v>3.9360856182834</v>
       </c>
       <c r="O12" t="n">
-        <v>8.399383801924097</v>
+        <v>4.237444965446548</v>
       </c>
       <c r="P12" t="n">
-        <v>7.271127153397035</v>
+        <v>3.668403121881304</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.516654139108857</v>
+        <v>4.296694561808299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.2653838222086</v>
+        <v>4.169878349589845</v>
       </c>
       <c r="B13" t="n">
-        <v>8.222955406777503</v>
+        <v>4.148466956384612</v>
       </c>
       <c r="C13" t="n">
-        <v>8.251004364548551</v>
+        <v>4.162636988095061</v>
       </c>
       <c r="D13" t="n">
-        <v>7.936946754310738</v>
+        <v>4.004182387990608</v>
       </c>
       <c r="E13" t="n">
-        <v>8.04468675658711</v>
+        <v>4.058505106852651</v>
       </c>
       <c r="F13" t="n">
-        <v>7.800494040300797</v>
+        <v>3.935282854490464</v>
       </c>
       <c r="G13" t="n">
-        <v>7.805739837746527</v>
+        <v>3.938001278765199</v>
       </c>
       <c r="H13" t="n">
-        <v>7.62665924404171</v>
+        <v>3.847584889819319</v>
       </c>
       <c r="I13" t="n">
-        <v>7.764957847679171</v>
+        <v>3.917486456736639</v>
       </c>
       <c r="J13" t="n">
-        <v>7.840528884566537</v>
+        <v>3.955544112318139</v>
       </c>
       <c r="K13" t="n">
-        <v>8.113478262339457</v>
+        <v>4.093297412685757</v>
       </c>
       <c r="L13" t="n">
-        <v>7.624218905831456</v>
+        <v>3.846402063989854</v>
       </c>
       <c r="M13" t="n">
-        <v>7.713195180853234</v>
+        <v>3.891228064440272</v>
       </c>
       <c r="N13" t="n">
-        <v>7.777956832327185</v>
+        <v>3.924077136106057</v>
       </c>
       <c r="O13" t="n">
-        <v>8.484683511066885</v>
+        <v>4.280479813397215</v>
       </c>
       <c r="P13" t="n">
-        <v>7.238993685885481</v>
+        <v>3.652225043629317</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.789097531263488</v>
+        <v>4.434012084238747</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.368014947423699</v>
+        <v>4.221697832630145</v>
       </c>
       <c r="B14" t="n">
-        <v>8.334129687832792</v>
+        <v>4.204600726282349</v>
       </c>
       <c r="C14" t="n">
-        <v>8.353197119150034</v>
+        <v>4.21421228767285</v>
       </c>
       <c r="D14" t="n">
-        <v>8.038604786916947</v>
+        <v>4.055489341597953</v>
       </c>
       <c r="E14" t="n">
-        <v>8.195678386976448</v>
+        <v>4.134750327028885</v>
       </c>
       <c r="F14" t="n">
-        <v>7.918552092289974</v>
+        <v>3.994904837739165</v>
       </c>
       <c r="G14" t="n">
-        <v>7.932249201861215</v>
+        <v>4.001892066503466</v>
       </c>
       <c r="H14" t="n">
-        <v>7.715264199996168</v>
+        <v>3.892277001549314</v>
       </c>
       <c r="I14" t="n">
-        <v>7.866713922042154</v>
+        <v>3.968654120592376</v>
       </c>
       <c r="J14" t="n">
-        <v>7.904546770989106</v>
+        <v>3.987710948465848</v>
       </c>
       <c r="K14" t="n">
-        <v>8.2296521095318</v>
+        <v>4.151853971467063</v>
       </c>
       <c r="L14" t="n">
-        <v>7.740879581057431</v>
+        <v>3.905217872268029</v>
       </c>
       <c r="M14" t="n">
-        <v>7.863281333638352</v>
+        <v>3.967027273146563</v>
       </c>
       <c r="N14" t="n">
-        <v>7.767819089293502</v>
+        <v>3.918870257779137</v>
       </c>
       <c r="O14" t="n">
-        <v>8.58151890346493</v>
+        <v>4.329389846217718</v>
       </c>
       <c r="P14" t="n">
-        <v>7.221409277004025</v>
+        <v>3.643230336853077</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.927747732925239</v>
+        <v>4.503992108240644</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.490341196582738</v>
+        <v>4.283347192426731</v>
       </c>
       <c r="B15" t="n">
-        <v>8.44634862071025</v>
+        <v>4.261138436459746</v>
       </c>
       <c r="C15" t="n">
-        <v>8.471869904223347</v>
+        <v>4.274040931430569</v>
       </c>
       <c r="D15" t="n">
-        <v>8.089839493248078</v>
+        <v>4.081236341520563</v>
       </c>
       <c r="E15" t="n">
-        <v>8.319001393996013</v>
+        <v>4.196916195965614</v>
       </c>
       <c r="F15" t="n">
-        <v>8.017302116236955</v>
+        <v>4.044773127197766</v>
       </c>
       <c r="G15" t="n">
-        <v>8.07316506963782</v>
+        <v>4.07290198187286</v>
       </c>
       <c r="H15" t="n">
-        <v>7.931407958511433</v>
+        <v>4.001345425294606</v>
       </c>
       <c r="I15" t="n">
-        <v>8.144812745879147</v>
+        <v>4.109186677901759</v>
       </c>
       <c r="J15" t="n">
-        <v>8.066671775355909</v>
+        <v>4.069628104180491</v>
       </c>
       <c r="K15" t="n">
-        <v>8.402987681673066</v>
+        <v>4.239327935476439</v>
       </c>
       <c r="L15" t="n">
-        <v>7.852780723412935</v>
+        <v>3.961756435239824</v>
       </c>
       <c r="M15" t="n">
-        <v>8.023615103839743</v>
+        <v>4.047913400434513</v>
       </c>
       <c r="N15" t="n">
-        <v>7.761476801855355</v>
+        <v>3.915699852473676</v>
       </c>
       <c r="O15" t="n">
-        <v>8.715545929182298</v>
+        <v>4.396929741183296</v>
       </c>
       <c r="P15" t="n">
-        <v>7.231932425564332</v>
+        <v>3.648495205199032</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.944330312820819</v>
+        <v>4.51226137124933</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8.570106617593199</v>
+        <v>4.323598235198848</v>
       </c>
       <c r="B16" t="n">
-        <v>8.53044365585315</v>
+        <v>4.303589973042459</v>
       </c>
       <c r="C16" t="n">
-        <v>8.554907891459887</v>
+        <v>4.315956913131591</v>
       </c>
       <c r="D16" t="n">
-        <v>8.199454121528955</v>
+        <v>4.136650921476327</v>
       </c>
       <c r="E16" t="n">
-        <v>8.415005121836604</v>
+        <v>4.245397841733725</v>
       </c>
       <c r="F16" t="n">
-        <v>8.100985826768104</v>
+        <v>4.087038754601803</v>
       </c>
       <c r="G16" t="n">
-        <v>8.17288029777648</v>
+        <v>4.123241013838935</v>
       </c>
       <c r="H16" t="n">
-        <v>7.999404424500522</v>
+        <v>4.035792065131888</v>
       </c>
       <c r="I16" t="n">
-        <v>8.178891271691739</v>
+        <v>4.126322159997447</v>
       </c>
       <c r="J16" t="n">
-        <v>8.14483866496427</v>
+        <v>4.10908348977965</v>
       </c>
       <c r="K16" t="n">
-        <v>8.511102947225362</v>
+        <v>4.293857314847498</v>
       </c>
       <c r="L16" t="n">
-        <v>7.985556871543888</v>
+        <v>4.028806541956383</v>
       </c>
       <c r="M16" t="n">
-        <v>8.17817060843362</v>
+        <v>4.125947214727304</v>
       </c>
       <c r="N16" t="n">
-        <v>7.811417244305408</v>
+        <v>3.940885713682667</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926092855685916</v>
+        <v>4.503300491984195</v>
       </c>
       <c r="P16" t="n">
-        <v>7.223483367272309</v>
+        <v>3.644253690130191</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.981606464895981</v>
+        <v>4.531329853979568</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.654602271638774</v>
+        <v>4.366273772443328</v>
       </c>
       <c r="B17" t="n">
-        <v>8.606459261396227</v>
+        <v>4.341970553435848</v>
       </c>
       <c r="C17" t="n">
-        <v>8.649516496370765</v>
+        <v>4.363733297932891</v>
       </c>
       <c r="D17" t="n">
-        <v>8.369411760728529</v>
+        <v>4.222496048186295</v>
       </c>
       <c r="E17" t="n">
-        <v>8.46714924998056</v>
+        <v>4.27164628476212</v>
       </c>
       <c r="F17" t="n">
-        <v>8.239760552730125</v>
+        <v>4.157007408011733</v>
       </c>
       <c r="G17" t="n">
-        <v>8.274929933951409</v>
+        <v>4.17473217103616</v>
       </c>
       <c r="H17" t="n">
-        <v>8.078764155482958</v>
+        <v>4.075848386516553</v>
       </c>
       <c r="I17" t="n">
-        <v>8.348065703753873</v>
+        <v>4.211635143003316</v>
       </c>
       <c r="J17" t="n">
-        <v>8.260905455065885</v>
+        <v>4.167656535919309</v>
       </c>
       <c r="K17" t="n">
-        <v>8.755731780291804</v>
+        <v>4.417297029781073</v>
       </c>
       <c r="L17" t="n">
-        <v>8.118829426500799</v>
+        <v>4.095960973854248</v>
       </c>
       <c r="M17" t="n">
-        <v>8.303738433608263</v>
+        <v>4.189250142860828</v>
       </c>
       <c r="N17" t="n">
-        <v>7.9362711677224</v>
+        <v>4.003844112879562</v>
       </c>
       <c r="O17" t="n">
-        <v>9.10630769109409</v>
+        <v>4.594207521973491</v>
       </c>
       <c r="P17" t="n">
-        <v>7.302599684237928</v>
+        <v>3.684053036136381</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.026634677256679</v>
+        <v>4.553910996833503</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.825132948002935</v>
+        <v>4.452285194060827</v>
       </c>
       <c r="B18" t="n">
-        <v>8.776390418052305</v>
+        <v>4.427700552902141</v>
       </c>
       <c r="C18" t="n">
-        <v>8.805476139228309</v>
+        <v>4.442385388163939</v>
       </c>
       <c r="D18" t="n">
-        <v>8.441340602697613</v>
+        <v>4.25873583037692</v>
       </c>
       <c r="E18" t="n">
-        <v>8.639422139631746</v>
+        <v>4.358594927422577</v>
       </c>
       <c r="F18" t="n">
-        <v>8.277300403323503</v>
+        <v>4.175985494535826</v>
       </c>
       <c r="G18" t="n">
-        <v>8.409129377930688</v>
+        <v>4.242498625046699</v>
       </c>
       <c r="H18" t="n">
-        <v>8.31043739019605</v>
+        <v>4.192743472978179</v>
       </c>
       <c r="I18" t="n">
-        <v>8.410543094986686</v>
+        <v>4.243162667617627</v>
       </c>
       <c r="J18" t="n">
-        <v>8.536776364498968</v>
+        <v>4.306805860715792</v>
       </c>
       <c r="K18" t="n">
-        <v>8.782445905178971</v>
+        <v>4.430809557010975</v>
       </c>
       <c r="L18" t="n">
-        <v>8.16509499344698</v>
+        <v>4.119308210342022</v>
       </c>
       <c r="M18" t="n">
-        <v>8.38811745177078</v>
+        <v>4.231834431104766</v>
       </c>
       <c r="N18" t="n">
-        <v>8.111018203086175</v>
+        <v>4.092022485061352</v>
       </c>
       <c r="O18" t="n">
-        <v>9.260863759146337</v>
+        <v>4.672086980480318</v>
       </c>
       <c r="P18" t="n">
-        <v>7.475500829974182</v>
+        <v>3.771373497154189</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.116538968217567</v>
+        <v>4.59924782112808</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.923792818610353</v>
+        <v>4.502028691272581</v>
       </c>
       <c r="B19" t="n">
-        <v>8.899028823149575</v>
+        <v>4.489555436148548</v>
       </c>
       <c r="C19" t="n">
-        <v>8.904270112928327</v>
+        <v>4.49218289568754</v>
       </c>
       <c r="D19" t="n">
-        <v>8.57628775593688</v>
+        <v>4.326719178429248</v>
       </c>
       <c r="E19" t="n">
-        <v>8.811932245257653</v>
+        <v>4.445629133787593</v>
       </c>
       <c r="F19" t="n">
-        <v>8.325929114682936</v>
+        <v>4.20049281566913</v>
       </c>
       <c r="G19" t="n">
-        <v>8.578743870981556</v>
+        <v>4.327964258249738</v>
       </c>
       <c r="H19" t="n">
-        <v>8.522049816481609</v>
+        <v>4.299458468450907</v>
       </c>
       <c r="I19" t="n">
-        <v>8.684297654773562</v>
+        <v>4.38122638514597</v>
       </c>
       <c r="J19" t="n">
-        <v>8.856550259923347</v>
+        <v>4.468194926342371</v>
       </c>
       <c r="K19" t="n">
-        <v>8.915693104509131</v>
+        <v>4.497926181690547</v>
       </c>
       <c r="L19" t="n">
-        <v>8.219865964522407</v>
+        <v>4.146925388378558</v>
       </c>
       <c r="M19" t="n">
-        <v>8.512127878004501</v>
+        <v>4.294322087794188</v>
       </c>
       <c r="N19" t="n">
-        <v>8.345736930301326</v>
+        <v>4.210452885703449</v>
       </c>
       <c r="O19" t="n">
-        <v>9.31664106687462</v>
+        <v>4.70024113472254</v>
       </c>
       <c r="P19" t="n">
-        <v>7.684806457683713</v>
+        <v>3.876987250794822</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.466644954737388</v>
+        <v>4.775907876032405</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9.154851883697685</v>
+        <v>4.618603695570309</v>
       </c>
       <c r="B20" t="n">
-        <v>9.105008919546032</v>
+        <v>4.593443986722844</v>
       </c>
       <c r="C20" t="n">
-        <v>9.121324983631535</v>
+        <v>4.601731726943478</v>
       </c>
       <c r="D20" t="n">
-        <v>8.757601898629332</v>
+        <v>4.418253012300777</v>
       </c>
       <c r="E20" t="n">
-        <v>8.956681883799106</v>
+        <v>4.518646811433727</v>
       </c>
       <c r="F20" t="n">
-        <v>8.428380496677287</v>
+        <v>4.252192623228968</v>
       </c>
       <c r="G20" t="n">
-        <v>8.809379778831319</v>
+        <v>4.44434624674881</v>
       </c>
       <c r="H20" t="n">
-        <v>8.279390833884584</v>
+        <v>4.177098675489488</v>
       </c>
       <c r="I20" t="n">
-        <v>8.848066830670616</v>
+        <v>4.463893999930497</v>
       </c>
       <c r="J20" t="n">
-        <v>8.763503561620372</v>
+        <v>4.421159619872583</v>
       </c>
       <c r="K20" t="n">
-        <v>8.973512385378481</v>
+        <v>4.527068156109984</v>
       </c>
       <c r="L20" t="n">
-        <v>8.339635803046507</v>
+        <v>4.20733137394345</v>
       </c>
       <c r="M20" t="n">
-        <v>8.667607454328882</v>
+        <v>4.372777466784191</v>
       </c>
       <c r="N20" t="n">
-        <v>8.536568448359604</v>
+        <v>4.306658327285008</v>
       </c>
       <c r="O20" t="n">
-        <v>9.338195039988641</v>
+        <v>4.711202953909234</v>
       </c>
       <c r="P20" t="n">
-        <v>7.905149671447423</v>
+        <v>3.98814303096063</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.706373953798668</v>
+        <v>4.89680796924994</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.286026683134677</v>
+        <v>4.684727667571079</v>
       </c>
       <c r="B21" t="n">
-        <v>9.219785389975174</v>
+        <v>4.65131944704527</v>
       </c>
       <c r="C21" t="n">
-        <v>9.257406378574156</v>
+        <v>4.670285594447797</v>
       </c>
       <c r="D21" t="n">
-        <v>8.856976234452775</v>
+        <v>4.468289586520505</v>
       </c>
       <c r="E21" t="n">
-        <v>9.14645973470126</v>
+        <v>4.614343703289519</v>
       </c>
       <c r="F21" t="n">
-        <v>8.612767177873666</v>
+        <v>4.345177344635607</v>
       </c>
       <c r="G21" t="n">
-        <v>8.966758209870212</v>
+        <v>4.523656409990003</v>
       </c>
       <c r="H21" t="n">
-        <v>8.241585594397872</v>
+        <v>4.157974192593808</v>
       </c>
       <c r="I21" t="n">
-        <v>8.971574652036281</v>
+        <v>4.526085736963954</v>
       </c>
       <c r="J21" t="n">
-        <v>8.509058156792435</v>
+        <v>4.292819464065625</v>
       </c>
       <c r="K21" t="n">
-        <v>9.170275993179899</v>
+        <v>4.62640278460112</v>
       </c>
       <c r="L21" t="n">
-        <v>8.492902678343027</v>
+        <v>4.284711379198085</v>
       </c>
       <c r="M21" t="n">
-        <v>8.780224752275526</v>
+        <v>4.429609675293558</v>
       </c>
       <c r="N21" t="n">
-        <v>8.700211409581271</v>
+        <v>4.389335322807908</v>
       </c>
       <c r="O21" t="n">
-        <v>9.482863540524489</v>
+        <v>4.78421636758338</v>
       </c>
       <c r="P21" t="n">
-        <v>8.062856035258971</v>
+        <v>4.067744281356202</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.778223911595635</v>
+        <v>4.933250147977595</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.367253715162777</v>
+        <v>4.725788296491312</v>
       </c>
       <c r="B22" t="n">
-        <v>9.307455568490056</v>
+        <v>4.695631496738737</v>
       </c>
       <c r="C22" t="n">
-        <v>9.335842037826087</v>
+        <v>4.709945082172781</v>
       </c>
       <c r="D22" t="n">
-        <v>8.950265219855822</v>
+        <v>4.515405624193265</v>
       </c>
       <c r="E22" t="n">
-        <v>9.259024067560913</v>
+        <v>4.671227363727541</v>
       </c>
       <c r="F22" t="n">
-        <v>8.710067986887196</v>
+        <v>4.394300007525911</v>
       </c>
       <c r="G22" t="n">
-        <v>9.073814173682662</v>
+        <v>4.57777531099102</v>
       </c>
       <c r="H22" t="n">
-        <v>8.340202078710627</v>
+        <v>4.207762319379035</v>
       </c>
       <c r="I22" t="n">
-        <v>9.063353569001675</v>
+        <v>4.572477752193156</v>
       </c>
       <c r="J22" t="n">
-        <v>8.556928453182808</v>
+        <v>4.317033423926156</v>
       </c>
       <c r="K22" t="n">
-        <v>9.406052331759781</v>
+        <v>4.745301369367497</v>
       </c>
       <c r="L22" t="n">
-        <v>8.563386249587266</v>
+        <v>4.320206103350011</v>
       </c>
       <c r="M22" t="n">
-        <v>8.820343551838734</v>
+        <v>4.449839095463724</v>
       </c>
       <c r="N22" t="n">
-        <v>8.932050301055808</v>
+        <v>4.506223871179152</v>
       </c>
       <c r="O22" t="n">
-        <v>9.641652871327519</v>
+        <v>4.864263060919296</v>
       </c>
       <c r="P22" t="n">
-        <v>8.220318421595332</v>
+        <v>4.147116130058821</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.842913440397936</v>
+        <v>4.96580131013382</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.435559519798236</v>
+        <v>4.760273880606084</v>
       </c>
       <c r="B23" t="n">
-        <v>9.387663867781113</v>
+        <v>4.736125870178967</v>
       </c>
       <c r="C23" t="n">
-        <v>9.403648054885354</v>
+        <v>4.744169711201888</v>
       </c>
       <c r="D23" t="n">
-        <v>9.029264900938383</v>
+        <v>4.555283711548833</v>
       </c>
       <c r="E23" t="n">
-        <v>9.321908839196869</v>
+        <v>4.702928289869364</v>
       </c>
       <c r="F23" t="n">
-        <v>8.783113039891726</v>
+        <v>4.431167162128367</v>
       </c>
       <c r="G23" t="n">
-        <v>9.108195276641156</v>
+        <v>4.595100397707774</v>
       </c>
       <c r="H23" t="n">
-        <v>8.543729440812642</v>
+        <v>4.310322500546676</v>
       </c>
       <c r="I23" t="n">
-        <v>9.154126712772587</v>
+        <v>4.618221643680186</v>
       </c>
       <c r="J23" t="n">
-        <v>8.628009853760014</v>
+        <v>4.35297586513682</v>
       </c>
       <c r="K23" t="n">
-        <v>9.586218709747943</v>
+        <v>4.836235120247919</v>
       </c>
       <c r="L23" t="n">
-        <v>8.642010103935531</v>
+        <v>4.359983560966662</v>
       </c>
       <c r="M23" t="n">
-        <v>8.880201988557287</v>
+        <v>4.480090839659232</v>
       </c>
       <c r="N23" t="n">
-        <v>9.060150871613756</v>
+        <v>4.570967737579814</v>
       </c>
       <c r="O23" t="n">
-        <v>9.724909480412496</v>
+        <v>4.906214291455419</v>
       </c>
       <c r="P23" t="n">
-        <v>8.261070548368957</v>
+        <v>4.167862627898728</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.832960511710356</v>
+        <v>4.960708990520977</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9.477739450087167</v>
+        <v>4.781495384925452</v>
       </c>
       <c r="B24" t="n">
-        <v>9.422334024884575</v>
+        <v>4.753564094285801</v>
       </c>
       <c r="C24" t="n">
-        <v>9.43522369860837</v>
+        <v>4.760043910383533</v>
       </c>
       <c r="D24" t="n">
-        <v>9.048890156044161</v>
+        <v>4.565211091131244</v>
       </c>
       <c r="E24" t="n">
-        <v>9.348013865583624</v>
+        <v>4.716049384470771</v>
       </c>
       <c r="F24" t="n">
-        <v>8.837674967911045</v>
+        <v>4.458682857631589</v>
       </c>
       <c r="G24" t="n">
-        <v>9.122866042279663</v>
+        <v>4.602466835714205</v>
       </c>
       <c r="H24" t="n">
-        <v>8.55943358910587</v>
+        <v>4.318338199354478</v>
       </c>
       <c r="I24" t="n">
-        <v>9.16337644541159</v>
+        <v>4.622892682860616</v>
       </c>
       <c r="J24" t="n">
-        <v>8.634566255379619</v>
+        <v>4.35626026062676</v>
       </c>
       <c r="K24" t="n">
-        <v>9.675969740031576</v>
+        <v>4.881461649800407</v>
       </c>
       <c r="L24" t="n">
-        <v>8.735375719677206</v>
+        <v>4.407039050237194</v>
       </c>
       <c r="M24" t="n">
-        <v>8.938185799271336</v>
+        <v>4.50932122043122</v>
       </c>
       <c r="N24" t="n">
-        <v>9.161389127732631</v>
+        <v>4.621887238265851</v>
       </c>
       <c r="O24" t="n">
-        <v>9.813281164600841</v>
+        <v>4.95093994643172</v>
       </c>
       <c r="P24" t="n">
-        <v>8.265127448649221</v>
+        <v>4.169681069819201</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.833225337145317</v>
+        <v>4.960988707083389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.449412707338595</v>
+        <v>4.767215627002512</v>
       </c>
       <c r="B25" t="n">
-        <v>9.401827520884584</v>
+        <v>4.743212307358188</v>
       </c>
       <c r="C25" t="n">
-        <v>9.409326024902606</v>
+        <v>4.746990755069135</v>
       </c>
       <c r="D25" t="n">
-        <v>9.047333884019983</v>
+        <v>4.564356875409652</v>
       </c>
       <c r="E25" t="n">
-        <v>9.310785607470105</v>
+        <v>4.697266872128526</v>
       </c>
       <c r="F25" t="n">
-        <v>8.823704581029258</v>
+        <v>4.451609496633132</v>
       </c>
       <c r="G25" t="n">
-        <v>9.079497778283638</v>
+        <v>4.58055968469917</v>
       </c>
       <c r="H25" t="n">
-        <v>8.591204189425689</v>
+        <v>4.334511729369678</v>
       </c>
       <c r="I25" t="n">
-        <v>9.139666117106934</v>
+        <v>4.610931957169538</v>
       </c>
       <c r="J25" t="n">
-        <v>8.852335027840478</v>
+        <v>4.466182900093644</v>
       </c>
       <c r="K25" t="n">
-        <v>9.759180145530028</v>
+        <v>4.923408332099743</v>
       </c>
       <c r="L25" t="n">
-        <v>8.774907959074891</v>
+        <v>4.426998418848121</v>
       </c>
       <c r="M25" t="n">
-        <v>8.964895979949898</v>
+        <v>4.522787696763652</v>
       </c>
       <c r="N25" t="n">
-        <v>9.192481887630624</v>
+        <v>4.637749498325929</v>
       </c>
       <c r="O25" t="n">
-        <v>9.811188480206271</v>
+        <v>4.949742054567897</v>
       </c>
       <c r="P25" t="n">
-        <v>8.192832922196541</v>
+        <v>4.133363683338394</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.837158276583684</v>
+        <v>4.962926824484324</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.33406939778696</v>
+        <v>4.709009850983418</v>
       </c>
       <c r="B26" t="n">
-        <v>9.266933896190684</v>
+        <v>4.675133446333329</v>
       </c>
       <c r="C26" t="n">
-        <v>9.282359696048015</v>
+        <v>4.682932819628939</v>
       </c>
       <c r="D26" t="n">
-        <v>8.939572470325464</v>
+        <v>4.510009994039677</v>
       </c>
       <c r="E26" t="n">
-        <v>9.10325712746668</v>
+        <v>4.592517283477457</v>
       </c>
       <c r="F26" t="n">
-        <v>8.708576512575828</v>
+        <v>4.393450624305905</v>
       </c>
       <c r="G26" t="n">
-        <v>8.960919654216866</v>
+        <v>4.520732462265447</v>
       </c>
       <c r="H26" t="n">
-        <v>8.473174310355125</v>
+        <v>4.274733684746216</v>
       </c>
       <c r="I26" t="n">
-        <v>8.982198096186853</v>
+        <v>4.531500128594288</v>
       </c>
       <c r="J26" t="n">
-        <v>8.82264246199755</v>
+        <v>4.45105717012829</v>
       </c>
       <c r="K26" t="n">
-        <v>9.6156019369445</v>
+        <v>4.850821884153993</v>
       </c>
       <c r="L26" t="n">
-        <v>8.795374457530452</v>
+        <v>4.437311830027843</v>
       </c>
       <c r="M26" t="n">
-        <v>9.017149982476445</v>
+        <v>4.549158657920502</v>
       </c>
       <c r="N26" t="n">
-        <v>9.037546612093845</v>
+        <v>4.559561612511972</v>
       </c>
       <c r="O26" t="n">
-        <v>9.829284509289739</v>
+        <v>4.958864111974179</v>
       </c>
       <c r="P26" t="n">
-        <v>8.116523191383143</v>
+        <v>4.094909478362013</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.865217376605434</v>
+        <v>4.976981444686299</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.236415300374023</v>
+        <v>4.659786842618997</v>
       </c>
       <c r="B27" t="n">
-        <v>9.191183116082566</v>
+        <v>4.636970328511326</v>
       </c>
       <c r="C27" t="n">
-        <v>9.2056786461673</v>
+        <v>4.644292136944283</v>
       </c>
       <c r="D27" t="n">
-        <v>8.879515696259876</v>
+        <v>4.479746879252201</v>
       </c>
       <c r="E27" t="n">
-        <v>9.051706320988712</v>
+        <v>4.566561064662638</v>
       </c>
       <c r="F27" t="n">
-        <v>8.61222963858653</v>
+        <v>4.344863232032493</v>
       </c>
       <c r="G27" t="n">
-        <v>8.868700676262739</v>
+        <v>4.474233563471746</v>
       </c>
       <c r="H27" t="n">
-        <v>8.47627614869441</v>
+        <v>4.276319313796145</v>
       </c>
       <c r="I27" t="n">
-        <v>8.951768526793009</v>
+        <v>4.516170580767908</v>
       </c>
       <c r="J27" t="n">
-        <v>8.783815109023561</v>
+        <v>4.431447162955578</v>
       </c>
       <c r="K27" t="n">
-        <v>9.202226900178841</v>
+        <v>4.64248392855658</v>
       </c>
       <c r="L27" t="n">
-        <v>8.744128482031876</v>
+        <v>4.411412748437663</v>
       </c>
       <c r="M27" t="n">
-        <v>8.981350091336601</v>
+        <v>4.531083680663462</v>
       </c>
       <c r="N27" t="n">
-        <v>8.864985231756062</v>
+        <v>4.472483345103081</v>
       </c>
       <c r="O27" t="n">
-        <v>9.68699098579296</v>
+        <v>4.887164570201929</v>
       </c>
       <c r="P27" t="n">
-        <v>8.145321548789298</v>
+        <v>4.109442231956239</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.882186488944383</v>
+        <v>4.98564242458828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.210885001526972</v>
+        <v>4.64689287559215</v>
       </c>
       <c r="B28" t="n">
-        <v>9.161247699681196</v>
+        <v>4.621857390461935</v>
       </c>
       <c r="C28" t="n">
-        <v>9.179706595956397</v>
+        <v>4.631157966162113</v>
       </c>
       <c r="D28" t="n">
-        <v>8.777875130863206</v>
+        <v>4.42843878858566</v>
       </c>
       <c r="E28" t="n">
-        <v>9.051550806477968</v>
+        <v>4.566528089945931</v>
       </c>
       <c r="F28" t="n">
-        <v>8.52802416560267</v>
+        <v>4.302414822362572</v>
       </c>
       <c r="G28" t="n">
-        <v>8.825890799513623</v>
+        <v>4.452649905798199</v>
       </c>
       <c r="H28" t="n">
-        <v>8.509436237360219</v>
+        <v>4.292992581328336</v>
       </c>
       <c r="I28" t="n">
-        <v>8.926361061871111</v>
+        <v>4.503297933601002</v>
       </c>
       <c r="J28" t="n">
-        <v>9.03706654556068</v>
+        <v>4.559106788833255</v>
       </c>
       <c r="K28" t="n">
-        <v>9.354776492967476</v>
+        <v>4.719311323041573</v>
       </c>
       <c r="L28" t="n">
-        <v>8.658842295890022</v>
+        <v>4.368435037711635</v>
       </c>
       <c r="M28" t="n">
-        <v>8.936735457421142</v>
+        <v>4.508588670043685</v>
       </c>
       <c r="N28" t="n">
-        <v>8.738297814795741</v>
+        <v>4.40858004971365</v>
       </c>
       <c r="O28" t="n">
-        <v>9.549278378862647</v>
+        <v>4.817615775900414</v>
       </c>
       <c r="P28" t="n">
-        <v>8.161166561675589</v>
+        <v>4.117396529567412</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.879715160523656</v>
+        <v>4.984237019421042</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.150921198092806</v>
+        <v>4.616664156845377</v>
       </c>
       <c r="B29" t="n">
-        <v>9.124845471541407</v>
+        <v>4.603496727081701</v>
       </c>
       <c r="C29" t="n">
-        <v>9.129524429864645</v>
+        <v>4.605872043743805</v>
       </c>
       <c r="D29" t="n">
-        <v>8.724162898069254</v>
+        <v>4.401380759409147</v>
       </c>
       <c r="E29" t="n">
-        <v>8.996141437066772</v>
+        <v>4.538546484436822</v>
       </c>
       <c r="F29" t="n">
-        <v>8.470895121239337</v>
+        <v>4.273635569826912</v>
       </c>
       <c r="G29" t="n">
-        <v>8.808363863386138</v>
+        <v>4.443754975966478</v>
       </c>
       <c r="H29" t="n">
-        <v>8.457045877907586</v>
+        <v>4.266890250406729</v>
       </c>
       <c r="I29" t="n">
-        <v>8.95916955251263</v>
+        <v>4.519842429179156</v>
       </c>
       <c r="J29" t="n">
-        <v>8.972049083985723</v>
+        <v>4.526481433564438</v>
       </c>
       <c r="K29" t="n">
-        <v>9.399764136325372</v>
+        <v>4.742093156843743</v>
       </c>
       <c r="L29" t="n">
-        <v>8.569445117464166</v>
+        <v>4.323324772462018</v>
       </c>
       <c r="M29" t="n">
-        <v>8.874681786884267</v>
+        <v>4.477261836377608</v>
       </c>
       <c r="N29" t="n">
-        <v>8.654964575372135</v>
+        <v>4.366410788076541</v>
       </c>
       <c r="O29" t="n">
-        <v>9.36354277832308</v>
+        <v>4.724011641496322</v>
       </c>
       <c r="P29" t="n">
-        <v>8.213314634028153</v>
+        <v>4.143629338031851</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.786653248844628</v>
+        <v>4.93742258670023</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9.073660349547035</v>
+        <v>4.577631473002626</v>
       </c>
       <c r="B30" t="n">
-        <v>9.03199542021035</v>
+        <v>4.55660440580591</v>
       </c>
       <c r="C30" t="n">
-        <v>9.047475875529791</v>
+        <v>4.564426520285456</v>
       </c>
       <c r="D30" t="n">
-        <v>8.627213687080012</v>
+        <v>4.352390848180069</v>
       </c>
       <c r="E30" t="n">
-        <v>8.887485251477106</v>
+        <v>4.483708393493832</v>
       </c>
       <c r="F30" t="n">
-        <v>8.37502662340809</v>
+        <v>4.225240340557757</v>
       </c>
       <c r="G30" t="n">
-        <v>8.753200725283616</v>
+        <v>4.415945066396085</v>
       </c>
       <c r="H30" t="n">
-        <v>8.367900001915759</v>
+        <v>4.221734218524443</v>
       </c>
       <c r="I30" t="n">
-        <v>9.035059506838694</v>
+        <v>4.558178664263871</v>
       </c>
       <c r="J30" t="n">
-        <v>8.806359078497639</v>
+        <v>4.442907866864865</v>
       </c>
       <c r="K30" t="n">
-        <v>9.506007029706652</v>
+        <v>4.795744442250078</v>
       </c>
       <c r="L30" t="n">
-        <v>8.46399895422126</v>
+        <v>4.270122056908818</v>
       </c>
       <c r="M30" t="n">
-        <v>8.777736520103632</v>
+        <v>4.428351235027507</v>
       </c>
       <c r="N30" t="n">
-        <v>8.630340881046049</v>
+        <v>4.354034467249035</v>
       </c>
       <c r="O30" t="n">
-        <v>9.278560296243874</v>
+        <v>4.680932732501779</v>
       </c>
       <c r="P30" t="n">
-        <v>8.241180467828217</v>
+        <v>4.157643024102741</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.592716511696832</v>
+        <v>4.839272773892154</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8.94701462850626</v>
+        <v>4.513813741317754</v>
       </c>
       <c r="B31" t="n">
-        <v>8.913025129116486</v>
+        <v>4.49668735569564</v>
       </c>
       <c r="C31" t="n">
-        <v>8.924683082838524</v>
+        <v>4.502554865415897</v>
       </c>
       <c r="D31" t="n">
-        <v>8.53107754652194</v>
+        <v>4.303993913322119</v>
       </c>
       <c r="E31" t="n">
-        <v>8.837573545404039</v>
+        <v>4.458639365117312</v>
       </c>
       <c r="F31" t="n">
-        <v>8.329236051869724</v>
+        <v>4.202170546514</v>
       </c>
       <c r="G31" t="n">
-        <v>8.673822400174897</v>
+        <v>4.37603372005901</v>
       </c>
       <c r="H31" t="n">
-        <v>8.7120970004857</v>
+        <v>4.395119827206799</v>
       </c>
       <c r="I31" t="n">
-        <v>9.156940060425276</v>
+        <v>4.619658886504934</v>
       </c>
       <c r="J31" t="n">
-        <v>9.317250728833404</v>
+        <v>4.700445236848365</v>
       </c>
       <c r="K31" t="n">
-        <v>9.76908574371434</v>
+        <v>4.928453463755918</v>
       </c>
       <c r="L31" t="n">
-        <v>8.333754424556869</v>
+        <v>4.204393497243733</v>
       </c>
       <c r="M31" t="n">
-        <v>8.626224817636698</v>
+        <v>4.351955354507697</v>
       </c>
       <c r="N31" t="n">
-        <v>8.56403817092397</v>
+        <v>4.320627099517624</v>
       </c>
       <c r="O31" t="n">
-        <v>9.160178819149021</v>
+        <v>4.621352251913759</v>
       </c>
       <c r="P31" t="n">
-        <v>8.175685757011959</v>
+        <v>4.124721180648361</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.371678553760127</v>
+        <v>4.728019490900222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.899401269133637</v>
+        <v>4.489770340336742</v>
       </c>
       <c r="B32" t="n">
-        <v>8.86302890428758</v>
+        <v>4.471446915645203</v>
       </c>
       <c r="C32" t="n">
-        <v>8.86640120264555</v>
+        <v>4.473124362225273</v>
       </c>
       <c r="D32" t="n">
-        <v>8.47131208043481</v>
+        <v>4.273875773582235</v>
       </c>
       <c r="E32" t="n">
-        <v>8.76666118233851</v>
+        <v>4.422848152779822</v>
       </c>
       <c r="F32" t="n">
-        <v>8.253190019574545</v>
+        <v>4.16388235218035</v>
       </c>
       <c r="G32" t="n">
-        <v>8.629009428912401</v>
+        <v>4.35339089174365</v>
       </c>
       <c r="H32" t="n">
-        <v>8.624880969418861</v>
+        <v>4.351369200491749</v>
       </c>
       <c r="I32" t="n">
-        <v>9.225745089178556</v>
+        <v>4.65443356792049</v>
       </c>
       <c r="J32" t="n">
-        <v>9.200229440249183</v>
+        <v>4.641497245438563</v>
       </c>
       <c r="K32" t="n">
-        <v>9.926361625329482</v>
+        <v>5.007878185711188</v>
       </c>
       <c r="L32" t="n">
-        <v>8.236064265808107</v>
+        <v>4.155132965925818</v>
       </c>
       <c r="M32" t="n">
-        <v>8.513375938299054</v>
+        <v>4.294976465361944</v>
       </c>
       <c r="N32" t="n">
-        <v>8.625222988650821</v>
+        <v>4.351503373476971</v>
       </c>
       <c r="O32" t="n">
-        <v>9.09658465342239</v>
+        <v>4.589283487121774</v>
       </c>
       <c r="P32" t="n">
-        <v>8.034336589747086</v>
+        <v>4.053442066514125</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.062747851251498</v>
+        <v>4.572163639590042</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8.074797408542254</v>
+        <v>4.073759608772042</v>
       </c>
       <c r="B33" t="n">
-        <v>8.008351579993622</v>
+        <v>4.040220910703401</v>
       </c>
       <c r="C33" t="n">
-        <v>8.056002691077186</v>
+        <v>4.064278524924373</v>
       </c>
       <c r="D33" t="n">
-        <v>7.812834342111639</v>
+        <v>3.941643279372531</v>
       </c>
       <c r="E33" t="n">
-        <v>7.83613954384664</v>
+        <v>3.953302968641258</v>
       </c>
       <c r="F33" t="n">
-        <v>7.526245327521448</v>
+        <v>3.797008781010713</v>
       </c>
       <c r="G33" t="n">
-        <v>7.779315893921073</v>
+        <v>3.92467892468596</v>
       </c>
       <c r="H33" t="n">
-        <v>7.36174421919883</v>
+        <v>3.714004312439136</v>
       </c>
       <c r="I33" t="n">
-        <v>7.974895112224004</v>
+        <v>4.023348657811771</v>
       </c>
       <c r="J33" t="n">
-        <v>7.425998758137747</v>
+        <v>3.746508570903494</v>
       </c>
       <c r="K33" t="n">
-        <v>8.461096580145755</v>
+        <v>4.268506011525374</v>
       </c>
       <c r="L33" t="n">
-        <v>7.560692355109497</v>
+        <v>3.8143577459706</v>
       </c>
       <c r="M33" t="n">
-        <v>7.762604845516618</v>
+        <v>3.916207549405045</v>
       </c>
       <c r="N33" t="n">
-        <v>7.676876908010913</v>
+        <v>3.873067523478674</v>
       </c>
       <c r="O33" t="n">
-        <v>8.319940115644195</v>
+        <v>4.197412238040216</v>
       </c>
       <c r="P33" t="n">
-        <v>7.150793856500676</v>
+        <v>3.607578130002394</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.610384312417382</v>
+        <v>4.343930274961523</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8.014188445271852</v>
+        <v>4.043176127555869</v>
       </c>
       <c r="B34" t="n">
-        <v>7.967973026120803</v>
+        <v>4.019867835345584</v>
       </c>
       <c r="C34" t="n">
-        <v>7.979290087527623</v>
+        <v>4.025574166924696</v>
       </c>
       <c r="D34" t="n">
-        <v>7.641280988801828</v>
+        <v>3.855032627558321</v>
       </c>
       <c r="E34" t="n">
-        <v>7.834929235263028</v>
+        <v>3.952753200519608</v>
       </c>
       <c r="F34" t="n">
-        <v>7.478381792631542</v>
+        <v>3.772817278069319</v>
       </c>
       <c r="G34" t="n">
-        <v>7.695978710288863</v>
+        <v>3.882657196479636</v>
       </c>
       <c r="H34" t="n">
-        <v>7.632895601305871</v>
+        <v>3.850709528492109</v>
       </c>
       <c r="I34" t="n">
-        <v>7.844367162998365</v>
+        <v>3.957501275460621</v>
       </c>
       <c r="J34" t="n">
-        <v>8.184844209394655</v>
+        <v>4.12922962036365</v>
       </c>
       <c r="K34" t="n">
-        <v>8.3869572909823</v>
+        <v>4.23123349531926</v>
       </c>
       <c r="L34" t="n">
-        <v>7.46106784376877</v>
+        <v>3.76407386137557</v>
       </c>
       <c r="M34" t="n">
-        <v>7.662495196517376</v>
+        <v>3.865742588132925</v>
       </c>
       <c r="N34" t="n">
-        <v>7.624854486875364</v>
+        <v>3.846750856898471</v>
       </c>
       <c r="O34" t="n">
-        <v>8.187023102920179</v>
+        <v>4.130388567949982</v>
       </c>
       <c r="P34" t="n">
-        <v>7.125127200727538</v>
+        <v>3.594667959881993</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.520666526177713</v>
+        <v>4.298690953493071</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7.83497712922467</v>
+        <v>3.952682702849406</v>
       </c>
       <c r="B35" t="n">
-        <v>7.806035653391963</v>
+        <v>3.938097928796927</v>
       </c>
       <c r="C35" t="n">
-        <v>7.810929289355032</v>
+        <v>3.940544595923629</v>
       </c>
       <c r="D35" t="n">
-        <v>7.508919546032859</v>
+        <v>3.788287821236101</v>
       </c>
       <c r="E35" t="n">
-        <v>7.69303971141916</v>
+        <v>3.881068724781715</v>
       </c>
       <c r="F35" t="n">
-        <v>7.327732744932537</v>
+        <v>3.69689640402897</v>
       </c>
       <c r="G35" t="n">
-        <v>7.518168715213489</v>
+        <v>3.792891205394322</v>
       </c>
       <c r="H35" t="n">
-        <v>7.304471492950572</v>
+        <v>3.685194359305163</v>
       </c>
       <c r="I35" t="n">
-        <v>7.528103613233158</v>
+        <v>3.797925250723329</v>
       </c>
       <c r="J35" t="n">
-        <v>7.759571185640376</v>
+        <v>3.914629879769493</v>
       </c>
       <c r="K35" t="n">
-        <v>7.884154085580311</v>
+        <v>3.977429374943636</v>
       </c>
       <c r="L35" t="n">
-        <v>7.289643522426207</v>
+        <v>3.677684367575137</v>
       </c>
       <c r="M35" t="n">
-        <v>7.441364267949248</v>
+        <v>3.754176898126674</v>
       </c>
       <c r="N35" t="n">
-        <v>7.636084212234485</v>
+        <v>3.852420234053687</v>
       </c>
       <c r="O35" t="n">
-        <v>8.003762775009944</v>
+        <v>4.037814324913386</v>
       </c>
       <c r="P35" t="n">
-        <v>7.131791786354616</v>
+        <v>3.598091076593942</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.157393080956572</v>
+        <v>4.115347548894789</v>
       </c>
     </row>
   </sheetData>
@@ -2365,1804 +2365,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.079512428201317</v>
+        <v>2.56262669770933</v>
       </c>
       <c r="B2" t="n">
-        <v>5.018369306394013</v>
+        <v>2.531785956849883</v>
       </c>
       <c r="C2" t="n">
-        <v>4.984067651066007</v>
+        <v>2.514481052933872</v>
       </c>
       <c r="D2" t="n">
-        <v>4.94084588624677</v>
+        <v>2.492697557106489</v>
       </c>
       <c r="E2" t="n">
-        <v>5.047705766545674</v>
+        <v>2.546601553919312</v>
       </c>
       <c r="F2" t="n">
-        <v>5.345796093430414</v>
+        <v>2.696981328137731</v>
       </c>
       <c r="G2" t="n">
-        <v>5.49555262306776</v>
+        <v>2.772546302649483</v>
       </c>
       <c r="H2" t="n">
-        <v>5.928706175616451</v>
+        <v>2.991078278210954</v>
       </c>
       <c r="I2" t="n">
-        <v>6.164216561844627</v>
+        <v>3.109858608820865</v>
       </c>
       <c r="J2" t="n">
-        <v>6.367042981731553</v>
+        <v>3.212175743585192</v>
       </c>
       <c r="K2" t="n">
-        <v>6.549505452586668</v>
+        <v>3.304244563808813</v>
       </c>
       <c r="L2" t="n">
-        <v>6.391188299899592</v>
+        <v>3.224357058760448</v>
       </c>
       <c r="M2" t="n">
-        <v>6.481445879259886</v>
+        <v>3.26989087856087</v>
       </c>
       <c r="N2" t="n">
-        <v>7.030404213767091</v>
+        <v>3.546828468295272</v>
       </c>
       <c r="O2" t="n">
-        <v>7.087261671194994</v>
+        <v>3.575503679914425</v>
       </c>
       <c r="P2" t="n">
-        <v>7.673859024969095</v>
+        <v>3.871501224435089</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.852000897025729</v>
+        <v>3.961297916118717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.135670070330874</v>
+        <v>2.591110030589024</v>
       </c>
       <c r="B3" t="n">
-        <v>5.071665706909239</v>
+        <v>2.558821813372058</v>
       </c>
       <c r="C3" t="n">
-        <v>5.05712115594612</v>
+        <v>2.551487781552735</v>
       </c>
       <c r="D3" t="n">
-        <v>5.05736062575433</v>
+        <v>2.551565101578118</v>
       </c>
       <c r="E3" t="n">
-        <v>5.109273735965661</v>
+        <v>2.577759250029866</v>
       </c>
       <c r="F3" t="n">
-        <v>5.469823423415302</v>
+        <v>2.7595943456036</v>
       </c>
       <c r="G3" t="n">
-        <v>5.519365500796167</v>
+        <v>2.784619881465843</v>
       </c>
       <c r="H3" t="n">
-        <v>6.15267580746402</v>
+        <v>3.104067850596391</v>
       </c>
       <c r="I3" t="n">
-        <v>6.012658092332797</v>
+        <v>3.033396210338043</v>
       </c>
       <c r="J3" t="n">
-        <v>6.561625442173957</v>
+        <v>3.310339485368429</v>
       </c>
       <c r="K3" t="n">
-        <v>6.237789575343963</v>
+        <v>3.146977906300211</v>
       </c>
       <c r="L3" t="n">
-        <v>6.478520403391117</v>
+        <v>3.268443117938551</v>
       </c>
       <c r="M3" t="n">
-        <v>6.520905995985922</v>
+        <v>3.289832054224648</v>
       </c>
       <c r="N3" t="n">
-        <v>7.044093998379494</v>
+        <v>3.553676407307965</v>
       </c>
       <c r="O3" t="n">
-        <v>7.048594340398726</v>
+        <v>3.555910160100067</v>
       </c>
       <c r="P3" t="n">
-        <v>7.691744320621337</v>
+        <v>3.880409798977173</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.863235130051827</v>
+        <v>3.966862115298229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.061794479685635</v>
+        <v>2.553604701512367</v>
       </c>
       <c r="B4" t="n">
-        <v>4.999646148142221</v>
+        <v>2.522241197687193</v>
       </c>
       <c r="C4" t="n">
-        <v>4.983350932016494</v>
+        <v>2.514028787638347</v>
       </c>
       <c r="D4" t="n">
-        <v>4.988594475628735</v>
+        <v>2.51667728277248</v>
       </c>
       <c r="E4" t="n">
-        <v>5.048510948559631</v>
+        <v>2.546889798425699</v>
       </c>
       <c r="F4" t="n">
-        <v>5.400718634807979</v>
+        <v>2.724592252348685</v>
       </c>
       <c r="G4" t="n">
-        <v>5.46899232231622</v>
+        <v>2.759035481008375</v>
       </c>
       <c r="H4" t="n">
-        <v>6.145418463629325</v>
+        <v>3.100301910536609</v>
       </c>
       <c r="I4" t="n">
-        <v>5.945480894816972</v>
+        <v>2.999490810678436</v>
       </c>
       <c r="J4" t="n">
-        <v>6.659451394390434</v>
+        <v>3.359646351848613</v>
       </c>
       <c r="K4" t="n">
-        <v>6.231701971090078</v>
+        <v>3.143918364266437</v>
       </c>
       <c r="L4" t="n">
-        <v>6.417095552397685</v>
+        <v>3.237412772458038</v>
       </c>
       <c r="M4" t="n">
-        <v>6.468422665901866</v>
+        <v>3.26329707227866</v>
       </c>
       <c r="N4" t="n">
-        <v>6.992967476055837</v>
+        <v>3.52797403695883</v>
       </c>
       <c r="O4" t="n">
-        <v>7.034477454340151</v>
+        <v>3.548869489553518</v>
       </c>
       <c r="P4" t="n">
-        <v>7.656739469244751</v>
+        <v>3.862904488377727</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.892601453497217</v>
+        <v>3.981833489477619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.108197530474646</v>
+        <v>2.577176507191508</v>
       </c>
       <c r="B5" t="n">
-        <v>5.040159932024382</v>
+        <v>2.542846984451497</v>
       </c>
       <c r="C5" t="n">
-        <v>5.023146869932396</v>
+        <v>2.53426616722289</v>
       </c>
       <c r="D5" t="n">
-        <v>4.994888305646867</v>
+        <v>2.520025353577441</v>
       </c>
       <c r="E5" t="n">
-        <v>5.056918310932106</v>
+        <v>2.551305567816449</v>
       </c>
       <c r="F5" t="n">
-        <v>5.369824775715395</v>
+        <v>2.709195049500095</v>
       </c>
       <c r="G5" t="n">
-        <v>5.470569442300173</v>
+        <v>2.760000560001655</v>
       </c>
       <c r="H5" t="n">
-        <v>6.162061333570737</v>
+        <v>3.108798301119854</v>
       </c>
       <c r="I5" t="n">
-        <v>5.897466353083301</v>
+        <v>2.975384302912001</v>
       </c>
       <c r="J5" t="n">
-        <v>6.740787173884381</v>
+        <v>3.400788564766217</v>
       </c>
       <c r="K5" t="n">
-        <v>6.217087551288798</v>
+        <v>3.136525773898479</v>
       </c>
       <c r="L5" t="n">
-        <v>6.410744249625582</v>
+        <v>3.234270509367698</v>
       </c>
       <c r="M5" t="n">
-        <v>6.484254155787225</v>
+        <v>3.271340060507184</v>
       </c>
       <c r="N5" t="n">
-        <v>6.980730850585489</v>
+        <v>3.521800658314635</v>
       </c>
       <c r="O5" t="n">
-        <v>7.071338337594957</v>
+        <v>3.567445057121946</v>
       </c>
       <c r="P5" t="n">
-        <v>7.619780544233173</v>
+        <v>3.844254443431909</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.948604144574403</v>
+        <v>4.009988212249439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.129351448144362</v>
+        <v>2.587846102164627</v>
       </c>
       <c r="B6" t="n">
-        <v>5.063206506366516</v>
+        <v>2.554476257386709</v>
       </c>
       <c r="C6" t="n">
-        <v>5.041627177625744</v>
+        <v>2.543587778518209</v>
       </c>
       <c r="D6" t="n">
-        <v>4.991463605660277</v>
+        <v>2.51827684079757</v>
       </c>
       <c r="E6" t="n">
-        <v>5.068356515888962</v>
+        <v>2.557070457944195</v>
       </c>
       <c r="F6" t="n">
-        <v>5.328692877998867</v>
+        <v>2.688413018560288</v>
       </c>
       <c r="G6" t="n">
-        <v>5.466254478085413</v>
+        <v>2.757825365758187</v>
       </c>
       <c r="H6" t="n">
-        <v>6.143193366517275</v>
+        <v>3.099324608156964</v>
       </c>
       <c r="I6" t="n">
-        <v>5.816090568044923</v>
+        <v>2.934324526786166</v>
       </c>
       <c r="J6" t="n">
-        <v>6.747680523610597</v>
+        <v>3.404251762814853</v>
       </c>
       <c r="K6" t="n">
-        <v>6.251292291776775</v>
+        <v>3.1537914492722</v>
       </c>
       <c r="L6" t="n">
-        <v>6.392299439809686</v>
+        <v>3.224923029975652</v>
       </c>
       <c r="M6" t="n">
-        <v>6.480824948133657</v>
+        <v>3.26958216698894</v>
       </c>
       <c r="N6" t="n">
-        <v>6.988548835500582</v>
+        <v>3.525824142282491</v>
       </c>
       <c r="O6" t="n">
-        <v>7.089417462927257</v>
+        <v>3.576615155279291</v>
       </c>
       <c r="P6" t="n">
-        <v>7.614171879595707</v>
+        <v>3.841468932664562</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.971296303600386</v>
+        <v>4.021454601454711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.078222108528844</v>
+        <v>2.561815974502016</v>
       </c>
       <c r="B7" t="n">
-        <v>5.012313255808974</v>
+        <v>2.528557277260586</v>
       </c>
       <c r="C7" t="n">
-        <v>4.995497404147279</v>
+        <v>2.520076236976497</v>
       </c>
       <c r="D7" t="n">
-        <v>4.962846681849991</v>
+        <v>2.503653975261998</v>
       </c>
       <c r="E7" t="n">
-        <v>5.019357612378955</v>
+        <v>2.532164597562415</v>
       </c>
       <c r="F7" t="n">
-        <v>5.413808336253926</v>
+        <v>2.731243195855533</v>
       </c>
       <c r="G7" t="n">
-        <v>5.331493829567365</v>
+        <v>2.689703865013449</v>
       </c>
       <c r="H7" t="n">
-        <v>6.122531911464913</v>
+        <v>3.088793165876257</v>
       </c>
       <c r="I7" t="n">
-        <v>5.832484952844169</v>
+        <v>2.942452794454449</v>
       </c>
       <c r="J7" t="n">
-        <v>6.71750451048427</v>
+        <v>3.388945240437208</v>
       </c>
       <c r="K7" t="n">
-        <v>6.174913819041963</v>
+        <v>3.115274421775195</v>
       </c>
       <c r="L7" t="n">
-        <v>6.380873067478648</v>
+        <v>3.219232901490095</v>
       </c>
       <c r="M7" t="n">
-        <v>6.442840528884567</v>
+        <v>3.250499186753943</v>
       </c>
       <c r="N7" t="n">
-        <v>7.014235775775122</v>
+        <v>3.538712992542953</v>
       </c>
       <c r="O7" t="n">
-        <v>7.084593132343976</v>
+        <v>3.574179574479758</v>
       </c>
       <c r="P7" t="n">
-        <v>7.612812254543447</v>
+        <v>3.840820524657591</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.004771365496289</v>
+        <v>4.038527829559374</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.034737772108135</v>
+        <v>2.539959991150837</v>
       </c>
       <c r="B8" t="n">
-        <v>4.971031478165425</v>
+        <v>2.507815327657466</v>
       </c>
       <c r="C8" t="n">
-        <v>4.94960371972679</v>
+        <v>2.497004737343945</v>
       </c>
       <c r="D8" t="n">
-        <v>4.911406313212986</v>
+        <v>2.477739543372661</v>
       </c>
       <c r="E8" t="n">
-        <v>4.982832550314015</v>
+        <v>2.513788015353426</v>
       </c>
       <c r="F8" t="n">
-        <v>5.383783329971365</v>
+        <v>2.716132531924536</v>
       </c>
       <c r="G8" t="n">
-        <v>5.265879102117815</v>
+        <v>2.656592985467602</v>
       </c>
       <c r="H8" t="n">
-        <v>6.079795284304191</v>
+        <v>3.067277731754517</v>
       </c>
       <c r="I8" t="n">
-        <v>5.777725250936186</v>
+        <v>2.914912652178495</v>
       </c>
       <c r="J8" t="n">
-        <v>6.720552820278191</v>
+        <v>3.390531153751936</v>
       </c>
       <c r="K8" t="n">
-        <v>6.322813189884345</v>
+        <v>3.190052835587565</v>
       </c>
       <c r="L8" t="n">
-        <v>6.414868201452145</v>
+        <v>3.23633029210269</v>
       </c>
       <c r="M8" t="n">
-        <v>6.487794364740127</v>
+        <v>3.273142015069304</v>
       </c>
       <c r="N8" t="n">
-        <v>7.046152311813356</v>
+        <v>3.554797831940803</v>
       </c>
       <c r="O8" t="n">
-        <v>7.075349034288696</v>
+        <v>3.5695182003025</v>
       </c>
       <c r="P8" t="n">
-        <v>7.694275375629524</v>
+        <v>3.881859549453085</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.96337520580317</v>
+        <v>4.01742571645567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.066053661521541</v>
+        <v>2.555836748715674</v>
       </c>
       <c r="B9" t="n">
-        <v>4.99979039348552</v>
+        <v>2.522399533180347</v>
       </c>
       <c r="C9" t="n">
-        <v>4.975268121666439</v>
+        <v>2.510033730150411</v>
       </c>
       <c r="D9" t="n">
-        <v>4.918335160816654</v>
+        <v>2.481332366169732</v>
       </c>
       <c r="E9" t="n">
-        <v>4.995531775107986</v>
+        <v>2.520264704538365</v>
       </c>
       <c r="F9" t="n">
-        <v>5.257520197165354</v>
+        <v>2.652442719399303</v>
       </c>
       <c r="G9" t="n">
-        <v>5.402935280044446</v>
+        <v>2.725804641717267</v>
       </c>
       <c r="H9" t="n">
-        <v>6.126527958240973</v>
+        <v>3.090876542589583</v>
       </c>
       <c r="I9" t="n">
-        <v>5.784656915831715</v>
+        <v>2.918450611869321</v>
       </c>
       <c r="J9" t="n">
-        <v>6.741989030592409</v>
+        <v>3.401367043632586</v>
       </c>
       <c r="K9" t="n">
-        <v>6.302173709708501</v>
+        <v>3.179592459506657</v>
       </c>
       <c r="L9" t="n">
-        <v>6.408861171745492</v>
+        <v>3.233262790654539</v>
       </c>
       <c r="M9" t="n">
-        <v>6.497527544662528</v>
+        <v>3.27799896342841</v>
       </c>
       <c r="N9" t="n">
-        <v>6.97671001164105</v>
+        <v>3.519715576012514</v>
       </c>
       <c r="O9" t="n">
-        <v>7.011786422230912</v>
+        <v>3.537454268012101</v>
       </c>
       <c r="P9" t="n">
-        <v>7.627647550026651</v>
+        <v>3.848210272377556</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.859026096011053</v>
+        <v>3.96487538861663</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.043578997427249</v>
+        <v>2.544283090217048</v>
       </c>
       <c r="B10" t="n">
-        <v>4.975958358172456</v>
+        <v>2.510169892989227</v>
       </c>
       <c r="C10" t="n">
-        <v>4.962775686095087</v>
+        <v>2.503510421538403</v>
       </c>
       <c r="D10" t="n">
-        <v>4.959265903894286</v>
+        <v>2.501740588898592</v>
       </c>
       <c r="E10" t="n">
-        <v>5.003314825603999</v>
+        <v>2.523980898258288</v>
       </c>
       <c r="F10" t="n">
-        <v>5.451086742162576</v>
+        <v>2.749971413621131</v>
       </c>
       <c r="G10" t="n">
-        <v>5.361687309903232</v>
+        <v>2.704854894545932</v>
       </c>
       <c r="H10" t="n">
-        <v>6.135543855655488</v>
+        <v>3.095338931407401</v>
       </c>
       <c r="I10" t="n">
-        <v>5.956333103066679</v>
+        <v>3.004994745720518</v>
       </c>
       <c r="J10" t="n">
-        <v>6.657036975265305</v>
+        <v>3.358474043816718</v>
       </c>
       <c r="K10" t="n">
-        <v>6.324350304323866</v>
+        <v>3.190580999584476</v>
       </c>
       <c r="L10" t="n">
-        <v>6.431910563379488</v>
+        <v>3.244970804939129</v>
       </c>
       <c r="M10" t="n">
-        <v>6.498727147537067</v>
+        <v>3.278673808061707</v>
       </c>
       <c r="N10" t="n">
-        <v>7.031454500172981</v>
+        <v>3.547392733921681</v>
       </c>
       <c r="O10" t="n">
-        <v>7.07346933715884</v>
+        <v>3.568561933517997</v>
       </c>
       <c r="P10" t="n">
-        <v>7.7613032566767</v>
+        <v>3.915642146719438</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.849263616253295</v>
+        <v>3.959907576985837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.002006475263614</v>
+        <v>2.523471495738125</v>
       </c>
       <c r="B11" t="n">
-        <v>4.93762065052396</v>
+        <v>2.490980881984128</v>
       </c>
       <c r="C11" t="n">
-        <v>4.917325443413566</v>
+        <v>2.480743369505792</v>
       </c>
       <c r="D11" t="n">
-        <v>4.914446171131323</v>
+        <v>2.479287365204297</v>
       </c>
       <c r="E11" t="n">
-        <v>4.982427987202733</v>
+        <v>2.513574532489228</v>
       </c>
       <c r="F11" t="n">
-        <v>5.412787913141765</v>
+        <v>2.730713610534626</v>
       </c>
       <c r="G11" t="n">
-        <v>5.308842803002557</v>
+        <v>2.678274145967274</v>
       </c>
       <c r="H11" t="n">
-        <v>6.172485876915899</v>
+        <v>3.114020245481131</v>
       </c>
       <c r="I11" t="n">
-        <v>5.918915522940081</v>
+        <v>2.986197451608715</v>
       </c>
       <c r="J11" t="n">
-        <v>6.774855557446271</v>
+        <v>3.417892493469194</v>
       </c>
       <c r="K11" t="n">
-        <v>6.325286772138561</v>
+        <v>3.191189326254761</v>
       </c>
       <c r="L11" t="n">
-        <v>6.417073577521166</v>
+        <v>3.237486965570629</v>
       </c>
       <c r="M11" t="n">
-        <v>6.474601550412057</v>
+        <v>3.266502157889624</v>
       </c>
       <c r="N11" t="n">
-        <v>7.081896984032717</v>
+        <v>3.572846088306718</v>
       </c>
       <c r="O11" t="n">
-        <v>7.0231203873889</v>
+        <v>3.543157756943221</v>
       </c>
       <c r="P11" t="n">
-        <v>7.856212748358364</v>
+        <v>3.96356663348112</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.873150870486839</v>
+        <v>3.971946191231895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.066810386115484</v>
+        <v>2.556254049440897</v>
       </c>
       <c r="B12" t="n">
-        <v>4.994474727201629</v>
+        <v>2.519763545697379</v>
       </c>
       <c r="C12" t="n">
-        <v>4.982737889307476</v>
+        <v>2.513847426696459</v>
       </c>
       <c r="D12" t="n">
-        <v>4.988662090633406</v>
+        <v>2.516839597972822</v>
       </c>
       <c r="E12" t="n">
-        <v>5.031804971280526</v>
+        <v>2.538594383055487</v>
       </c>
       <c r="F12" t="n">
-        <v>5.415515051663498</v>
+        <v>2.732161655421744</v>
       </c>
       <c r="G12" t="n">
-        <v>5.485167521808656</v>
+        <v>2.767298774456278</v>
       </c>
       <c r="H12" t="n">
-        <v>6.194444976599573</v>
+        <v>3.12511879603624</v>
       </c>
       <c r="I12" t="n">
-        <v>5.98604651686938</v>
+        <v>3.020035480510912</v>
       </c>
       <c r="J12" t="n">
-        <v>6.621958310841953</v>
+        <v>3.340877768481529</v>
       </c>
       <c r="K12" t="n">
-        <v>6.312451753876875</v>
+        <v>3.184627073365263</v>
       </c>
       <c r="L12" t="n">
-        <v>6.472293624919285</v>
+        <v>3.265367941340822</v>
       </c>
       <c r="M12" t="n">
-        <v>6.521211953882059</v>
+        <v>3.29004042032246</v>
       </c>
       <c r="N12" t="n">
-        <v>7.188490348521541</v>
+        <v>3.626706592605264</v>
       </c>
       <c r="O12" t="n">
-        <v>7.1440154522824</v>
+        <v>3.604279805537293</v>
       </c>
       <c r="P12" t="n">
-        <v>7.917300651245187</v>
+        <v>3.994458542004423</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.969858921292754</v>
+        <v>4.020875269793944</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.07749017610328</v>
+        <v>2.56149873498611</v>
       </c>
       <c r="B13" t="n">
-        <v>5.002977314039016</v>
+        <v>2.523902725438508</v>
       </c>
       <c r="C13" t="n">
-        <v>4.990537280096284</v>
+        <v>2.517623600289012</v>
       </c>
       <c r="D13" t="n">
-        <v>4.996952253664452</v>
+        <v>2.520813904130417</v>
       </c>
       <c r="E13" t="n">
-        <v>5.037051895643001</v>
+        <v>2.541064359895723</v>
       </c>
       <c r="F13" t="n">
-        <v>5.484676749566419</v>
+        <v>2.766885453438243</v>
       </c>
       <c r="G13" t="n">
-        <v>5.433163131341019</v>
+        <v>2.74080302105258</v>
       </c>
       <c r="H13" t="n">
-        <v>6.212387745005786</v>
+        <v>3.13407796971258</v>
       </c>
       <c r="I13" t="n">
-        <v>6.029165732264866</v>
+        <v>3.041552904486246</v>
       </c>
       <c r="J13" t="n">
-        <v>6.747287229666759</v>
+        <v>3.403970909193244</v>
       </c>
       <c r="K13" t="n">
-        <v>6.364458398178001</v>
+        <v>3.210928105381509</v>
       </c>
       <c r="L13" t="n">
-        <v>6.492825484546027</v>
+        <v>3.275506529669037</v>
       </c>
       <c r="M13" t="n">
-        <v>6.536246713629044</v>
+        <v>3.297451203637566</v>
       </c>
       <c r="N13" t="n">
-        <v>7.224575913056119</v>
+        <v>3.644736656024029</v>
       </c>
       <c r="O13" t="n">
-        <v>7.207315492738712</v>
+        <v>3.636036731844558</v>
       </c>
       <c r="P13" t="n">
-        <v>8.003798836345769</v>
+        <v>4.037869188019632</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.079875295393052</v>
+        <v>4.076232996789869</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.064124943513298</v>
+        <v>2.554852908245648</v>
       </c>
       <c r="B14" t="n">
-        <v>4.997586707791615</v>
+        <v>2.521271001927528</v>
       </c>
       <c r="C14" t="n">
-        <v>4.984510529346602</v>
+        <v>2.514675205791725</v>
       </c>
       <c r="D14" t="n">
-        <v>4.992455292395453</v>
+        <v>2.518665146513276</v>
       </c>
       <c r="E14" t="n">
-        <v>5.037354472788905</v>
+        <v>2.541317639831809</v>
       </c>
       <c r="F14" t="n">
-        <v>5.414973568167757</v>
+        <v>2.731866304295376</v>
       </c>
       <c r="G14" t="n">
-        <v>5.479201624563179</v>
+        <v>2.764271070080014</v>
       </c>
       <c r="H14" t="n">
-        <v>6.198460744418663</v>
+        <v>3.127114619191413</v>
       </c>
       <c r="I14" t="n">
-        <v>5.996490781257571</v>
+        <v>3.025268226934559</v>
       </c>
       <c r="J14" t="n">
-        <v>6.790030054869576</v>
+        <v>3.425416982703979</v>
       </c>
       <c r="K14" t="n">
-        <v>6.314758552452903</v>
+        <v>3.185650995171975</v>
       </c>
       <c r="L14" t="n">
-        <v>6.504781507746989</v>
+        <v>3.281625045206986</v>
       </c>
       <c r="M14" t="n">
-        <v>6.549161742979591</v>
+        <v>3.304017436234253</v>
       </c>
       <c r="N14" t="n">
-        <v>7.259113093983729</v>
+        <v>3.662146453650944</v>
       </c>
       <c r="O14" t="n">
-        <v>7.265333674413468</v>
+        <v>3.66527649335492</v>
       </c>
       <c r="P14" t="n">
-        <v>8.069574149431414</v>
+        <v>4.070946524319173</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.164904544517155</v>
+        <v>4.119026503926016</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.073292411229951</v>
+        <v>2.559508881391721</v>
       </c>
       <c r="B15" t="n">
-        <v>5.00729115133703</v>
+        <v>2.526216072374386</v>
       </c>
       <c r="C15" t="n">
-        <v>4.983468694816295</v>
+        <v>2.51419792519387</v>
       </c>
       <c r="D15" t="n">
-        <v>4.974908071766566</v>
+        <v>2.509853506267719</v>
       </c>
       <c r="E15" t="n">
-        <v>5.056827030675801</v>
+        <v>2.55120237969434</v>
       </c>
       <c r="F15" t="n">
-        <v>5.405554798017078</v>
+        <v>2.727077010958479</v>
       </c>
       <c r="G15" t="n">
-        <v>5.51804193707973</v>
+        <v>2.783876813280738</v>
       </c>
       <c r="H15" t="n">
-        <v>6.221725940609233</v>
+        <v>3.138874085404658</v>
       </c>
       <c r="I15" t="n">
-        <v>5.930450642736965</v>
+        <v>2.991896392303047</v>
       </c>
       <c r="J15" t="n">
-        <v>6.746581779784691</v>
+        <v>3.403697730721214</v>
       </c>
       <c r="K15" t="n">
-        <v>6.242542346713967</v>
+        <v>3.149420877984523</v>
       </c>
       <c r="L15" t="n">
-        <v>6.539336719342511</v>
+        <v>3.299139168015207</v>
       </c>
       <c r="M15" t="n">
-        <v>6.595977808755467</v>
+        <v>3.327729668724199</v>
       </c>
       <c r="N15" t="n">
-        <v>7.296434886187043</v>
+        <v>3.681039545000077</v>
       </c>
       <c r="O15" t="n">
-        <v>7.285329685128192</v>
+        <v>3.675444360957452</v>
       </c>
       <c r="P15" t="n">
-        <v>8.071685991410641</v>
+        <v>4.072127928824642</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.225817211850206</v>
+        <v>4.149898229648577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.074022653280398</v>
+        <v>2.559923907998551</v>
       </c>
       <c r="B16" t="n">
-        <v>5.006736144840355</v>
+        <v>2.525983259503843</v>
       </c>
       <c r="C16" t="n">
-        <v>4.989587289280656</v>
+        <v>2.517320289748267</v>
       </c>
       <c r="D16" t="n">
-        <v>4.992398946558227</v>
+        <v>2.518715177117934</v>
       </c>
       <c r="E16" t="n">
-        <v>5.051164274034599</v>
+        <v>2.548401518627837</v>
       </c>
       <c r="F16" t="n">
-        <v>5.437922100753118</v>
+        <v>2.743441282653942</v>
       </c>
       <c r="G16" t="n">
-        <v>5.497044097379129</v>
+        <v>2.773329452171275</v>
       </c>
       <c r="H16" t="n">
-        <v>6.224224878490202</v>
+        <v>3.140167774505811</v>
       </c>
       <c r="I16" t="n">
-        <v>6.00808675455866</v>
+        <v>3.031115269589274</v>
       </c>
       <c r="J16" t="n">
-        <v>6.819456104902426</v>
+        <v>3.440398306151341</v>
       </c>
       <c r="K16" t="n">
-        <v>6.193395817110428</v>
+        <v>3.124588073656136</v>
       </c>
       <c r="L16" t="n">
-        <v>6.550628988580953</v>
+        <v>3.304790067958475</v>
       </c>
       <c r="M16" t="n">
-        <v>6.594577051242031</v>
+        <v>3.326980062448712</v>
       </c>
       <c r="N16" t="n">
-        <v>7.252374695309885</v>
+        <v>3.658801794023574</v>
       </c>
       <c r="O16" t="n">
-        <v>7.244171304868168</v>
+        <v>3.654662045752846</v>
       </c>
       <c r="P16" t="n">
-        <v>8.01323000258064</v>
+        <v>4.042756552712252</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.193746288217973</v>
+        <v>4.133715034630204</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.111834090809205</v>
+        <v>2.578930136737764</v>
       </c>
       <c r="B17" t="n">
-        <v>5.042072873198201</v>
+        <v>2.5437327535658</v>
       </c>
       <c r="C17" t="n">
-        <v>5.025778783989217</v>
+        <v>2.535507835865789</v>
       </c>
       <c r="D17" t="n">
-        <v>5.006687687420341</v>
+        <v>2.525880355646533</v>
       </c>
       <c r="E17" t="n">
-        <v>5.058245818857149</v>
+        <v>2.551900818305971</v>
       </c>
       <c r="F17" t="n">
-        <v>5.419806914084995</v>
+        <v>2.734308423185291</v>
       </c>
       <c r="G17" t="n">
-        <v>5.473172056521636</v>
+        <v>2.761274919096461</v>
       </c>
       <c r="H17" t="n">
-        <v>6.223110921288246</v>
+        <v>3.1395688285739</v>
       </c>
       <c r="I17" t="n">
-        <v>5.979637741343307</v>
+        <v>3.016725501189044</v>
       </c>
       <c r="J17" t="n">
-        <v>6.78737447556112</v>
+        <v>3.42425348688086</v>
       </c>
       <c r="K17" t="n">
-        <v>6.156641427487979</v>
+        <v>3.10604718639321</v>
       </c>
       <c r="L17" t="n">
-        <v>6.575660626768555</v>
+        <v>3.317435587550822</v>
       </c>
       <c r="M17" t="n">
-        <v>6.61460912329258</v>
+        <v>3.337098467976185</v>
       </c>
       <c r="N17" t="n">
-        <v>7.275718775672572</v>
+        <v>3.670583148626358</v>
       </c>
       <c r="O17" t="n">
-        <v>7.228391089694685</v>
+        <v>3.64670860093607</v>
       </c>
       <c r="P17" t="n">
-        <v>7.998291594215311</v>
+        <v>4.035116083439394</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.136568222976255</v>
+        <v>4.104814685290085</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.161117540797203</v>
+        <v>2.603779996954103</v>
       </c>
       <c r="B18" t="n">
-        <v>5.089440564720519</v>
+        <v>2.567621230231249</v>
       </c>
       <c r="C18" t="n">
-        <v>5.066249745035087</v>
+        <v>2.555917195653847</v>
       </c>
       <c r="D18" t="n">
-        <v>5.028727925109621</v>
+        <v>2.536967535609674</v>
       </c>
       <c r="E18" t="n">
-        <v>5.096506332708646</v>
+        <v>2.571168570660447</v>
       </c>
       <c r="F18" t="n">
-        <v>5.440895470583529</v>
+        <v>2.744862606649934</v>
       </c>
       <c r="G18" t="n">
-        <v>5.514328182948172</v>
+        <v>2.781947223823778</v>
       </c>
       <c r="H18" t="n">
-        <v>6.256906027539592</v>
+        <v>3.156553650326013</v>
       </c>
       <c r="I18" t="n">
-        <v>5.971020772456352</v>
+        <v>3.012296087087933</v>
       </c>
       <c r="J18" t="n">
-        <v>6.762933341747645</v>
+        <v>3.411843907071847</v>
       </c>
       <c r="K18" t="n">
-        <v>6.045189361455165</v>
+        <v>3.049764461740694</v>
       </c>
       <c r="L18" t="n">
-        <v>6.586002341732995</v>
+        <v>3.322519947749287</v>
       </c>
       <c r="M18" t="n">
-        <v>6.644372121432041</v>
+        <v>3.351967506827863</v>
       </c>
       <c r="N18" t="n">
-        <v>7.244031003733475</v>
+        <v>3.654564542926721</v>
       </c>
       <c r="O18" t="n">
-        <v>7.203387624425695</v>
+        <v>3.63402840103822</v>
       </c>
       <c r="P18" t="n">
-        <v>7.87652091501132</v>
+        <v>3.973713181223713</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.134605697465677</v>
+        <v>4.103754093324276</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.320761074492578</v>
+        <v>2.684364803554902</v>
       </c>
       <c r="B19" t="n">
-        <v>5.214133902501417</v>
+        <v>2.63057735530975</v>
       </c>
       <c r="C19" t="n">
-        <v>5.243517693156347</v>
+        <v>2.645398353410364</v>
       </c>
       <c r="D19" t="n">
-        <v>5.082871203558352</v>
+        <v>2.56435047945167</v>
       </c>
       <c r="E19" t="n">
-        <v>5.174080464109392</v>
+        <v>2.61037096058832</v>
       </c>
       <c r="F19" t="n">
-        <v>5.429203145900784</v>
+        <v>2.739028924440782</v>
       </c>
       <c r="G19" t="n">
-        <v>5.525592279268</v>
+        <v>2.787673738203633</v>
       </c>
       <c r="H19" t="n">
-        <v>5.927433323153519</v>
+        <v>2.99043043873358</v>
       </c>
       <c r="I19" t="n">
-        <v>6.082679064253412</v>
+        <v>3.068627421021112</v>
       </c>
       <c r="J19" t="n">
-        <v>6.047249365264143</v>
+        <v>3.050806860759355</v>
       </c>
       <c r="K19" t="n">
-        <v>6.131926452905586</v>
+        <v>3.093504854922972</v>
       </c>
       <c r="L19" t="n">
-        <v>6.634536955544261</v>
+        <v>3.347092934051206</v>
       </c>
       <c r="M19" t="n">
-        <v>6.714520998403159</v>
+        <v>3.38745114465262</v>
       </c>
       <c r="N19" t="n">
-        <v>7.343449289309955</v>
+        <v>3.704756609991609</v>
       </c>
       <c r="O19" t="n">
-        <v>7.267206610042857</v>
+        <v>3.666308090311211</v>
       </c>
       <c r="P19" t="n">
-        <v>7.93462755965052</v>
+        <v>4.003115826464016</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.214617913243188</v>
+        <v>4.144350802092218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.200152246452184</v>
+        <v>2.623426390021112</v>
       </c>
       <c r="B20" t="n">
-        <v>5.123757996882948</v>
+        <v>2.584878093396195</v>
       </c>
       <c r="C20" t="n">
-        <v>5.10444715154889</v>
+        <v>2.575142024023644</v>
       </c>
       <c r="D20" t="n">
-        <v>5.073702045466583</v>
+        <v>2.559656130557705</v>
       </c>
       <c r="E20" t="n">
-        <v>5.140839237437977</v>
+        <v>2.593528839765405</v>
       </c>
       <c r="F20" t="n">
-        <v>5.493450359880862</v>
+        <v>2.771481446711685</v>
       </c>
       <c r="G20" t="n">
-        <v>5.606084561578675</v>
+        <v>2.828339807582579</v>
       </c>
       <c r="H20" t="n">
-        <v>6.035097822008008</v>
+        <v>3.044804609524278</v>
       </c>
       <c r="I20" t="n">
-        <v>6.288686770110111</v>
+        <v>3.172691362976514</v>
       </c>
       <c r="J20" t="n">
-        <v>6.047624628540068</v>
+        <v>3.051001297882007</v>
       </c>
       <c r="K20" t="n">
-        <v>6.221409277004025</v>
+        <v>3.138659749746063</v>
       </c>
       <c r="L20" t="n">
-        <v>6.647122361747036</v>
+        <v>3.353530394693856</v>
       </c>
       <c r="M20" t="n">
-        <v>6.727909896244776</v>
+        <v>3.394303347637301</v>
       </c>
       <c r="N20" t="n">
-        <v>7.318500479503075</v>
+        <v>3.692145486439965</v>
       </c>
       <c r="O20" t="n">
-        <v>7.411525766387905</v>
+        <v>3.739171980700978</v>
       </c>
       <c r="P20" t="n">
-        <v>7.901302377681639</v>
+        <v>3.986283939173871</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.331423397270832</v>
+        <v>4.203143584921657</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.319461176027776</v>
+        <v>2.683669491856062</v>
       </c>
       <c r="B21" t="n">
-        <v>5.22861196537661</v>
+        <v>2.637853397110036</v>
       </c>
       <c r="C21" t="n">
-        <v>5.249456544399957</v>
+        <v>2.648357549970021</v>
       </c>
       <c r="D21" t="n">
-        <v>5.183758988569683</v>
+        <v>2.615244680570579</v>
       </c>
       <c r="E21" t="n">
-        <v>5.267244361753798</v>
+        <v>2.657355667923851</v>
       </c>
       <c r="F21" t="n">
-        <v>5.570654862589406</v>
+        <v>2.810406678460339</v>
       </c>
       <c r="G21" t="n">
-        <v>5.751390896991921</v>
+        <v>2.90158887677526</v>
       </c>
       <c r="H21" t="n">
-        <v>5.889538493785618</v>
+        <v>2.97132358025545</v>
       </c>
       <c r="I21" t="n">
-        <v>6.474934554310062</v>
+        <v>3.266571234235829</v>
       </c>
       <c r="J21" t="n">
-        <v>6.27024815833631</v>
+        <v>3.163312614456556</v>
       </c>
       <c r="K21" t="n">
-        <v>6.876853918909325</v>
+        <v>3.469367447572866</v>
       </c>
       <c r="L21" t="n">
-        <v>6.728806358515039</v>
+        <v>3.394664363932283</v>
       </c>
       <c r="M21" t="n">
-        <v>6.840256734172736</v>
+        <v>3.450896489450543</v>
       </c>
       <c r="N21" t="n">
-        <v>7.357072022376059</v>
+        <v>3.711664813141732</v>
       </c>
       <c r="O21" t="n">
-        <v>7.455393817960123</v>
+        <v>3.761302848112983</v>
       </c>
       <c r="P21" t="n">
-        <v>7.961352953705133</v>
+        <v>4.016593673388416</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.37974389690064</v>
+        <v>4.227625890752631</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.409775664683669</v>
+        <v>2.729232022401203</v>
       </c>
       <c r="B22" t="n">
-        <v>5.322470607194012</v>
+        <v>2.685188034413381</v>
       </c>
       <c r="C22" t="n">
-        <v>5.343828496794485</v>
+        <v>2.695970482511781</v>
       </c>
       <c r="D22" t="n">
-        <v>5.286803128771649</v>
+        <v>2.667222214839234</v>
       </c>
       <c r="E22" t="n">
-        <v>5.3637597097964</v>
+        <v>2.706076948917687</v>
       </c>
       <c r="F22" t="n">
-        <v>5.669550822254803</v>
+        <v>2.860350582355528</v>
       </c>
       <c r="G22" t="n">
-        <v>5.80281210804427</v>
+        <v>2.927628100911445</v>
       </c>
       <c r="H22" t="n">
-        <v>6.019587503394837</v>
+        <v>3.037025419029411</v>
       </c>
       <c r="I22" t="n">
-        <v>6.553684623333713</v>
+        <v>3.306484570426497</v>
       </c>
       <c r="J22" t="n">
-        <v>6.388968837371264</v>
+        <v>3.223121075413533</v>
       </c>
       <c r="K22" t="n">
-        <v>7.003099584505796</v>
+        <v>3.532962315655166</v>
       </c>
       <c r="L22" t="n">
-        <v>6.813260316641067</v>
+        <v>3.437392774429415</v>
       </c>
       <c r="M22" t="n">
-        <v>6.894070952932069</v>
+        <v>3.478171128404044</v>
       </c>
       <c r="N22" t="n">
-        <v>7.356874248487396</v>
+        <v>3.711592041353137</v>
       </c>
       <c r="O22" t="n">
-        <v>7.406056275968388</v>
+        <v>3.736395850672006</v>
       </c>
       <c r="P22" t="n">
-        <v>7.892007004914483</v>
+        <v>3.981571113067958</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.38404646503121</v>
+        <v>4.229630810381379</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.519792038783967</v>
+        <v>2.784794135787751</v>
       </c>
       <c r="B23" t="n">
-        <v>5.420603644223369</v>
+        <v>2.73475216053684</v>
       </c>
       <c r="C23" t="n">
-        <v>5.447429897326615</v>
+        <v>2.748285154832285</v>
       </c>
       <c r="D23" t="n">
-        <v>5.331947413557033</v>
+        <v>2.690014282174174</v>
       </c>
       <c r="E23" t="n">
-        <v>5.429050448681902</v>
+        <v>2.739009310169637</v>
       </c>
       <c r="F23" t="n">
-        <v>5.674920017084058</v>
+        <v>2.863000783078455</v>
       </c>
       <c r="G23" t="n">
-        <v>5.855115131449204</v>
+        <v>2.953974331030765</v>
       </c>
       <c r="H23" t="n">
-        <v>6.13687643470588</v>
+        <v>3.096033674576643</v>
       </c>
       <c r="I23" t="n">
-        <v>6.640221687061982</v>
+        <v>3.350061795614036</v>
       </c>
       <c r="J23" t="n">
-        <v>6.643201254934486</v>
+        <v>3.351435078858964</v>
       </c>
       <c r="K23" t="n">
-        <v>7.172325291279805</v>
+        <v>3.618448984453345</v>
       </c>
       <c r="L23" t="n">
-        <v>6.838572557098054</v>
+        <v>3.450100263747987</v>
       </c>
       <c r="M23" t="n">
-        <v>6.948613159908359</v>
+        <v>3.505644468452186</v>
       </c>
       <c r="N23" t="n">
-        <v>7.381114227661975</v>
+        <v>3.723767102702811</v>
       </c>
       <c r="O23" t="n">
-        <v>7.450928973818344</v>
+        <v>3.759073075028069</v>
       </c>
       <c r="P23" t="n">
-        <v>7.902924010877</v>
+        <v>3.987120530477912</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.440040704232812</v>
+        <v>4.258033980587699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.467142488480094</v>
+        <v>2.758095133052627</v>
       </c>
       <c r="B24" t="n">
-        <v>5.374118328512008</v>
+        <v>2.711153918231373</v>
       </c>
       <c r="C24" t="n">
-        <v>5.397644969387307</v>
+        <v>2.723030501541888</v>
       </c>
       <c r="D24" t="n">
-        <v>5.325837834426631</v>
+        <v>2.68680578538562</v>
       </c>
       <c r="E24" t="n">
-        <v>5.407485206400437</v>
+        <v>2.728010252294248</v>
       </c>
       <c r="F24" t="n">
-        <v>5.723018514115195</v>
+        <v>2.88727387001722</v>
       </c>
       <c r="G24" t="n">
-        <v>5.826999685590228</v>
+        <v>2.939739202681299</v>
       </c>
       <c r="H24" t="n">
-        <v>6.186079310146646</v>
+        <v>3.120894336855351</v>
       </c>
       <c r="I24" t="n">
-        <v>6.644685967745389</v>
+        <v>3.352292705758146</v>
       </c>
       <c r="J24" t="n">
-        <v>6.607552934096782</v>
+        <v>3.333483188259978</v>
       </c>
       <c r="K24" t="n">
-        <v>7.105065828841631</v>
+        <v>3.584576843775244</v>
       </c>
       <c r="L24" t="n">
-        <v>6.886072097879481</v>
+        <v>3.474080273678778</v>
       </c>
       <c r="M24" t="n">
-        <v>6.955349868207087</v>
+        <v>3.509025513973854</v>
       </c>
       <c r="N24" t="n">
-        <v>7.441434700245781</v>
+        <v>3.754225223142537</v>
       </c>
       <c r="O24" t="n">
-        <v>7.379679099187831</v>
+        <v>3.723024318782505</v>
       </c>
       <c r="P24" t="n">
-        <v>7.910975831016581</v>
+        <v>3.991081760454744</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.446364397544674</v>
+        <v>4.261119106453401</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.494833086726386</v>
+        <v>2.772262037850284</v>
       </c>
       <c r="B25" t="n">
-        <v>5.396743999450065</v>
+        <v>2.722765851013834</v>
       </c>
       <c r="C25" t="n">
-        <v>5.417773956277884</v>
+        <v>2.733383994058297</v>
       </c>
       <c r="D25" t="n">
-        <v>5.337732440665016</v>
+        <v>2.69293453445634</v>
       </c>
       <c r="E25" t="n">
-        <v>5.404226726633663</v>
+        <v>2.726513029596869</v>
       </c>
       <c r="F25" t="n">
-        <v>5.752930265264933</v>
+        <v>2.902352127761108</v>
       </c>
       <c r="G25" t="n">
-        <v>5.838004591058817</v>
+        <v>2.945315340982378</v>
       </c>
       <c r="H25" t="n">
-        <v>6.327436929287101</v>
+        <v>3.192237694834205</v>
       </c>
       <c r="I25" t="n">
-        <v>6.664943423144842</v>
+        <v>3.362464268803068</v>
       </c>
       <c r="J25" t="n">
-        <v>6.655764686260744</v>
+        <v>3.357917453339887</v>
       </c>
       <c r="K25" t="n">
-        <v>6.946974059503458</v>
+        <v>3.504762679045072</v>
       </c>
       <c r="L25" t="n">
-        <v>6.901976273894861</v>
+        <v>3.482039119526739</v>
       </c>
       <c r="M25" t="n">
-        <v>6.975973008090135</v>
+        <v>3.519380996343857</v>
       </c>
       <c r="N25" t="n">
-        <v>7.474052741957477</v>
+        <v>3.770761759306314</v>
       </c>
       <c r="O25" t="n">
-        <v>7.43187619241878</v>
+        <v>3.749359746839455</v>
       </c>
       <c r="P25" t="n">
-        <v>7.922531798773239</v>
+        <v>3.997003280486849</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.461687084519882</v>
+        <v>4.26898983021361</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.250676995234269</v>
+        <v>2.64877996746163</v>
       </c>
       <c r="B26" t="n">
-        <v>5.168435738136102</v>
+        <v>2.607287540311413</v>
       </c>
       <c r="C26" t="n">
-        <v>5.15276539734521</v>
+        <v>2.599380146392108</v>
       </c>
       <c r="D26" t="n">
-        <v>5.137626961257729</v>
+        <v>2.591766113745575</v>
       </c>
       <c r="E26" t="n">
-        <v>5.180533189388501</v>
+        <v>2.613419700559724</v>
       </c>
       <c r="F26" t="n">
-        <v>5.620520928534321</v>
+        <v>2.835455808300916</v>
       </c>
       <c r="G26" t="n">
-        <v>5.644911351094293</v>
+        <v>2.847800575735711</v>
       </c>
       <c r="H26" t="n">
-        <v>6.161094439003941</v>
+        <v>3.108266157415754</v>
       </c>
       <c r="I26" t="n">
-        <v>6.421371074526385</v>
+        <v>3.239539073156044</v>
       </c>
       <c r="J26" t="n">
-        <v>6.246553043407706</v>
+        <v>3.151392538631764</v>
       </c>
       <c r="K26" t="n">
-        <v>6.496695316646702</v>
+        <v>3.277517418858567</v>
       </c>
       <c r="L26" t="n">
-        <v>6.756096337858655</v>
+        <v>3.408443815808634</v>
       </c>
       <c r="M26" t="n">
-        <v>6.80421399247445</v>
+        <v>3.432735948488944</v>
       </c>
       <c r="N26" t="n">
-        <v>7.521848098384339</v>
+        <v>3.794791799841764</v>
       </c>
       <c r="O26" t="n">
-        <v>7.40220053032702</v>
+        <v>3.734452332239885</v>
       </c>
       <c r="P26" t="n">
-        <v>7.989829576380727</v>
+        <v>4.030919766473625</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.421181189054934</v>
+        <v>4.248381769330912</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.176659976537594</v>
+        <v>2.611808771942666</v>
       </c>
       <c r="B27" t="n">
-        <v>5.08710615668425</v>
+        <v>2.566619481078873</v>
       </c>
       <c r="C27" t="n">
-        <v>5.077388753596273</v>
+        <v>2.561725294031072</v>
       </c>
       <c r="D27" t="n">
-        <v>5.036396593556065</v>
+        <v>2.540992156636727</v>
       </c>
       <c r="E27" t="n">
-        <v>5.064716011345798</v>
+        <v>2.555265944998883</v>
       </c>
       <c r="F27" t="n">
-        <v>5.515933475850738</v>
+        <v>2.78283668838047</v>
       </c>
       <c r="G27" t="n">
-        <v>5.520563976753961</v>
+        <v>2.785225365488136</v>
       </c>
       <c r="H27" t="n">
-        <v>6.137555402044453</v>
+        <v>3.096441594563493</v>
       </c>
       <c r="I27" t="n">
-        <v>6.235004400609887</v>
+        <v>3.145610876880865</v>
       </c>
       <c r="J27" t="n">
-        <v>6.190346380399762</v>
+        <v>3.123006424313396</v>
       </c>
       <c r="K27" t="n">
-        <v>6.271077569060275</v>
+        <v>3.163744981216138</v>
       </c>
       <c r="L27" t="n">
-        <v>6.65171285710583</v>
+        <v>3.355814178090617</v>
       </c>
       <c r="M27" t="n">
-        <v>6.692662757768119</v>
+        <v>3.376509792531468</v>
       </c>
       <c r="N27" t="n">
-        <v>7.478638729649292</v>
+        <v>3.772945197228958</v>
       </c>
       <c r="O27" t="n">
-        <v>7.366716739334015</v>
+        <v>3.716555020482345</v>
       </c>
       <c r="P27" t="n">
-        <v>8.049010172677452</v>
+        <v>4.06076472774148</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.378379764181402</v>
+        <v>4.226919492726624</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.034122475565628</v>
+        <v>2.539786021093727</v>
       </c>
       <c r="B28" t="n">
-        <v>4.933695599502804</v>
+        <v>2.489122074462169</v>
       </c>
       <c r="C28" t="n">
-        <v>4.953992496988315</v>
+        <v>2.499363566647694</v>
       </c>
       <c r="D28" t="n">
-        <v>4.913274741175397</v>
+        <v>2.478841353734355</v>
       </c>
       <c r="E28" t="n">
-        <v>4.976327986864659</v>
+        <v>2.51066195535664</v>
       </c>
       <c r="F28" t="n">
-        <v>5.393285491961139</v>
+        <v>2.720962759392517</v>
       </c>
       <c r="G28" t="n">
-        <v>5.466942460757942</v>
+        <v>2.758124412326944</v>
       </c>
       <c r="H28" t="n">
-        <v>6.006617255123809</v>
+        <v>3.030392668469711</v>
       </c>
       <c r="I28" t="n">
-        <v>6.195880105073718</v>
+        <v>3.125794493463935</v>
       </c>
       <c r="J28" t="n">
-        <v>5.769126312717143</v>
+        <v>2.910329166556218</v>
       </c>
       <c r="K28" t="n">
-        <v>5.858232746622912</v>
+        <v>2.955218558056857</v>
       </c>
       <c r="L28" t="n">
-        <v>6.542707327325364</v>
+        <v>3.300744979865879</v>
       </c>
       <c r="M28" t="n">
-        <v>6.623153406049514</v>
+        <v>3.341330886571451</v>
       </c>
       <c r="N28" t="n">
-        <v>7.369310338221522</v>
+        <v>3.717813745013196</v>
       </c>
       <c r="O28" t="n">
-        <v>7.350962443245655</v>
+        <v>3.708558935945689</v>
       </c>
       <c r="P28" t="n">
-        <v>8.083989668427286</v>
+        <v>4.078481815616328</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.336901903024307</v>
+        <v>4.20596946129049</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.954906989926491</v>
+        <v>2.499672846749222</v>
       </c>
       <c r="B29" t="n">
-        <v>4.877330041233884</v>
+        <v>2.460529583899583</v>
       </c>
       <c r="C29" t="n">
-        <v>4.858157243201029</v>
+        <v>2.450855484253258</v>
       </c>
       <c r="D29" t="n">
-        <v>4.828828108008208</v>
+        <v>2.436076273078127</v>
       </c>
       <c r="E29" t="n">
-        <v>4.893046022152929</v>
+        <v>2.468481038862765</v>
       </c>
       <c r="F29" t="n">
-        <v>5.277415348831443</v>
+        <v>2.662471865779827</v>
       </c>
       <c r="G29" t="n">
-        <v>5.379547249928723</v>
+        <v>2.713982352983398</v>
       </c>
       <c r="H29" t="n">
-        <v>5.839449861783661</v>
+        <v>2.946053860930696</v>
       </c>
       <c r="I29" t="n">
-        <v>6.047134419756203</v>
+        <v>3.050768200746664</v>
       </c>
       <c r="J29" t="n">
-        <v>5.63717563110155</v>
+        <v>2.843861518413217</v>
       </c>
       <c r="K29" t="n">
-        <v>5.763471444493153</v>
+        <v>2.907504142981783</v>
       </c>
       <c r="L29" t="n">
-        <v>6.469796377413433</v>
+        <v>3.264007450011857</v>
       </c>
       <c r="M29" t="n">
-        <v>6.549637301845777</v>
+        <v>3.30428123396791</v>
       </c>
       <c r="N29" t="n">
-        <v>7.336194199308749</v>
+        <v>3.701178568964097</v>
       </c>
       <c r="O29" t="n">
-        <v>7.354726908630718</v>
+        <v>3.710496769081825</v>
       </c>
       <c r="P29" t="n">
-        <v>8.131322425530524</v>
+        <v>4.102377114636958</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.277702149142923</v>
+        <v>4.176175099156892</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.869279911469421</v>
+        <v>2.456604455552249</v>
       </c>
       <c r="B30" t="n">
-        <v>4.796139070541607</v>
+        <v>2.419721666385837</v>
       </c>
       <c r="C30" t="n">
-        <v>4.780010074635696</v>
+        <v>2.411581743860786</v>
       </c>
       <c r="D30" t="n">
-        <v>4.78560352589711</v>
+        <v>2.414405914640824</v>
       </c>
       <c r="E30" t="n">
-        <v>4.846560142983196</v>
+        <v>2.44517985327246</v>
       </c>
       <c r="F30" t="n">
-        <v>5.232809166791567</v>
+        <v>2.639966337362479</v>
       </c>
       <c r="G30" t="n">
-        <v>5.3417442642755</v>
+        <v>2.694951961736253</v>
       </c>
       <c r="H30" t="n">
-        <v>5.721617193143388</v>
+        <v>2.886581685231171</v>
       </c>
       <c r="I30" t="n">
-        <v>5.999965629039292</v>
+        <v>3.026955622782601</v>
       </c>
       <c r="J30" t="n">
-        <v>5.589480006806578</v>
+        <v>2.819891173485599</v>
       </c>
       <c r="K30" t="n">
-        <v>5.687726862427131</v>
+        <v>2.869445918870684</v>
       </c>
       <c r="L30" t="n">
-        <v>6.448697678664198</v>
+        <v>3.253311986942012</v>
       </c>
       <c r="M30" t="n">
-        <v>6.529092482676472</v>
+        <v>3.293876858052444</v>
       </c>
       <c r="N30" t="n">
-        <v>7.31361529541559</v>
+        <v>3.689619509434287</v>
       </c>
       <c r="O30" t="n">
-        <v>7.334242379507244</v>
+        <v>3.699996027399431</v>
       </c>
       <c r="P30" t="n">
-        <v>8.126647974874265</v>
+        <v>4.099750507892363</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.320836577914461</v>
+        <v>4.197558634411803</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.92855347839757</v>
+        <v>2.48650769110394</v>
       </c>
       <c r="B31" t="n">
-        <v>4.833353805654192</v>
+        <v>2.438474899453764</v>
       </c>
       <c r="C31" t="n">
-        <v>4.854626613040455</v>
+        <v>2.449205042829111</v>
       </c>
       <c r="D31" t="n">
-        <v>4.785952306629539</v>
+        <v>2.414576189255544</v>
       </c>
       <c r="E31" t="n">
-        <v>4.861526724267138</v>
+        <v>2.452705479566442</v>
       </c>
       <c r="F31" t="n">
-        <v>5.160706216185455</v>
+        <v>2.603637580289704</v>
       </c>
       <c r="G31" t="n">
-        <v>5.312808423026516</v>
+        <v>2.680395898428492</v>
       </c>
       <c r="H31" t="n">
-        <v>5.547750279757082</v>
+        <v>2.798869507320067</v>
       </c>
       <c r="I31" t="n">
-        <v>5.860027361538557</v>
+        <v>2.956396551384735</v>
       </c>
       <c r="J31" t="n">
-        <v>5.558705600888912</v>
+        <v>2.804254335411285</v>
       </c>
       <c r="K31" t="n">
-        <v>5.689249890407346</v>
+        <v>2.870037189653017</v>
       </c>
       <c r="L31" t="n">
-        <v>6.404591847658887</v>
+        <v>3.231104368034224</v>
       </c>
       <c r="M31" t="n">
-        <v>6.506477517447489</v>
+        <v>3.282509677262092</v>
       </c>
       <c r="N31" t="n">
-        <v>7.221990766044195</v>
+        <v>3.643503231060307</v>
       </c>
       <c r="O31" t="n">
-        <v>7.267180690957733</v>
+        <v>3.666272272946512</v>
       </c>
       <c r="P31" t="n">
-        <v>8.008304812948724</v>
+        <v>4.040216362466614</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.224078942771786</v>
+        <v>4.148981191406363</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.88884318615425</v>
+        <v>2.466303286236105</v>
       </c>
       <c r="B32" t="n">
-        <v>4.801730267969533</v>
+        <v>2.422359643722399</v>
       </c>
       <c r="C32" t="n">
-        <v>4.816372297231053</v>
+        <v>2.429742284822384</v>
       </c>
       <c r="D32" t="n">
-        <v>4.793608578991793</v>
+        <v>2.418290677386671</v>
       </c>
       <c r="E32" t="n">
-        <v>4.843403649181802</v>
+        <v>2.443408883573453</v>
       </c>
       <c r="F32" t="n">
-        <v>5.177816756575841</v>
+        <v>2.612211575163131</v>
       </c>
       <c r="G32" t="n">
-        <v>5.274169828607232</v>
+        <v>2.66081062229331</v>
       </c>
       <c r="H32" t="n">
-        <v>5.534880890534688</v>
+        <v>2.792479803163682</v>
       </c>
       <c r="I32" t="n">
-        <v>5.718950908125858</v>
+        <v>2.885236259936565</v>
       </c>
       <c r="J32" t="n">
-        <v>5.639365230336148</v>
+        <v>2.845001420258003</v>
       </c>
       <c r="K32" t="n">
-        <v>5.709367608130479</v>
+        <v>2.880264752863381</v>
       </c>
       <c r="L32" t="n">
-        <v>6.386851360808315</v>
+        <v>3.222254636305575</v>
       </c>
       <c r="M32" t="n">
-        <v>6.466210528332377</v>
+        <v>3.262276277384738</v>
       </c>
       <c r="N32" t="n">
-        <v>7.183731379109442</v>
+        <v>3.624274422983321</v>
       </c>
       <c r="O32" t="n">
-        <v>7.246913656765952</v>
+        <v>3.656124588144722</v>
       </c>
       <c r="P32" t="n">
-        <v>7.895879654307019</v>
+        <v>3.983652784192489</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.224623807017762</v>
+        <v>4.149360116383694</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.106780996126787</v>
+        <v>2.576121600521683</v>
       </c>
       <c r="B33" t="n">
-        <v>5.032317718399282</v>
+        <v>2.538541225538037</v>
       </c>
       <c r="C33" t="n">
-        <v>5.018848246010433</v>
+        <v>2.531750708014782</v>
       </c>
       <c r="D33" t="n">
-        <v>5.005197340025716</v>
+        <v>2.524882586201346</v>
       </c>
       <c r="E33" t="n">
-        <v>5.041057521211391</v>
+        <v>2.542964954343164</v>
       </c>
       <c r="F33" t="n">
-        <v>5.42519357612379</v>
+        <v>2.736873912998058</v>
       </c>
       <c r="G33" t="n">
-        <v>5.472536475477728</v>
+        <v>2.760759547015514</v>
       </c>
       <c r="H33" t="n">
-        <v>6.031905266870789</v>
+        <v>3.043025111881295</v>
       </c>
       <c r="I33" t="n">
-        <v>6.116720401813434</v>
+        <v>3.085823735783829</v>
       </c>
       <c r="J33" t="n">
-        <v>6.26032565640083</v>
+        <v>3.158483808312571</v>
       </c>
       <c r="K33" t="n">
-        <v>6.082215338013043</v>
+        <v>3.068601552924385</v>
       </c>
       <c r="L33" t="n">
-        <v>6.499234823530473</v>
+        <v>3.278775859124619</v>
       </c>
       <c r="M33" t="n">
-        <v>6.560716583819504</v>
+        <v>3.309789432981979</v>
       </c>
       <c r="N33" t="n">
-        <v>7.232330227175146</v>
+        <v>3.648807327948552</v>
       </c>
       <c r="O33" t="n">
-        <v>7.290598584367186</v>
+        <v>3.678182115238533</v>
       </c>
       <c r="P33" t="n">
-        <v>7.840992610806906</v>
+        <v>3.955928154061856</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.217049799577858</v>
+        <v>4.145660978551724</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.087181660106133</v>
+        <v>2.566371886438771</v>
       </c>
       <c r="B34" t="n">
-        <v>4.990954802750128</v>
+        <v>2.517816331822869</v>
       </c>
       <c r="C34" t="n">
-        <v>5.012087872460071</v>
+        <v>2.528470860761629</v>
       </c>
       <c r="D34" t="n">
-        <v>4.9564931252444</v>
+        <v>2.500408808314347</v>
       </c>
       <c r="E34" t="n">
-        <v>5.016700906153754</v>
+        <v>2.530770847251945</v>
       </c>
       <c r="F34" t="n">
-        <v>5.352182894079968</v>
+        <v>2.700082372832188</v>
       </c>
       <c r="G34" t="n">
-        <v>5.483742535585214</v>
+        <v>2.766438589173903</v>
       </c>
       <c r="H34" t="n">
-        <v>5.832095039650565</v>
+        <v>2.942252956300612</v>
       </c>
       <c r="I34" t="n">
-        <v>6.162148669618437</v>
+        <v>3.108658158573849</v>
       </c>
       <c r="J34" t="n">
-        <v>5.883905036979773</v>
+        <v>2.968385987820533</v>
       </c>
       <c r="K34" t="n">
-        <v>6.076824731765642</v>
+        <v>3.065646336071917</v>
       </c>
       <c r="L34" t="n">
-        <v>6.452433971130647</v>
+        <v>3.25518557623353</v>
       </c>
       <c r="M34" t="n">
-        <v>6.543437569375812</v>
+        <v>3.301096615422488</v>
       </c>
       <c r="N34" t="n">
-        <v>7.205991365563904</v>
+        <v>3.635361318681662</v>
       </c>
       <c r="O34" t="n">
-        <v>7.289610841840616</v>
+        <v>3.677568671801863</v>
       </c>
       <c r="P34" t="n">
-        <v>7.851876372725459</v>
+        <v>3.961275743464379</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.193053797878466</v>
+        <v>4.133330708621687</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.065077751620788</v>
+        <v>2.555376239740972</v>
       </c>
       <c r="B35" t="n">
-        <v>4.975267558208067</v>
+        <v>2.510058461187941</v>
       </c>
       <c r="C35" t="n">
-        <v>4.985459393245486</v>
+        <v>2.515197115963053</v>
       </c>
       <c r="D35" t="n">
-        <v>4.925848314752354</v>
+        <v>2.485126448444634</v>
       </c>
       <c r="E35" t="n">
-        <v>4.961436909002599</v>
+        <v>2.503074359336432</v>
       </c>
       <c r="F35" t="n">
-        <v>5.30930765615967</v>
+        <v>2.678570918417637</v>
       </c>
       <c r="G35" t="n">
-        <v>5.39742860137236</v>
+        <v>2.723048978753836</v>
       </c>
       <c r="H35" t="n">
-        <v>5.861101313196082</v>
+        <v>2.956919598615261</v>
       </c>
       <c r="I35" t="n">
-        <v>6.078563000844061</v>
+        <v>3.066583272850075</v>
       </c>
       <c r="J35" t="n">
-        <v>5.998383437929989</v>
+        <v>3.026003619970085</v>
       </c>
       <c r="K35" t="n">
-        <v>6.220873991550378</v>
+        <v>3.138189860032988</v>
       </c>
       <c r="L35" t="n">
-        <v>6.369652357453484</v>
+        <v>3.213552153742911</v>
       </c>
       <c r="M35" t="n">
-        <v>6.442091129249462</v>
+        <v>3.250103205888659</v>
       </c>
       <c r="N35" t="n">
-        <v>7.143080111384451</v>
+        <v>3.603665793571025</v>
       </c>
       <c r="O35" t="n">
-        <v>7.203911640711896</v>
+        <v>3.634360706588483</v>
       </c>
       <c r="P35" t="n">
-        <v>7.831595815532745</v>
+        <v>3.950948971839094</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.143976573654715</v>
+        <v>4.108489376349325</v>
       </c>
     </row>
   </sheetData>
@@ -4239,1804 +4239,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.02705952486936</v>
+        <v>8.523172875566566</v>
       </c>
       <c r="B2" t="n">
-        <v>12.07454441573311</v>
+        <v>8.557963475810878</v>
       </c>
       <c r="C2" t="n">
-        <v>11.98433022266748</v>
+        <v>8.522104039921579</v>
       </c>
       <c r="D2" t="n">
-        <v>12.15139224929201</v>
+        <v>8.632446538496881</v>
       </c>
       <c r="E2" t="n">
-        <v>11.91752209038548</v>
+        <v>8.532595685130399</v>
       </c>
       <c r="F2" t="n">
-        <v>12.25271446070836</v>
+        <v>8.740516624267388</v>
       </c>
       <c r="G2" t="n">
-        <v>11.83892753587258</v>
+        <v>8.417333131410571</v>
       </c>
       <c r="H2" t="n">
-        <v>12.3277761312272</v>
+        <v>8.735196892815186</v>
       </c>
       <c r="I2" t="n">
-        <v>11.72535912019356</v>
+        <v>8.282962866418215</v>
       </c>
       <c r="J2" t="n">
-        <v>12.24808846747211</v>
+        <v>8.617968363744099</v>
       </c>
       <c r="K2" t="n">
-        <v>11.69077291838756</v>
+        <v>8.047813907754794</v>
       </c>
       <c r="L2" t="n">
-        <v>12.10278720318422</v>
+        <v>8.625449644729407</v>
       </c>
       <c r="M2" t="n">
-        <v>11.83270582852609</v>
+        <v>8.370276505080842</v>
       </c>
       <c r="N2" t="n">
-        <v>12.07280107552934</v>
+        <v>8.6275094274644</v>
       </c>
       <c r="O2" t="n">
-        <v>11.81773586649192</v>
+        <v>8.12227081807927</v>
       </c>
       <c r="P2" t="n">
-        <v>12.08305939865469</v>
+        <v>8.688373932150398</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.93416665070201</v>
+        <v>8.002522565828087</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.0302070033368</v>
+        <v>8.585803233185187</v>
       </c>
       <c r="B3" t="n">
-        <v>12.07764118294705</v>
+        <v>8.604145135088674</v>
       </c>
       <c r="C3" t="n">
-        <v>11.98635641897412</v>
+        <v>8.559358647445345</v>
       </c>
       <c r="D3" t="n">
-        <v>12.15343196859959</v>
+        <v>8.600604332749857</v>
       </c>
       <c r="E3" t="n">
-        <v>11.91840446619644</v>
+        <v>8.48457824377938</v>
       </c>
       <c r="F3" t="n">
-        <v>12.2534244182574</v>
+        <v>8.688649669005621</v>
       </c>
       <c r="G3" t="n">
-        <v>11.83195530197425</v>
+        <v>8.340513980604754</v>
       </c>
       <c r="H3" t="n">
-        <v>12.33548874942668</v>
+        <v>8.682380493124096</v>
       </c>
       <c r="I3" t="n">
-        <v>11.71720136987999</v>
+        <v>8.171712994603872</v>
       </c>
       <c r="J3" t="n">
-        <v>12.28954660758618</v>
+        <v>8.563338354634125</v>
       </c>
       <c r="K3" t="n">
-        <v>11.69078193372152</v>
+        <v>7.946533202448344</v>
       </c>
       <c r="L3" t="n">
-        <v>12.11244487968473</v>
+        <v>8.594218608300659</v>
       </c>
       <c r="M3" t="n">
-        <v>11.84002966044872</v>
+        <v>8.323723027445695</v>
       </c>
       <c r="N3" t="n">
-        <v>12.08939717842586</v>
+        <v>8.620423274549978</v>
       </c>
       <c r="O3" t="n">
-        <v>11.83185162563375</v>
+        <v>8.07128451516542</v>
       </c>
       <c r="P3" t="n">
-        <v>12.08027027971201</v>
+        <v>8.690972112415073</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.93559445421732</v>
+        <v>7.948950021771131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.03525784418573</v>
+        <v>8.403059058783615</v>
       </c>
       <c r="B4" t="n">
-        <v>12.08533464356187</v>
+        <v>8.431890900307128</v>
       </c>
       <c r="C4" t="n">
-        <v>11.99276406758345</v>
+        <v>8.408993939261283</v>
       </c>
       <c r="D4" t="n">
-        <v>12.15103276285051</v>
+        <v>8.502867840959814</v>
       </c>
       <c r="E4" t="n">
-        <v>11.91987734638153</v>
+        <v>8.445912545792394</v>
       </c>
       <c r="F4" t="n">
-        <v>12.25285757913491</v>
+        <v>8.628449775420149</v>
       </c>
       <c r="G4" t="n">
-        <v>11.80518539470823</v>
+        <v>8.31026081508525</v>
       </c>
       <c r="H4" t="n">
-        <v>12.32965470144031</v>
+        <v>8.632926946007526</v>
       </c>
       <c r="I4" t="n">
-        <v>11.71580624695028</v>
+        <v>8.129100564144814</v>
       </c>
       <c r="J4" t="n">
-        <v>12.3106334737096</v>
+        <v>8.488480630942778</v>
       </c>
       <c r="K4" t="n">
-        <v>11.7210644404802</v>
+        <v>7.896673725198518</v>
       </c>
       <c r="L4" t="n">
-        <v>12.12545738733368</v>
+        <v>8.533966409992136</v>
       </c>
       <c r="M4" t="n">
-        <v>11.83709967691297</v>
+        <v>8.279946816898718</v>
       </c>
       <c r="N4" t="n">
-        <v>12.06927946070272</v>
+        <v>8.579803540333302</v>
       </c>
       <c r="O4" t="n">
-        <v>11.84143379871239</v>
+        <v>8.03767133971939</v>
       </c>
       <c r="P4" t="n">
-        <v>12.06530933301179</v>
+        <v>8.661264166780432</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.922195414125</v>
+        <v>7.947704373421042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12.03241801398954</v>
+        <v>8.407317914005208</v>
       </c>
       <c r="B5" t="n">
-        <v>12.07959751041553</v>
+        <v>8.442163661620564</v>
       </c>
       <c r="C5" t="n">
-        <v>11.98877703614135</v>
+        <v>8.395059847334169</v>
       </c>
       <c r="D5" t="n">
-        <v>12.15354466027404</v>
+        <v>8.501281074850688</v>
       </c>
       <c r="E5" t="n">
-        <v>11.91958998261167</v>
+        <v>8.379710116707045</v>
       </c>
       <c r="F5" t="n">
-        <v>12.2527460143772</v>
+        <v>8.590196829921599</v>
       </c>
       <c r="G5" t="n">
-        <v>11.82830747247224</v>
+        <v>8.262512856763871</v>
       </c>
       <c r="H5" t="n">
-        <v>12.33430999451192</v>
+        <v>8.598504184413377</v>
       </c>
       <c r="I5" t="n">
-        <v>11.71676074543289</v>
+        <v>8.091904515169684</v>
       </c>
       <c r="J5" t="n">
-        <v>12.28955787675362</v>
+        <v>8.457345676016159</v>
       </c>
       <c r="K5" t="n">
-        <v>11.69255457376065</v>
+        <v>7.873214488379859</v>
       </c>
       <c r="L5" t="n">
-        <v>12.1107759159861</v>
+        <v>8.487363470281927</v>
       </c>
       <c r="M5" t="n">
-        <v>11.83646296895232</v>
+        <v>8.233281907462285</v>
       </c>
       <c r="N5" t="n">
-        <v>12.0708988400646</v>
+        <v>8.528347631971176</v>
       </c>
       <c r="O5" t="n">
-        <v>11.82363414873273</v>
+        <v>8.009531967246726</v>
       </c>
       <c r="P5" t="n">
-        <v>12.06696590062623</v>
+        <v>8.632159999579288</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.92208610320078</v>
+        <v>7.943305659918244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.0299714777372</v>
+        <v>8.292805250825666</v>
       </c>
       <c r="B6" t="n">
-        <v>12.07808180739415</v>
+        <v>8.332804150720891</v>
       </c>
       <c r="C6" t="n">
-        <v>11.98676774358587</v>
+        <v>8.304774504460719</v>
       </c>
       <c r="D6" t="n">
-        <v>12.15396950788673</v>
+        <v>8.43444700938152</v>
       </c>
       <c r="E6" t="n">
-        <v>11.91911329682874</v>
+        <v>8.34367216252385</v>
       </c>
       <c r="F6" t="n">
-        <v>12.25367572069143</v>
+        <v>8.554869537736401</v>
       </c>
       <c r="G6" t="n">
-        <v>11.82843143331414</v>
+        <v>8.209850528593947</v>
       </c>
       <c r="H6" t="n">
-        <v>12.33005926455159</v>
+        <v>8.575092135551385</v>
       </c>
       <c r="I6" t="n">
-        <v>11.71468383787274</v>
+        <v>8.044824010596823</v>
       </c>
       <c r="J6" t="n">
-        <v>12.27668961444797</v>
+        <v>8.441591720844576</v>
       </c>
       <c r="K6" t="n">
-        <v>11.6948974336725</v>
+        <v>7.831189348995944</v>
       </c>
       <c r="L6" t="n">
-        <v>12.1071686554869</v>
+        <v>8.445366188848334</v>
       </c>
       <c r="M6" t="n">
-        <v>11.83302136521456</v>
+        <v>8.179850927275329</v>
       </c>
       <c r="N6" t="n">
-        <v>12.05475575769938</v>
+        <v>8.474889930893095</v>
       </c>
       <c r="O6" t="n">
-        <v>11.82657878218615</v>
+        <v>7.967971316544702</v>
       </c>
       <c r="P6" t="n">
-        <v>12.0555738992559</v>
+        <v>8.564890440437749</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.93103945673598</v>
+        <v>7.942055463331369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.02991062423299</v>
+        <v>8.249154685319933</v>
       </c>
       <c r="B7" t="n">
-        <v>12.07814942239882</v>
+        <v>8.289224082885362</v>
       </c>
       <c r="C7" t="n">
-        <v>11.98734585187581</v>
+        <v>8.258223869473564</v>
       </c>
       <c r="D7" t="n">
-        <v>12.15490372186793</v>
+        <v>8.40446218983246</v>
       </c>
       <c r="E7" t="n">
-        <v>11.92035065141422</v>
+        <v>8.301206412701179</v>
       </c>
       <c r="F7" t="n">
-        <v>12.25609633785866</v>
+        <v>8.518961776831238</v>
       </c>
       <c r="G7" t="n">
-        <v>11.82833451847411</v>
+        <v>8.170247893828803</v>
       </c>
       <c r="H7" t="n">
-        <v>12.33533774258292</v>
+        <v>8.547853313962582</v>
       </c>
       <c r="I7" t="n">
-        <v>11.71608234155269</v>
+        <v>7.996856031320864</v>
       </c>
       <c r="J7" t="n">
-        <v>12.28773339854425</v>
+        <v>8.422069551494817</v>
       </c>
       <c r="K7" t="n">
-        <v>11.70216604667464</v>
+        <v>7.791802186948593</v>
       </c>
       <c r="L7" t="n">
-        <v>12.10808145804996</v>
+        <v>8.403562776007796</v>
       </c>
       <c r="M7" t="n">
-        <v>11.83239029183763</v>
+        <v>8.139577427584076</v>
       </c>
       <c r="N7" t="n">
-        <v>12.05556826467217</v>
+        <v>8.445565174207774</v>
       </c>
       <c r="O7" t="n">
-        <v>11.82586995155385</v>
+        <v>7.925252571050743</v>
       </c>
       <c r="P7" t="n">
-        <v>12.0557789981034</v>
+        <v>8.438609783100983</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.93022356901295</v>
+        <v>7.928944033733135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.02838027129394</v>
+        <v>8.265678429567746</v>
       </c>
       <c r="B8" t="n">
-        <v>12.07680050305563</v>
+        <v>8.29157608983393</v>
       </c>
       <c r="C8" t="n">
-        <v>11.98572421868045</v>
+        <v>8.264055277564323</v>
       </c>
       <c r="D8" t="n">
-        <v>12.15392443121695</v>
+        <v>8.356386189932804</v>
       </c>
       <c r="E8" t="n">
-        <v>11.91946038718605</v>
+        <v>8.281735979544873</v>
       </c>
       <c r="F8" t="n">
-        <v>12.25706661317568</v>
+        <v>8.490652982538252</v>
       </c>
       <c r="G8" t="n">
-        <v>11.82903433377246</v>
+        <v>8.130641847886068</v>
       </c>
       <c r="H8" t="n">
-        <v>12.33590796245564</v>
+        <v>8.523636227189259</v>
       </c>
       <c r="I8" t="n">
-        <v>11.71668974967798</v>
+        <v>7.971165884358095</v>
       </c>
       <c r="J8" t="n">
-        <v>12.28209318023794</v>
+        <v>8.410662573632578</v>
       </c>
       <c r="K8" t="n">
-        <v>11.70228437293281</v>
+        <v>7.76485786369176</v>
       </c>
       <c r="L8" t="n">
-        <v>12.10776141369452</v>
+        <v>8.359281711177442</v>
       </c>
       <c r="M8" t="n">
-        <v>11.83201052089473</v>
+        <v>8.095269073332998</v>
       </c>
       <c r="N8" t="n">
-        <v>12.05253235096244</v>
+        <v>8.410450512092376</v>
       </c>
       <c r="O8" t="n">
-        <v>11.82584966705245</v>
+        <v>7.891613811772784</v>
       </c>
       <c r="P8" t="n">
-        <v>12.05471180794634</v>
+        <v>8.318726789334981</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.93132682050583</v>
+        <v>7.924553279644715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.02701895586656</v>
+        <v>8.161008719325253</v>
       </c>
       <c r="B9" t="n">
-        <v>12.07562738272459</v>
+        <v>8.195768050441652</v>
       </c>
       <c r="C9" t="n">
-        <v>11.98440121842238</v>
+        <v>8.169691303351973</v>
       </c>
       <c r="D9" t="n">
-        <v>12.15323363125256</v>
+        <v>8.313032965407034</v>
       </c>
       <c r="E9" t="n">
-        <v>11.91829290143873</v>
+        <v>8.226766558264654</v>
       </c>
       <c r="F9" t="n">
-        <v>12.25807858441226</v>
+        <v>8.453461481799911</v>
       </c>
       <c r="G9" t="n">
-        <v>11.82871203558352</v>
+        <v>8.103549138404054</v>
       </c>
       <c r="H9" t="n">
-        <v>12.3362663219804</v>
+        <v>8.491597878730788</v>
       </c>
       <c r="I9" t="n">
-        <v>11.71917910876662</v>
+        <v>7.954615987748756</v>
       </c>
       <c r="J9" t="n">
-        <v>12.28357732959047</v>
+        <v>8.360394892131103</v>
       </c>
       <c r="K9" t="n">
-        <v>11.7014966581284</v>
+        <v>7.747088471093859</v>
       </c>
       <c r="L9" t="n">
-        <v>12.11023048828176</v>
+        <v>8.319086100041169</v>
       </c>
       <c r="M9" t="n">
-        <v>11.83255932934931</v>
+        <v>8.054598739982064</v>
       </c>
       <c r="N9" t="n">
-        <v>12.06586039529986</v>
+        <v>8.331759193319039</v>
       </c>
       <c r="O9" t="n">
-        <v>11.8233524195466</v>
+        <v>7.826299425920132</v>
       </c>
       <c r="P9" t="n">
-        <v>12.06415198951517</v>
+        <v>8.293661456400852</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.92442783619589</v>
+        <v>7.882736222093813</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.02454988127932</v>
+        <v>8.278259989580274</v>
       </c>
       <c r="B10" t="n">
-        <v>12.07342426048906</v>
+        <v>8.30371362823011</v>
       </c>
       <c r="C10" t="n">
-        <v>11.9826928126377</v>
+        <v>8.261651534422299</v>
       </c>
       <c r="D10" t="n">
-        <v>12.15235801694207</v>
+        <v>8.340886936021302</v>
       </c>
       <c r="E10" t="n">
-        <v>11.9183098051899</v>
+        <v>8.230391502984034</v>
       </c>
       <c r="F10" t="n">
-        <v>12.25658316589229</v>
+        <v>8.444416744419012</v>
       </c>
       <c r="G10" t="n">
-        <v>11.83333915573651</v>
+        <v>8.079100091554585</v>
       </c>
       <c r="H10" t="n">
-        <v>12.33164032874415</v>
+        <v>8.461153118736625</v>
       </c>
       <c r="I10" t="n">
-        <v>11.72619529241799</v>
+        <v>7.924744305589776</v>
       </c>
       <c r="J10" t="n">
-        <v>12.26726070204659</v>
+        <v>8.337391047520759</v>
       </c>
       <c r="K10" t="n">
-        <v>11.69935889706404</v>
+        <v>7.738770314539711</v>
       </c>
       <c r="L10" t="n">
-        <v>12.10831585673282</v>
+        <v>8.29657744471103</v>
       </c>
       <c r="M10" t="n">
-        <v>11.83402094036695</v>
+        <v>8.028101280989571</v>
       </c>
       <c r="N10" t="n">
-        <v>12.05968714537339</v>
+        <v>8.283249973865406</v>
       </c>
       <c r="O10" t="n">
-        <v>11.82312816311444</v>
+        <v>7.762041368061301</v>
       </c>
       <c r="P10" t="n">
-        <v>12.06255965615516</v>
+        <v>8.20659001134714</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.92534740025942</v>
+        <v>7.836666563146903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.02245043538428</v>
+        <v>8.132362786980416</v>
       </c>
       <c r="B11" t="n">
-        <v>12.07172374312158</v>
+        <v>8.169118225516788</v>
       </c>
       <c r="C11" t="n">
-        <v>11.98110386002793</v>
+        <v>8.14143083407485</v>
       </c>
       <c r="D11" t="n">
-        <v>12.15081639483557</v>
+        <v>8.26239232848901</v>
       </c>
       <c r="E11" t="n">
-        <v>11.91765844731157</v>
+        <v>8.177629113604793</v>
       </c>
       <c r="F11" t="n">
-        <v>12.25291279805539</v>
+        <v>8.392961404586485</v>
       </c>
       <c r="G11" t="n">
-        <v>11.8317896452128</v>
+        <v>8.037833370654933</v>
       </c>
       <c r="H11" t="n">
-        <v>12.32464668342767</v>
+        <v>8.43527308288799</v>
       </c>
       <c r="I11" t="n">
-        <v>11.72718359840293</v>
+        <v>7.896375815688958</v>
       </c>
       <c r="J11" t="n">
-        <v>12.26425746892245</v>
+        <v>8.30372443029248</v>
       </c>
       <c r="K11" t="n">
-        <v>11.69806632355808</v>
+        <v>7.733434095729156</v>
       </c>
       <c r="L11" t="n">
-        <v>12.10840713698913</v>
+        <v>8.258117554438664</v>
       </c>
       <c r="M11" t="n">
-        <v>11.8353259099571</v>
+        <v>7.987985263997074</v>
       </c>
       <c r="N11" t="n">
-        <v>12.05571927151594</v>
+        <v>8.241206641534342</v>
       </c>
       <c r="O11" t="n">
-        <v>11.82113126664315</v>
+        <v>7.711471797343076</v>
       </c>
       <c r="P11" t="n">
-        <v>12.05596043169927</v>
+        <v>8.180695762258546</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.9197804315415</v>
+        <v>7.706395965088587</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.02239634338055</v>
+        <v>8.085984416461576</v>
       </c>
       <c r="B12" t="n">
-        <v>12.07152089810757</v>
+        <v>8.122175305106738</v>
       </c>
       <c r="C12" t="n">
-        <v>11.98075338892038</v>
+        <v>8.102131225585651</v>
       </c>
       <c r="D12" t="n">
-        <v>12.15110037785518</v>
+        <v>8.231505820996892</v>
       </c>
       <c r="E12" t="n">
-        <v>11.91699356643231</v>
+        <v>8.155230753016742</v>
       </c>
       <c r="F12" t="n">
-        <v>12.25228735926219</v>
+        <v>8.354363930151306</v>
       </c>
       <c r="G12" t="n">
-        <v>11.83193276363935</v>
+        <v>8.025109109713208</v>
       </c>
       <c r="H12" t="n">
-        <v>12.3236144276897</v>
+        <v>8.404192138273221</v>
       </c>
       <c r="I12" t="n">
-        <v>11.72669113578558</v>
+        <v>7.878174340596275</v>
       </c>
       <c r="J12" t="n">
-        <v>12.265071102812</v>
+        <v>8.290623802756615</v>
       </c>
       <c r="K12" t="n">
-        <v>11.6991628135505</v>
+        <v>7.702399770541454</v>
       </c>
       <c r="L12" t="n">
-        <v>12.10730726624648</v>
+        <v>8.211586817987452</v>
       </c>
       <c r="M12" t="n">
-        <v>11.83534281370827</v>
+        <v>7.956168642081978</v>
       </c>
       <c r="N12" t="n">
-        <v>12.04715921192458</v>
+        <v>8.188925228195345</v>
       </c>
       <c r="O12" t="n">
-        <v>11.82433283711433</v>
+        <v>7.674475870786583</v>
       </c>
       <c r="P12" t="n">
-        <v>12.05090846393359</v>
+        <v>8.13713218178137</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.92481662247275</v>
+        <v>7.515013551968971</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.02231633229169</v>
+        <v>8.184965988072108</v>
       </c>
       <c r="B13" t="n">
-        <v>12.07116253858281</v>
+        <v>8.220522397685459</v>
       </c>
       <c r="C13" t="n">
-        <v>11.97995553186526</v>
+        <v>8.16179670134863</v>
       </c>
       <c r="D13" t="n">
-        <v>12.14966581283941</v>
+        <v>8.268268650418044</v>
       </c>
       <c r="E13" t="n">
-        <v>11.91387764163371</v>
+        <v>8.11533987374521</v>
       </c>
       <c r="F13" t="n">
-        <v>12.25141174495169</v>
+        <v>8.334102672323631</v>
       </c>
       <c r="G13" t="n">
-        <v>11.82550144977839</v>
+        <v>7.995480189692743</v>
       </c>
       <c r="H13" t="n">
-        <v>12.32556173982422</v>
+        <v>8.367015419304437</v>
       </c>
       <c r="I13" t="n">
-        <v>11.71830800212311</v>
+        <v>7.82627156796981</v>
       </c>
       <c r="J13" t="n">
-        <v>12.26521647507204</v>
+        <v>8.235743072093745</v>
       </c>
       <c r="K13" t="n">
-        <v>11.70048355997507</v>
+        <v>7.645764557537931</v>
       </c>
       <c r="L13" t="n">
-        <v>12.10977972158395</v>
+        <v>8.161153125843246</v>
       </c>
       <c r="M13" t="n">
-        <v>11.83536985971013</v>
+        <v>7.904052102326515</v>
       </c>
       <c r="N13" t="n">
-        <v>12.05060081566234</v>
+        <v>8.166300024297534</v>
       </c>
       <c r="O13" t="n">
-        <v>11.82700588363232</v>
+        <v>7.624369083161453</v>
       </c>
       <c r="P13" t="n">
-        <v>12.05017258729942</v>
+        <v>8.109027489614208</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.92766208725266</v>
+        <v>7.350743746867313</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.01910912723679</v>
+        <v>8.209484395532579</v>
       </c>
       <c r="B14" t="n">
-        <v>12.06901012760078</v>
+        <v>8.229778059547364</v>
       </c>
       <c r="C14" t="n">
-        <v>11.97749321877849</v>
+        <v>8.182587828762012</v>
       </c>
       <c r="D14" t="n">
-        <v>12.14830337049529</v>
+        <v>8.225570940519225</v>
       </c>
       <c r="E14" t="n">
-        <v>11.91274734413896</v>
+        <v>8.099393187039771</v>
       </c>
       <c r="F14" t="n">
-        <v>12.25095421675342</v>
+        <v>8.275803941715198</v>
       </c>
       <c r="G14" t="n">
-        <v>11.81646921207108</v>
+        <v>7.941190729812207</v>
       </c>
       <c r="H14" t="n">
-        <v>12.32325832199843</v>
+        <v>8.320104336551898</v>
       </c>
       <c r="I14" t="n">
-        <v>11.69977472934277</v>
+        <v>7.791034671990757</v>
       </c>
       <c r="J14" t="n">
-        <v>12.26786698325514</v>
+        <v>8.174161083054571</v>
       </c>
       <c r="K14" t="n">
-        <v>11.7113414028085</v>
+        <v>7.595300164795411</v>
       </c>
       <c r="L14" t="n">
-        <v>12.11120527126576</v>
+        <v>8.097540917608193</v>
       </c>
       <c r="M14" t="n">
-        <v>11.82970822998568</v>
+        <v>7.835094578807334</v>
       </c>
       <c r="N14" t="n">
-        <v>12.07709688215944</v>
+        <v>8.103125583853247</v>
       </c>
       <c r="O14" t="n">
-        <v>11.82802461636937</v>
+        <v>7.525800832568957</v>
       </c>
       <c r="P14" t="n">
-        <v>12.0725418846781</v>
+        <v>8.098903114525953</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.92387001240735</v>
+        <v>7.2532096516143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12.02136859530955</v>
+        <v>8.211992179591109</v>
       </c>
       <c r="B15" t="n">
-        <v>12.07322479622528</v>
+        <v>8.224626612856287</v>
       </c>
       <c r="C15" t="n">
-        <v>11.98153321530759</v>
+        <v>8.18903665999663</v>
       </c>
       <c r="D15" t="n">
-        <v>12.14408982878754</v>
+        <v>8.189821230842417</v>
       </c>
       <c r="E15" t="n">
-        <v>11.91435996200037</v>
+        <v>8.091996616964625</v>
       </c>
       <c r="F15" t="n">
-        <v>12.25525115030027</v>
+        <v>8.225926271518224</v>
       </c>
       <c r="G15" t="n">
-        <v>11.79606187674461</v>
+        <v>7.890340874001973</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32529240672228</v>
+        <v>8.26053437376145</v>
       </c>
       <c r="I15" t="n">
-        <v>11.7015575116326</v>
+        <v>7.732716611375979</v>
       </c>
       <c r="J15" t="n">
-        <v>12.30362067080846</v>
+        <v>8.130884610024584</v>
       </c>
       <c r="K15" t="n">
-        <v>11.73503820811222</v>
+        <v>7.566398962660895</v>
       </c>
       <c r="L15" t="n">
-        <v>12.1253086343234</v>
+        <v>8.027033013874183</v>
       </c>
       <c r="M15" t="n">
-        <v>11.82971837223638</v>
+        <v>7.752386029891722</v>
       </c>
       <c r="N15" t="n">
-        <v>12.06710225755231</v>
+        <v>8.0653683961645</v>
       </c>
       <c r="O15" t="n">
-        <v>11.83595134875031</v>
+        <v>7.41642540284053</v>
       </c>
       <c r="P15" t="n">
-        <v>12.0570017027712</v>
+        <v>8.12099390060127</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.92140995315407</v>
+        <v>7.199410832777181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12.02276371823926</v>
+        <v>8.169520175942855</v>
       </c>
       <c r="B16" t="n">
-        <v>12.07473711849642</v>
+        <v>8.179730967530066</v>
       </c>
       <c r="C16" t="n">
-        <v>11.98285508864891</v>
+        <v>8.145745973726683</v>
       </c>
       <c r="D16" t="n">
-        <v>12.14587711874434</v>
+        <v>8.128124398824365</v>
       </c>
       <c r="E16" t="n">
-        <v>11.91563675867191</v>
+        <v>8.04234237889982</v>
       </c>
       <c r="F16" t="n">
-        <v>12.25817211850206</v>
+        <v>8.168887971029438</v>
       </c>
       <c r="G16" t="n">
-        <v>11.79669295012154</v>
+        <v>7.858574851221134</v>
       </c>
       <c r="H16" t="n">
-        <v>12.32922083849367</v>
+        <v>8.206100507362921</v>
       </c>
       <c r="I16" t="n">
-        <v>11.70060639390022</v>
+        <v>7.679066178764041</v>
       </c>
       <c r="J16" t="n">
-        <v>12.3062035639869</v>
+        <v>8.099601837402382</v>
       </c>
       <c r="K16" t="n">
-        <v>11.73854291918767</v>
+        <v>7.502013554172023</v>
       </c>
       <c r="L16" t="n">
-        <v>12.1265741618275</v>
+        <v>7.950925093595962</v>
       </c>
       <c r="M16" t="n">
-        <v>11.82951552722236</v>
+        <v>7.685868066879263</v>
       </c>
       <c r="N16" t="n">
-        <v>12.06575108437564</v>
+        <v>8.031866652519755</v>
       </c>
       <c r="O16" t="n">
-        <v>11.83312278772157</v>
+        <v>7.350423096173818</v>
       </c>
       <c r="P16" t="n">
-        <v>12.05527639323534</v>
+        <v>8.086765007600174</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.91863773796256</v>
+        <v>7.137041998773824</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12.02499163264317</v>
+        <v>8.088616139972556</v>
       </c>
       <c r="B17" t="n">
-        <v>12.07665175004536</v>
+        <v>8.09624012188706</v>
       </c>
       <c r="C17" t="n">
-        <v>11.98456236751685</v>
+        <v>8.064123884873609</v>
       </c>
       <c r="D17" t="n">
-        <v>12.14648903453662</v>
+        <v>8.050544555415895</v>
       </c>
       <c r="E17" t="n">
-        <v>11.91626670513209</v>
+        <v>7.963836969305158</v>
       </c>
       <c r="F17" t="n">
-        <v>12.25674656882024</v>
+        <v>8.114973172154246</v>
       </c>
       <c r="G17" t="n">
-        <v>11.79649686660799</v>
+        <v>7.773147593765987</v>
       </c>
       <c r="H17" t="n">
-        <v>12.32389728379257</v>
+        <v>8.127892438748219</v>
       </c>
       <c r="I17" t="n">
-        <v>11.70259878270453</v>
+        <v>7.581259189303798</v>
       </c>
       <c r="J17" t="n">
-        <v>12.29954912061052</v>
+        <v>8.049103901413556</v>
       </c>
       <c r="K17" t="n">
-        <v>11.7392269576516</v>
+        <v>7.410318826424147</v>
       </c>
       <c r="L17" t="n">
-        <v>12.12545851425043</v>
+        <v>7.911908044317166</v>
       </c>
       <c r="M17" t="n">
-        <v>11.82860159774256</v>
+        <v>7.629196467981443</v>
       </c>
       <c r="N17" t="n">
-        <v>12.06994659541548</v>
+        <v>8.002309935758287</v>
       </c>
       <c r="O17" t="n">
-        <v>11.83191022530447</v>
+        <v>7.310772704922408</v>
       </c>
       <c r="P17" t="n">
-        <v>12.05867179338658</v>
+        <v>8.051206892398028</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.91430699691337</v>
+        <v>7.034919869661747</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12.02246057763499</v>
+        <v>7.913505043959064</v>
       </c>
       <c r="B18" t="n">
-        <v>12.07412520270415</v>
+        <v>7.932180104207212</v>
       </c>
       <c r="C18" t="n">
-        <v>11.9828043773954</v>
+        <v>7.903037276993377</v>
       </c>
       <c r="D18" t="n">
-        <v>12.14400643694844</v>
+        <v>7.94060059608907</v>
       </c>
       <c r="E18" t="n">
-        <v>11.91882029847517</v>
+        <v>7.8714622801576</v>
       </c>
       <c r="F18" t="n">
-        <v>12.25244625452316</v>
+        <v>8.00880709200877</v>
       </c>
       <c r="G18" t="n">
-        <v>11.80603621685034</v>
+        <v>7.691368022214157</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32173473055984</v>
+        <v>8.066087017576875</v>
       </c>
       <c r="I18" t="n">
-        <v>11.71208178710965</v>
+        <v>7.487020291603095</v>
       </c>
       <c r="J18" t="n">
-        <v>12.27502177766609</v>
+        <v>7.97363273428554</v>
       </c>
       <c r="K18" t="n">
-        <v>11.74652487048909</v>
+        <v>7.284703917247106</v>
       </c>
       <c r="L18" t="n">
-        <v>12.11676885923345</v>
+        <v>7.847763692378015</v>
       </c>
       <c r="M18" t="n">
-        <v>11.82955835005866</v>
+        <v>7.579427955467361</v>
       </c>
       <c r="N18" t="n">
-        <v>12.06903266593567</v>
+        <v>7.963602735110618</v>
       </c>
       <c r="O18" t="n">
-        <v>11.83051735620824</v>
+        <v>7.242061354719333</v>
       </c>
       <c r="P18" t="n">
-        <v>12.04744882952792</v>
+        <v>7.989749411340901</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.89858650832735</v>
+        <v>6.953080033972486</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12.0219748765181</v>
+        <v>7.673519035472481</v>
       </c>
       <c r="B19" t="n">
-        <v>12.07529719611845</v>
+        <v>7.711835087756453</v>
       </c>
       <c r="C19" t="n">
-        <v>11.98188368641513</v>
+        <v>7.695432440313097</v>
       </c>
       <c r="D19" t="n">
-        <v>12.14705361982562</v>
+        <v>7.81636152854015</v>
       </c>
       <c r="E19" t="n">
-        <v>11.9156592970068</v>
+        <v>7.756385635616446</v>
       </c>
       <c r="F19" t="n">
-        <v>12.25753653745815</v>
+        <v>7.906087438288777</v>
       </c>
       <c r="G19" t="n">
-        <v>11.79804525021496</v>
+        <v>7.597454323443738</v>
       </c>
       <c r="H19" t="n">
-        <v>12.32243341894144</v>
+        <v>7.923823287640372</v>
       </c>
       <c r="I19" t="n">
-        <v>11.70458779075861</v>
+        <v>7.363125184461205</v>
       </c>
       <c r="J19" t="n">
-        <v>12.2971487879447</v>
+        <v>7.829322866324407</v>
       </c>
       <c r="K19" t="n">
-        <v>11.73416146688499</v>
+        <v>7.149986280670129</v>
       </c>
       <c r="L19" t="n">
-        <v>12.11933822941095</v>
+        <v>7.773794580448963</v>
       </c>
       <c r="M19" t="n">
-        <v>11.82434410628177</v>
+        <v>7.504016483947176</v>
       </c>
       <c r="N19" t="n">
-        <v>12.04810356815649</v>
+        <v>7.862746721414172</v>
       </c>
       <c r="O19" t="n">
-        <v>11.83178288371233</v>
+        <v>7.149886219460811</v>
       </c>
       <c r="P19" t="n">
-        <v>12.03873438234257</v>
+        <v>8.019641560565423</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.91609654070367</v>
+        <v>6.909565915570369</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12.01752242846051</v>
+        <v>7.566891309293107</v>
       </c>
       <c r="B20" t="n">
-        <v>12.07017197876438</v>
+        <v>7.603776941107511</v>
       </c>
       <c r="C20" t="n">
-        <v>11.97840827517504</v>
+        <v>7.584309350599198</v>
       </c>
       <c r="D20" t="n">
-        <v>12.14242875350612</v>
+        <v>7.70282673626985</v>
       </c>
       <c r="E20" t="n">
-        <v>11.91676705616666</v>
+        <v>7.63739807596792</v>
       </c>
       <c r="F20" t="n">
-        <v>12.25288575205352</v>
+        <v>7.799400016501572</v>
       </c>
       <c r="G20" t="n">
-        <v>11.80730512510466</v>
+        <v>7.480483906810323</v>
       </c>
       <c r="H20" t="n">
-        <v>12.31991701385093</v>
+        <v>7.837359600727348</v>
       </c>
       <c r="I20" t="n">
-        <v>11.71270722590286</v>
+        <v>7.262360135500502</v>
       </c>
       <c r="J20" t="n">
-        <v>12.27009151690882</v>
+        <v>7.74903170526118</v>
       </c>
       <c r="K20" t="n">
-        <v>11.74228991736319</v>
+        <v>7.0198623632482</v>
       </c>
       <c r="L20" t="n">
-        <v>12.11283028521136</v>
+        <v>7.687268923809714</v>
       </c>
       <c r="M20" t="n">
-        <v>11.82602771989808</v>
+        <v>7.410411496748686</v>
       </c>
       <c r="N20" t="n">
-        <v>12.06855372631925</v>
+        <v>7.836295881848748</v>
       </c>
       <c r="O20" t="n">
-        <v>11.82700926438256</v>
+        <v>7.092157155509972</v>
       </c>
       <c r="P20" t="n">
-        <v>12.05390606247401</v>
+        <v>8.014128529049765</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.90245521351128</v>
+        <v>6.940357478619556</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12.01939874484013</v>
+        <v>7.397746931414792</v>
       </c>
       <c r="B21" t="n">
-        <v>12.07242017766969</v>
+        <v>7.435426799078158</v>
       </c>
       <c r="C21" t="n">
-        <v>11.97967492959588</v>
+        <v>7.409145949862654</v>
       </c>
       <c r="D21" t="n">
-        <v>12.14470963299702</v>
+        <v>7.543481534549509</v>
       </c>
       <c r="E21" t="n">
-        <v>11.91459436068323</v>
+        <v>7.464232488240143</v>
       </c>
       <c r="F21" t="n">
-        <v>12.25678939165653</v>
+        <v>7.674696460270761</v>
       </c>
       <c r="G21" t="n">
-        <v>11.79920484754507</v>
+        <v>7.365130388354752</v>
       </c>
       <c r="H21" t="n">
-        <v>12.3222779044307</v>
+        <v>7.782417468867852</v>
       </c>
       <c r="I21" t="n">
-        <v>11.70567639233381</v>
+        <v>7.120944651724809</v>
       </c>
       <c r="J21" t="n">
-        <v>12.2954200976586</v>
+        <v>7.584783504284261</v>
       </c>
       <c r="K21" t="n">
-        <v>11.73444319607112</v>
+        <v>6.866416224640826</v>
       </c>
       <c r="L21" t="n">
-        <v>12.11928413740721</v>
+        <v>7.637365101251213</v>
       </c>
       <c r="M21" t="n">
-        <v>11.8250056064108</v>
+        <v>7.376216146993896</v>
       </c>
       <c r="N21" t="n">
-        <v>12.05762488773092</v>
+        <v>7.777358692501315</v>
       </c>
       <c r="O21" t="n">
-        <v>11.83150904294342</v>
+        <v>7.024900672549195</v>
       </c>
       <c r="P21" t="n">
-        <v>12.05214469160233</v>
+        <v>8.01846470429674</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.91772831614973</v>
+        <v>7.00855146688809</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12.01529789480683</v>
+        <v>7.219991604239156</v>
       </c>
       <c r="B22" t="n">
-        <v>12.06811084803866</v>
+        <v>7.262523872024841</v>
       </c>
       <c r="C22" t="n">
-        <v>11.97594258133803</v>
+        <v>7.242542330759576</v>
       </c>
       <c r="D22" t="n">
-        <v>12.14061554446419</v>
+        <v>7.380839429688061</v>
       </c>
       <c r="E22" t="n">
-        <v>11.91452899951205</v>
+        <v>7.32157874699914</v>
       </c>
       <c r="F22" t="n">
-        <v>12.250219467036</v>
+        <v>7.51873116701289</v>
       </c>
       <c r="G22" t="n">
-        <v>11.80807142849094</v>
+        <v>7.211673447685008</v>
       </c>
       <c r="H22" t="n">
-        <v>12.31607310083538</v>
+        <v>7.652871746047493</v>
       </c>
       <c r="I22" t="n">
-        <v>11.71630434415136</v>
+        <v>6.983577098689703</v>
       </c>
       <c r="J22" t="n">
-        <v>12.26593206720481</v>
+        <v>7.440887525870762</v>
       </c>
       <c r="K22" t="n">
-        <v>11.73881337920636</v>
+        <v>6.725859789088311</v>
       </c>
       <c r="L22" t="n">
-        <v>12.11058434013954</v>
+        <v>7.551882696425022</v>
       </c>
       <c r="M22" t="n">
-        <v>11.82612914240509</v>
+        <v>7.290949783415096</v>
       </c>
       <c r="N22" t="n">
-        <v>12.05990576722182</v>
+        <v>7.706716615782083</v>
       </c>
       <c r="O22" t="n">
-        <v>11.82616069607393</v>
+        <v>6.968756100589089</v>
       </c>
       <c r="P22" t="n">
-        <v>12.04695862074406</v>
+        <v>8.005938860184855</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.90264678935785</v>
+        <v>7.039972392202702</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12.00881812352585</v>
+        <v>7.100896023966934</v>
       </c>
       <c r="B23" t="n">
-        <v>12.06024271532843</v>
+        <v>7.145847385193798</v>
       </c>
       <c r="C23" t="n">
-        <v>11.96867396833589</v>
+        <v>7.11064403246105</v>
       </c>
       <c r="D23" t="n">
-        <v>12.14093671573638</v>
+        <v>7.246477692639681</v>
       </c>
       <c r="E23" t="n">
-        <v>11.91089243917749</v>
+        <v>7.156267964202818</v>
       </c>
       <c r="F23" t="n">
-        <v>12.24362587716382</v>
+        <v>7.380807023500953</v>
       </c>
       <c r="G23" t="n">
-        <v>11.82014859524193</v>
+        <v>7.065361787007919</v>
       </c>
       <c r="H23" t="n">
-        <v>12.30791760435531</v>
+        <v>7.540549058880976</v>
       </c>
       <c r="I23" t="n">
-        <v>11.72554844220664</v>
+        <v>6.906008625873199</v>
       </c>
       <c r="J23" t="n">
-        <v>12.25944553442336</v>
+        <v>7.346303530703832</v>
       </c>
       <c r="K23" t="n">
-        <v>11.75012424257108</v>
+        <v>6.646210497941675</v>
       </c>
       <c r="L23" t="n">
-        <v>12.10027079809371</v>
+        <v>7.468079159502897</v>
       </c>
       <c r="M23" t="n">
-        <v>11.83234070750087</v>
+        <v>7.201117558631569</v>
       </c>
       <c r="N23" t="n">
-        <v>12.06842300397689</v>
+        <v>7.665040553571584</v>
       </c>
       <c r="O23" t="n">
-        <v>11.8517293100903</v>
+        <v>6.893765340971718</v>
       </c>
       <c r="P23" t="n">
-        <v>12.06266558632915</v>
+        <v>7.956548988383306</v>
       </c>
       <c r="Q23" t="n">
-        <v>11.9208487486153</v>
+        <v>7.032176145819882</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12.01081389308039</v>
+        <v>6.916699824971056</v>
       </c>
       <c r="B24" t="n">
-        <v>12.0604241489243</v>
+        <v>6.964587073044044</v>
       </c>
       <c r="C24" t="n">
-        <v>11.97033617053406</v>
+        <v>6.931261005045203</v>
       </c>
       <c r="D24" t="n">
-        <v>12.14025718493943</v>
+        <v>7.098602575567</v>
       </c>
       <c r="E24" t="n">
-        <v>11.90654592129388</v>
+        <v>7.004668978260637</v>
       </c>
       <c r="F24" t="n">
-        <v>12.24882434410628</v>
+        <v>7.25403288247278</v>
       </c>
       <c r="G24" t="n">
-        <v>11.81431116650533</v>
+        <v>6.951728639117096</v>
       </c>
       <c r="H24" t="n">
-        <v>12.31202296205559</v>
+        <v>7.442020036830769</v>
       </c>
       <c r="I24" t="n">
-        <v>11.71259340731166</v>
+        <v>6.8211322735989</v>
       </c>
       <c r="J24" t="n">
-        <v>12.25391350012452</v>
+        <v>7.289543809718261</v>
       </c>
       <c r="K24" t="n">
-        <v>11.70964201235777</v>
+        <v>6.589277375428591</v>
       </c>
       <c r="L24" t="n">
-        <v>12.11171914530127</v>
+        <v>7.349664677689556</v>
       </c>
       <c r="M24" t="n">
-        <v>11.83289289670569</v>
+        <v>7.10040765704191</v>
       </c>
       <c r="N24" t="n">
-        <v>12.0493443034922</v>
+        <v>7.4751363174078</v>
       </c>
       <c r="O24" t="n">
-        <v>11.82841452956297</v>
+        <v>6.833878138665364</v>
       </c>
       <c r="P24" t="n">
-        <v>12.05339331535525</v>
+        <v>7.796058199522194</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.93063940129167</v>
+        <v>7.00616079992683</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12.00991010585129</v>
+        <v>6.834794039848382</v>
       </c>
       <c r="B25" t="n">
-        <v>12.05991816330601</v>
+        <v>6.874170968362963</v>
       </c>
       <c r="C25" t="n">
-        <v>11.9693196916305</v>
+        <v>6.839919334177932</v>
       </c>
       <c r="D25" t="n">
-        <v>12.14081162797774</v>
+        <v>6.987677902682941</v>
       </c>
       <c r="E25" t="n">
-        <v>11.90657409421249</v>
+        <v>6.899132828910185</v>
       </c>
       <c r="F25" t="n">
-        <v>12.24975968500423</v>
+        <v>7.159027606873438</v>
       </c>
       <c r="G25" t="n">
-        <v>11.81528369565585</v>
+        <v>6.843574979495624</v>
       </c>
       <c r="H25" t="n">
-        <v>12.31624777293078</v>
+        <v>7.349449773501362</v>
       </c>
       <c r="I25" t="n">
-        <v>11.71145972906668</v>
+        <v>6.759421228340888</v>
       </c>
       <c r="J25" t="n">
-        <v>12.2599627892091</v>
+        <v>7.279512673484142</v>
       </c>
       <c r="K25" t="n">
-        <v>11.70873033671145</v>
+        <v>6.546653005847967</v>
       </c>
       <c r="L25" t="n">
-        <v>12.1148361970166</v>
+        <v>7.256945459605368</v>
       </c>
       <c r="M25" t="n">
-        <v>11.83546226688319</v>
+        <v>7.007501392719851</v>
       </c>
       <c r="N25" t="n">
-        <v>12.05891069973641</v>
+        <v>7.286524917550771</v>
       </c>
       <c r="O25" t="n">
-        <v>11.83137155910059</v>
+        <v>6.740732523382379</v>
       </c>
       <c r="P25" t="n">
-        <v>12.06954653997117</v>
+        <v>7.61850754300198</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.93475490124265</v>
+        <v>6.965947564373008</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12.01716632276924</v>
+        <v>6.650610348503669</v>
       </c>
       <c r="B26" t="n">
-        <v>12.06583447621473</v>
+        <v>6.690940132625164</v>
       </c>
       <c r="C26" t="n">
-        <v>11.97428037913987</v>
+        <v>6.657830674403312</v>
       </c>
       <c r="D26" t="n">
-        <v>12.14204560181298</v>
+        <v>6.819965082333391</v>
       </c>
       <c r="E26" t="n">
-        <v>11.90573341432108</v>
+        <v>6.72133429348507</v>
       </c>
       <c r="F26" t="n">
-        <v>12.24652768778095</v>
+        <v>6.988032096622742</v>
       </c>
       <c r="G26" t="n">
-        <v>11.81059121433168</v>
+        <v>6.642978407174787</v>
       </c>
       <c r="H26" t="n">
-        <v>12.3148988535876</v>
+        <v>7.094822990796856</v>
       </c>
       <c r="I26" t="n">
-        <v>11.70649904155731</v>
+        <v>6.610774048073583</v>
       </c>
       <c r="J26" t="n">
-        <v>12.28212135315655</v>
+        <v>7.081976495991475</v>
       </c>
       <c r="K26" t="n">
-        <v>11.68582124621215</v>
+        <v>6.445595732673687</v>
       </c>
       <c r="L26" t="n">
-        <v>12.10787973995269</v>
+        <v>7.025493080390725</v>
       </c>
       <c r="M26" t="n">
-        <v>11.82804715470426</v>
+        <v>6.761249050999735</v>
       </c>
       <c r="N26" t="n">
-        <v>12.04689100573939</v>
+        <v>7.164185875919694</v>
       </c>
       <c r="O26" t="n">
-        <v>11.81816634868833</v>
+        <v>6.608553939991843</v>
       </c>
       <c r="P26" t="n">
-        <v>12.05264166188666</v>
+        <v>7.227137452761409</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.93177307953666</v>
+        <v>6.835118101719468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.01115872960422</v>
+        <v>6.560125451741182</v>
       </c>
       <c r="B27" t="n">
-        <v>12.06216636221133</v>
+        <v>6.602389373556424</v>
       </c>
       <c r="C27" t="n">
-        <v>11.96959015164919</v>
+        <v>6.564023859197391</v>
       </c>
       <c r="D27" t="n">
-        <v>12.14222590849211</v>
+        <v>6.733251242397071</v>
       </c>
       <c r="E27" t="n">
-        <v>11.91077073216908</v>
+        <v>6.620090542602517</v>
       </c>
       <c r="F27" t="n">
-        <v>12.24126724041755</v>
+        <v>6.881476005172766</v>
       </c>
       <c r="G27" t="n">
-        <v>11.82643115609262</v>
+        <v>6.573347744611103</v>
       </c>
       <c r="H27" t="n">
-        <v>12.3122562338217</v>
+        <v>6.994963040956801</v>
       </c>
       <c r="I27" t="n">
-        <v>11.73055307946904</v>
+        <v>6.55234114447993</v>
       </c>
       <c r="J27" t="n">
-        <v>12.2825631045204</v>
+        <v>6.979849818642611</v>
       </c>
       <c r="K27" t="n">
-        <v>11.73261308327802</v>
+        <v>6.429358527343466</v>
       </c>
       <c r="L27" t="n">
-        <v>12.09515234224011</v>
+        <v>6.888472330410641</v>
       </c>
       <c r="M27" t="n">
-        <v>11.83212772023616</v>
+        <v>6.668755539166111</v>
       </c>
       <c r="N27" t="n">
-        <v>12.0489442480479</v>
+        <v>6.826847701651586</v>
       </c>
       <c r="O27" t="n">
-        <v>11.83937717565364</v>
+        <v>6.515204222583034</v>
       </c>
       <c r="P27" t="n">
-        <v>12.06113974105707</v>
+        <v>6.889509896927716</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.90789145988684</v>
+        <v>6.759999422942458</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12.0090142070394</v>
+        <v>6.593939318135448</v>
       </c>
       <c r="B28" t="n">
-        <v>12.06062699393831</v>
+        <v>6.634273650493729</v>
       </c>
       <c r="C28" t="n">
-        <v>11.96787047669705</v>
+        <v>6.573606425578374</v>
       </c>
       <c r="D28" t="n">
-        <v>12.14022450435384</v>
+        <v>6.705773638376942</v>
       </c>
       <c r="E28" t="n">
-        <v>11.90477215433801</v>
+        <v>6.551090947893054</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23955432696588</v>
+        <v>6.79996079988419</v>
       </c>
       <c r="G28" t="n">
-        <v>11.81044471515489</v>
+        <v>6.480862192191857</v>
       </c>
       <c r="H28" t="n">
-        <v>12.32757328621319</v>
+        <v>6.897828622011462</v>
       </c>
       <c r="I28" t="n">
-        <v>11.71321321152115</v>
+        <v>6.427658055314661</v>
       </c>
       <c r="J28" t="n">
-        <v>12.28673044264163</v>
+        <v>6.874958381856742</v>
       </c>
       <c r="K28" t="n">
-        <v>11.69546314587825</v>
+        <v>6.268387899501307</v>
       </c>
       <c r="L28" t="n">
-        <v>12.11361123851531</v>
+        <v>6.776084830869906</v>
       </c>
       <c r="M28" t="n">
-        <v>11.83694303548548</v>
+        <v>6.554614694343919</v>
       </c>
       <c r="N28" t="n">
-        <v>12.0833963467613</v>
+        <v>6.731908944015256</v>
       </c>
       <c r="O28" t="n">
-        <v>11.82853623657138</v>
+        <v>6.392605362925488</v>
       </c>
       <c r="P28" t="n">
-        <v>12.10898073761209</v>
+        <v>6.771155110722205</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.92669068501888</v>
+        <v>6.616873802134786</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>12.00996983243875</v>
+        <v>6.514769297440259</v>
       </c>
       <c r="B29" t="n">
-        <v>12.06066305527414</v>
+        <v>6.546671767324714</v>
       </c>
       <c r="C29" t="n">
-        <v>11.96892752460341</v>
+        <v>6.49051241359505</v>
       </c>
       <c r="D29" t="n">
-        <v>12.14169625762218</v>
+        <v>6.587307420370146</v>
       </c>
       <c r="E29" t="n">
-        <v>11.91209485934389</v>
+        <v>6.448479883326356</v>
       </c>
       <c r="F29" t="n">
-        <v>12.23899086859362</v>
+        <v>6.661642665360564</v>
       </c>
       <c r="G29" t="n">
-        <v>11.82819365388104</v>
+        <v>6.383712991476959</v>
       </c>
       <c r="H29" t="n">
-        <v>12.31181560937459</v>
+        <v>6.78411019468088</v>
       </c>
       <c r="I29" t="n">
-        <v>11.74405354206837</v>
+        <v>6.286679770800135</v>
       </c>
       <c r="J29" t="n">
-        <v>12.28537250796448</v>
+        <v>6.758369448583853</v>
       </c>
       <c r="K29" t="n">
-        <v>11.74315426250624</v>
+        <v>6.134139299843008</v>
       </c>
       <c r="L29" t="n">
-        <v>12.10947883481316</v>
+        <v>6.647553933382686</v>
       </c>
       <c r="M29" t="n">
-        <v>11.84423982140623</v>
+        <v>6.446403044703411</v>
       </c>
       <c r="N29" t="n">
-        <v>12.08480048502497</v>
+        <v>6.659804040639348</v>
       </c>
       <c r="O29" t="n">
-        <v>11.82897122643476</v>
+        <v>6.253662414373224</v>
       </c>
       <c r="P29" t="n">
-        <v>12.09752224815383</v>
+        <v>6.714749015146837</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.86168223877788</v>
+        <v>6.326622386265121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>12.41641714851749</v>
+        <v>6.264086973089433</v>
       </c>
       <c r="B30" t="n">
-        <v>12.5033858213589</v>
+        <v>6.307967224552917</v>
       </c>
       <c r="C30" t="n">
-        <v>12.40015461297735</v>
+        <v>6.255878542747776</v>
       </c>
       <c r="D30" t="n">
-        <v>12.69118987758303</v>
+        <v>6.402720073010571</v>
       </c>
       <c r="E30" t="n">
-        <v>12.40963649046572</v>
+        <v>6.260656465492705</v>
       </c>
       <c r="F30" t="n">
-        <v>12.95224464911757</v>
+        <v>6.534391527999336</v>
       </c>
       <c r="G30" t="n">
-        <v>12.34332082080108</v>
+        <v>6.227236021580531</v>
       </c>
       <c r="H30" t="n">
-        <v>13.20516420867343</v>
+        <v>6.662008229892334</v>
       </c>
       <c r="I30" t="n">
-        <v>12.09637842765814</v>
+        <v>6.102809339264139</v>
       </c>
       <c r="J30" t="n">
-        <v>13.12687054093131</v>
+        <v>6.622511341632491</v>
       </c>
       <c r="K30" t="n">
-        <v>11.83641113078207</v>
+        <v>5.971666616801883</v>
       </c>
       <c r="L30" t="n">
-        <v>12.91149984730278</v>
+        <v>6.513865903908407</v>
       </c>
       <c r="M30" t="n">
-        <v>12.43763248314978</v>
+        <v>6.274806030137612</v>
       </c>
       <c r="N30" t="n">
-        <v>13.08955156601985</v>
+        <v>6.60375611871097</v>
       </c>
       <c r="O30" t="n">
-        <v>11.97985072860802</v>
+        <v>6.043877835212691</v>
       </c>
       <c r="P30" t="n">
-        <v>13.37028005008018</v>
+        <v>6.745528070544858</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.90301529113331</v>
+        <v>6.005048969230965</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>12.35741967619174</v>
+        <v>6.234065767646075</v>
       </c>
       <c r="B31" t="n">
-        <v>12.41535671986089</v>
+        <v>6.263355275496296</v>
       </c>
       <c r="C31" t="n">
-        <v>12.29937219468163</v>
+        <v>6.204809803042159</v>
       </c>
       <c r="D31" t="n">
-        <v>12.47256690222983</v>
+        <v>6.292408843563183</v>
       </c>
       <c r="E31" t="n">
-        <v>12.15139563004225</v>
+        <v>6.130325034767361</v>
       </c>
       <c r="F31" t="n">
-        <v>12.57150793856501</v>
+        <v>6.342405904975821</v>
       </c>
       <c r="G31" t="n">
-        <v>11.96170173443756</v>
+        <v>6.034686417195405</v>
       </c>
       <c r="H31" t="n">
-        <v>12.87853189794191</v>
+        <v>6.497245509628866</v>
       </c>
       <c r="I31" t="n">
-        <v>11.73581578066594</v>
+        <v>5.920830405702011</v>
       </c>
       <c r="J31" t="n">
-        <v>12.72940249747289</v>
+        <v>6.421982424333863</v>
       </c>
       <c r="K31" t="n">
-        <v>11.34561635020966</v>
+        <v>5.724165784083687</v>
       </c>
       <c r="L31" t="n">
-        <v>12.61829076029692</v>
+        <v>6.365969182710987</v>
       </c>
       <c r="M31" t="n">
-        <v>12.12327342268281</v>
+        <v>6.116184566596029</v>
       </c>
       <c r="N31" t="n">
-        <v>12.92551531085435</v>
+        <v>6.520895203862988</v>
       </c>
       <c r="O31" t="n">
-        <v>11.65724714523816</v>
+        <v>5.881164095621846</v>
       </c>
       <c r="P31" t="n">
-        <v>13.27738154132911</v>
+        <v>6.698497596576656</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.64974187971967</v>
+        <v>5.877326520832666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.74828286061054</v>
+        <v>5.927011459495784</v>
       </c>
       <c r="B32" t="n">
-        <v>11.82025677924941</v>
+        <v>5.963327424652594</v>
       </c>
       <c r="C32" t="n">
-        <v>11.76028114318942</v>
+        <v>5.933073690603492</v>
       </c>
       <c r="D32" t="n">
-        <v>12.00495730675913</v>
+        <v>6.056521933481042</v>
       </c>
       <c r="E32" t="n">
-        <v>11.8584299570532</v>
+        <v>5.982617065396609</v>
       </c>
       <c r="F32" t="n">
-        <v>12.30466983029761</v>
+        <v>6.207783781371375</v>
       </c>
       <c r="G32" t="n">
-        <v>11.724497028884</v>
+        <v>5.915014916440007</v>
       </c>
       <c r="H32" t="n">
-        <v>12.63327199149854</v>
+        <v>6.373543134020832</v>
       </c>
       <c r="I32" t="n">
-        <v>11.280641711471</v>
+        <v>5.691000041431595</v>
       </c>
       <c r="J32" t="n">
-        <v>12.59478102317279</v>
+        <v>6.354161960011476</v>
       </c>
       <c r="K32" t="n">
-        <v>10.6924396282527</v>
+        <v>5.394478881150806</v>
       </c>
       <c r="L32" t="n">
-        <v>12.45899657079235</v>
+        <v>6.285623442806314</v>
       </c>
       <c r="M32" t="n">
-        <v>11.96876074092522</v>
+        <v>6.038249960718158</v>
       </c>
       <c r="N32" t="n">
-        <v>12.80328992074394</v>
+        <v>6.45932117423819</v>
       </c>
       <c r="O32" t="n">
-        <v>11.38034228969198</v>
+        <v>5.741381428852749</v>
       </c>
       <c r="P32" t="n">
-        <v>13.38112211607919</v>
+        <v>6.750894989953727</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.09515234224011</v>
+        <v>5.597518425155957</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12.02315025068263</v>
+        <v>6.065674122956039</v>
       </c>
       <c r="B33" t="n">
-        <v>12.07438552047213</v>
+        <v>6.091530849091138</v>
       </c>
       <c r="C33" t="n">
-        <v>11.98370591079102</v>
+        <v>6.045771038775353</v>
       </c>
       <c r="D33" t="n">
-        <v>12.14433887738808</v>
+        <v>6.126835968621998</v>
       </c>
       <c r="E33" t="n">
-        <v>11.91680086366899</v>
+        <v>6.012015730929723</v>
       </c>
       <c r="F33" t="n">
-        <v>12.24908578879101</v>
+        <v>6.179675109497024</v>
       </c>
       <c r="G33" t="n">
-        <v>11.8042962573968</v>
+        <v>5.955261126710536</v>
       </c>
       <c r="H33" t="n">
-        <v>12.32416999764474</v>
+        <v>6.217529515747097</v>
       </c>
       <c r="I33" t="n">
-        <v>11.7112072997159</v>
+        <v>5.908314795122897</v>
       </c>
       <c r="J33" t="n">
-        <v>12.29846502670229</v>
+        <v>6.204499385881435</v>
       </c>
       <c r="K33" t="n">
-        <v>11.75598533655932</v>
+        <v>5.930915552247977</v>
       </c>
       <c r="L33" t="n">
-        <v>12.12165967790466</v>
+        <v>6.115389193687871</v>
       </c>
       <c r="M33" t="n">
-        <v>11.83610686326105</v>
+        <v>5.971318108158066</v>
       </c>
       <c r="N33" t="n">
-        <v>12.05399058122985</v>
+        <v>6.081231366886576</v>
       </c>
       <c r="O33" t="n">
-        <v>11.83953832474811</v>
+        <v>5.973073727557916</v>
       </c>
       <c r="P33" t="n">
-        <v>12.04944910674944</v>
+        <v>6.078919157009896</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.92384634715572</v>
+        <v>6.015594056222034</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12.02122209613276</v>
+        <v>6.064698526165189</v>
       </c>
       <c r="B34" t="n">
-        <v>12.07035566619374</v>
+        <v>6.089493807540081</v>
       </c>
       <c r="C34" t="n">
-        <v>11.97921063989713</v>
+        <v>6.043506016855339</v>
       </c>
       <c r="D34" t="n">
-        <v>12.14482345158822</v>
+        <v>6.127074751053326</v>
       </c>
       <c r="E34" t="n">
-        <v>11.91686960559041</v>
+        <v>6.012061781827193</v>
       </c>
       <c r="F34" t="n">
-        <v>12.2375856034132</v>
+        <v>6.173885772596546</v>
       </c>
       <c r="G34" t="n">
-        <v>11.82309210177861</v>
+        <v>5.964728281583045</v>
       </c>
       <c r="H34" t="n">
-        <v>12.31197337771883</v>
+        <v>6.211407589031557</v>
       </c>
       <c r="I34" t="n">
-        <v>11.73338051358104</v>
+        <v>5.919442056422725</v>
       </c>
       <c r="J34" t="n">
-        <v>12.27793373053392</v>
+        <v>6.194215822505628</v>
       </c>
       <c r="K34" t="n">
-        <v>11.76754074085761</v>
+        <v>5.93669579267488</v>
       </c>
       <c r="L34" t="n">
-        <v>12.11738302885921</v>
+        <v>6.113178182079706</v>
       </c>
       <c r="M34" t="n">
-        <v>11.85349856937919</v>
+        <v>5.980029687194304</v>
       </c>
       <c r="N34" t="n">
-        <v>12.0738276966836</v>
+        <v>6.091206787220051</v>
       </c>
       <c r="O34" t="n">
-        <v>11.86003355958065</v>
+        <v>5.983365818877698</v>
       </c>
       <c r="P34" t="n">
-        <v>12.06533863284714</v>
+        <v>6.08688368815384</v>
       </c>
       <c r="Q34" t="n">
-        <v>11.91733164145566</v>
+        <v>6.012271569249002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12.01617688986755</v>
+        <v>6.06220097563943</v>
       </c>
       <c r="B35" t="n">
-        <v>12.06571953070679</v>
+        <v>6.087196379432958</v>
       </c>
       <c r="C35" t="n">
-        <v>11.97606090759621</v>
+        <v>6.041960753406896</v>
       </c>
       <c r="D35" t="n">
-        <v>12.14232395024888</v>
+        <v>6.125835925058418</v>
       </c>
       <c r="E35" t="n">
-        <v>11.91825007860244</v>
+        <v>6.012788362653945</v>
       </c>
       <c r="F35" t="n">
-        <v>12.23842853713811</v>
+        <v>6.174300230673778</v>
       </c>
       <c r="G35" t="n">
-        <v>11.826455948261</v>
+        <v>5.966462296858156</v>
       </c>
       <c r="H35" t="n">
-        <v>12.31214466906399</v>
+        <v>6.211479223760955</v>
       </c>
       <c r="I35" t="n">
-        <v>11.73552278231237</v>
+        <v>5.920589349152291</v>
       </c>
       <c r="J35" t="n">
-        <v>12.27728349957233</v>
+        <v>6.193851963562654</v>
       </c>
       <c r="K35" t="n">
-        <v>11.76123789550552</v>
+        <v>5.93359218959723</v>
       </c>
       <c r="L35" t="n">
-        <v>12.1147652012617</v>
+        <v>6.111905244308894</v>
       </c>
       <c r="M35" t="n">
-        <v>11.85223416879184</v>
+        <v>5.979461157595908</v>
       </c>
       <c r="N35" t="n">
-        <v>12.07356287124863</v>
+        <v>6.091120370721095</v>
       </c>
       <c r="O35" t="n">
-        <v>11.8588525508324</v>
+        <v>5.98278023339135</v>
       </c>
       <c r="P35" t="n">
-        <v>12.07067458363244</v>
+        <v>6.089619452581327</v>
       </c>
       <c r="Q35" t="n">
-        <v>11.92184494301745</v>
+        <v>6.014520103810662</v>
       </c>
     </row>
   </sheetData>
@@ -6113,1804 +6113,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.595174317116625</v>
+        <v>2.76972383745824</v>
       </c>
       <c r="B2" t="n">
-        <v>4.545759017869519</v>
+        <v>2.744175822895071</v>
       </c>
       <c r="C2" t="n">
-        <v>4.540983144706252</v>
+        <v>2.737244025766614</v>
       </c>
       <c r="D2" t="n">
-        <v>4.548195975329539</v>
+        <v>2.794632256223214</v>
       </c>
       <c r="E2" t="n">
-        <v>4.539808897458465</v>
+        <v>2.779837979013725</v>
       </c>
       <c r="F2" t="n">
-        <v>4.821524560586989</v>
+        <v>3.056985640434735</v>
       </c>
       <c r="G2" t="n">
-        <v>4.778822304386974</v>
+        <v>3.014746449657024</v>
       </c>
       <c r="H2" t="n">
-        <v>5.181096084302387</v>
+        <v>3.389708207158256</v>
       </c>
       <c r="I2" t="n">
-        <v>5.050303309641787</v>
+        <v>3.274505349046259</v>
       </c>
       <c r="J2" t="n">
-        <v>5.486479252899275</v>
+        <v>3.644680371593788</v>
       </c>
       <c r="K2" t="n">
-        <v>5.165616192441319</v>
+        <v>3.367006251764662</v>
       </c>
       <c r="L2" t="n">
-        <v>5.447001668963699</v>
+        <v>3.533568083942258</v>
       </c>
       <c r="M2" t="n">
-        <v>5.43129752067047</v>
+        <v>3.498760143545196</v>
       </c>
       <c r="N2" t="n">
-        <v>5.999165518150685</v>
+        <v>3.87556592679883</v>
       </c>
       <c r="O2" t="n">
-        <v>6.004810244123974</v>
+        <v>3.802569853277435</v>
       </c>
       <c r="P2" t="n">
-        <v>6.492555024527343</v>
+        <v>4.217575993041766</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.55629061830541</v>
+        <v>4.194747539812528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.605002721503938</v>
+        <v>2.794272945517027</v>
       </c>
       <c r="B3" t="n">
-        <v>4.55402833294079</v>
+        <v>2.761873580763574</v>
       </c>
       <c r="C3" t="n">
-        <v>4.550791264592164</v>
+        <v>2.759344761109904</v>
       </c>
       <c r="D3" t="n">
-        <v>4.552048340220673</v>
+        <v>2.803818273209315</v>
       </c>
       <c r="E3" t="n">
-        <v>4.546937772784284</v>
+        <v>2.794044396618471</v>
       </c>
       <c r="F3" t="n">
-        <v>4.822721346169667</v>
+        <v>3.07188424282553</v>
       </c>
       <c r="G3" t="n">
-        <v>4.785989494882108</v>
+        <v>3.025415476100544</v>
       </c>
       <c r="H3" t="n">
-        <v>5.184907316732347</v>
+        <v>3.409417422745888</v>
       </c>
       <c r="I3" t="n">
-        <v>5.069118875066629</v>
+        <v>3.262578735131085</v>
       </c>
       <c r="J3" t="n">
-        <v>5.493613762808818</v>
+        <v>3.654196704276558</v>
       </c>
       <c r="K3" t="n">
-        <v>5.156021059820121</v>
+        <v>3.391192069410073</v>
       </c>
       <c r="L3" t="n">
-        <v>5.450694011677111</v>
+        <v>3.526572611498781</v>
       </c>
       <c r="M3" t="n">
-        <v>5.437592477605347</v>
+        <v>3.500849489819305</v>
       </c>
       <c r="N3" t="n">
-        <v>6.004933078049127</v>
+        <v>3.851647033799866</v>
       </c>
       <c r="O3" t="n">
-        <v>6.004211287874263</v>
+        <v>3.821368284448434</v>
       </c>
       <c r="P3" t="n">
-        <v>6.504184805330767</v>
+        <v>4.210180275761018</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.544797757886445</v>
+        <v>4.218045029960444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.6026311252151</v>
+        <v>2.759746995800769</v>
       </c>
       <c r="B4" t="n">
-        <v>4.549983828744717</v>
+        <v>2.732625575574036</v>
       </c>
       <c r="C4" t="n">
-        <v>4.548079902904854</v>
+        <v>2.723227781312532</v>
       </c>
       <c r="D4" t="n">
-        <v>4.572338476205716</v>
+        <v>2.78812884614715</v>
       </c>
       <c r="E4" t="n">
-        <v>4.569591616640954</v>
+        <v>2.772218545336007</v>
       </c>
       <c r="F4" t="n">
-        <v>4.826846988371346</v>
+        <v>3.072264020597259</v>
       </c>
       <c r="G4" t="n">
-        <v>4.814743339076852</v>
+        <v>3.014478387951379</v>
       </c>
       <c r="H4" t="n">
-        <v>5.192138178023546</v>
+        <v>3.427750228175801</v>
       </c>
       <c r="I4" t="n">
-        <v>5.103010896158003</v>
+        <v>3.243956548135589</v>
       </c>
       <c r="J4" t="n">
-        <v>5.484308247790961</v>
+        <v>3.678664796867572</v>
       </c>
       <c r="K4" t="n">
-        <v>5.187500915619855</v>
+        <v>3.399196681890705</v>
       </c>
       <c r="L4" t="n">
-        <v>5.447443983785922</v>
+        <v>3.548101406066083</v>
       </c>
       <c r="M4" t="n">
-        <v>5.441747983100757</v>
+        <v>3.512203025899295</v>
       </c>
       <c r="N4" t="n">
-        <v>6.00194055063406</v>
+        <v>3.852932194957043</v>
       </c>
       <c r="O4" t="n">
-        <v>6.003794892137164</v>
+        <v>3.818044944681004</v>
       </c>
       <c r="P4" t="n">
-        <v>6.547580115328659</v>
+        <v>4.222982425257723</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.554242447122249</v>
+        <v>4.226382800785736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.601658032606209</v>
+        <v>2.777636916673531</v>
       </c>
       <c r="B5" t="n">
-        <v>4.551032988233862</v>
+        <v>2.745615624103011</v>
       </c>
       <c r="C5" t="n">
-        <v>4.547375016481157</v>
+        <v>2.737521752475431</v>
       </c>
       <c r="D5" t="n">
-        <v>4.548993832384657</v>
+        <v>2.785125872808416</v>
       </c>
       <c r="E5" t="n">
-        <v>4.542569280024161</v>
+        <v>2.768635387542109</v>
       </c>
       <c r="F5" t="n">
-        <v>4.817561757854891</v>
+        <v>3.062735748792923</v>
       </c>
       <c r="G5" t="n">
-        <v>4.781371953521446</v>
+        <v>3.005180939163993</v>
       </c>
       <c r="H5" t="n">
-        <v>5.173927203432138</v>
+        <v>3.414396036439052</v>
       </c>
       <c r="I5" t="n">
-        <v>5.068564995486699</v>
+        <v>3.235175039958747</v>
       </c>
       <c r="J5" t="n">
-        <v>5.458612292182466</v>
+        <v>3.65839529536072</v>
       </c>
       <c r="K5" t="n">
-        <v>5.160217134318334</v>
+        <v>3.407750778228187</v>
       </c>
       <c r="L5" t="n">
-        <v>5.434718839906827</v>
+        <v>3.520584857768463</v>
       </c>
       <c r="M5" t="n">
-        <v>5.420835225614367</v>
+        <v>3.48916791216104</v>
       </c>
       <c r="N5" t="n">
-        <v>5.998180029457604</v>
+        <v>3.828245502735445</v>
       </c>
       <c r="O5" t="n">
-        <v>5.997332588065726</v>
+        <v>3.81051619147423</v>
       </c>
       <c r="P5" t="n">
-        <v>6.52257157893432</v>
+        <v>4.210650734003691</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.548748727992725</v>
+        <v>4.223599279871984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.600593659741012</v>
+        <v>2.726244967891225</v>
       </c>
       <c r="B6" t="n">
-        <v>4.550163571965467</v>
+        <v>2.70070235435924</v>
       </c>
       <c r="C6" t="n">
-        <v>4.545803531080927</v>
+        <v>2.690048393950077</v>
       </c>
       <c r="D6" t="n">
-        <v>4.550956357895235</v>
+        <v>2.764519233249715</v>
       </c>
       <c r="E6" t="n">
-        <v>4.543253318488083</v>
+        <v>2.740901660937902</v>
       </c>
       <c r="F6" t="n">
-        <v>4.824163799602649</v>
+        <v>3.049761050563104</v>
       </c>
       <c r="G6" t="n">
-        <v>4.787699027583541</v>
+        <v>2.995198696475337</v>
       </c>
       <c r="H6" t="n">
-        <v>5.184203557225396</v>
+        <v>3.406815262774025</v>
       </c>
       <c r="I6" t="n">
-        <v>5.079161957093772</v>
+        <v>3.230299330122894</v>
       </c>
       <c r="J6" t="n">
-        <v>5.48244207366204</v>
+        <v>3.63728437004824</v>
       </c>
       <c r="K6" t="n">
-        <v>5.166929613907054</v>
+        <v>3.422236628130546</v>
       </c>
       <c r="L6" t="n">
-        <v>5.437301733085262</v>
+        <v>3.520974300543365</v>
       </c>
       <c r="M6" t="n">
-        <v>5.42296622517825</v>
+        <v>3.492507455022024</v>
       </c>
       <c r="N6" t="n">
-        <v>6.000107620549102</v>
+        <v>3.810686181824151</v>
       </c>
       <c r="O6" t="n">
-        <v>6.000001690375117</v>
+        <v>3.810545755013347</v>
       </c>
       <c r="P6" t="n">
-        <v>6.520381979699722</v>
+        <v>4.183256419569727</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.547020601165007</v>
+        <v>4.219590861938485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.600364332183503</v>
+        <v>2.706328523264977</v>
       </c>
       <c r="B7" t="n">
-        <v>4.54977534914698</v>
+        <v>2.67860900990073</v>
       </c>
       <c r="C7" t="n">
-        <v>4.545363470092193</v>
+        <v>2.668299862692995</v>
       </c>
       <c r="D7" t="n">
-        <v>4.550391772606232</v>
+        <v>2.740374065470589</v>
       </c>
       <c r="E7" t="n">
-        <v>4.542550685897877</v>
+        <v>2.71973814663757</v>
       </c>
       <c r="F7" t="n">
-        <v>4.822485820570062</v>
+        <v>3.038001868614657</v>
       </c>
       <c r="G7" t="n">
-        <v>4.786751290601401</v>
+        <v>2.98447565971997</v>
       </c>
       <c r="H7" t="n">
-        <v>5.178053972550562</v>
+        <v>3.394454576510475</v>
       </c>
       <c r="I7" t="n">
-        <v>5.077541450815155</v>
+        <v>3.228690959889029</v>
       </c>
       <c r="J7" t="n">
-        <v>5.47792989901699</v>
+        <v>3.628886335085518</v>
       </c>
       <c r="K7" t="n">
-        <v>5.174762812198198</v>
+        <v>3.431395355695924</v>
       </c>
       <c r="L7" t="n">
-        <v>5.437915902711024</v>
+        <v>3.52688871395549</v>
       </c>
       <c r="M7" t="n">
-        <v>5.423276690741365</v>
+        <v>3.50001773101685</v>
       </c>
       <c r="N7" t="n">
-        <v>6.004183678414022</v>
+        <v>3.816959905942463</v>
       </c>
       <c r="O7" t="n">
-        <v>6.002314686993239</v>
+        <v>3.805117434407852</v>
       </c>
       <c r="P7" t="n">
-        <v>6.529841882311577</v>
+        <v>4.125408532932823</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.551434734053283</v>
+        <v>4.211889844263398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.598597326728099</v>
+        <v>2.738996802518472</v>
       </c>
       <c r="B8" t="n">
-        <v>4.547940728686905</v>
+        <v>2.711027704660529</v>
       </c>
       <c r="C8" t="n">
-        <v>4.543505184380483</v>
+        <v>2.700903329572273</v>
       </c>
       <c r="D8" t="n">
-        <v>4.549538696630631</v>
+        <v>2.751677002416322</v>
       </c>
       <c r="E8" t="n">
-        <v>4.541875099309538</v>
+        <v>2.733773436833199</v>
       </c>
       <c r="F8" t="n">
-        <v>4.824719369557696</v>
+        <v>3.036754798940573</v>
       </c>
       <c r="G8" t="n">
-        <v>4.788089504235517</v>
+        <v>2.967275080985265</v>
       </c>
       <c r="H8" t="n">
-        <v>5.183817588240398</v>
+        <v>3.374062841139967</v>
       </c>
       <c r="I8" t="n">
-        <v>5.079585114331338</v>
+        <v>3.226428212087408</v>
       </c>
       <c r="J8" t="n">
-        <v>5.48667759024631</v>
+        <v>3.599629233422405</v>
       </c>
       <c r="K8" t="n">
-        <v>5.170688444708393</v>
+        <v>3.432071053123619</v>
       </c>
       <c r="L8" t="n">
-        <v>5.443328483834943</v>
+        <v>3.527331882777441</v>
       </c>
       <c r="M8" t="n">
-        <v>5.427948324105763</v>
+        <v>3.486079090852948</v>
       </c>
       <c r="N8" t="n">
-        <v>6.009951238312465</v>
+        <v>3.892819663050984</v>
       </c>
       <c r="O8" t="n">
-        <v>6.006603732122874</v>
+        <v>3.791150936293629</v>
       </c>
       <c r="P8" t="n">
-        <v>6.533321237760275</v>
+        <v>4.056992533856115</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.553916204724711</v>
+        <v>4.19536439442679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.597374058601924</v>
+        <v>2.708252143161154</v>
       </c>
       <c r="B9" t="n">
-        <v>4.546452071667397</v>
+        <v>2.679341276023465</v>
       </c>
       <c r="C9" t="n">
-        <v>4.542230641542433</v>
+        <v>2.669814425543125</v>
       </c>
       <c r="D9" t="n">
-        <v>4.546924813241723</v>
+        <v>2.733063059100002</v>
       </c>
       <c r="E9" t="n">
-        <v>4.539809460916837</v>
+        <v>2.717022849275626</v>
       </c>
       <c r="F9" t="n">
-        <v>4.819369332313098</v>
+        <v>3.028160052736805</v>
       </c>
       <c r="G9" t="n">
-        <v>4.78346069370741</v>
+        <v>2.970935843069344</v>
       </c>
       <c r="H9" t="n">
-        <v>5.177612784645083</v>
+        <v>3.379809254055766</v>
       </c>
       <c r="I9" t="n">
-        <v>5.073884605979194</v>
+        <v>3.237428691286794</v>
       </c>
       <c r="J9" t="n">
-        <v>5.488522916415458</v>
+        <v>3.617819053658321</v>
       </c>
       <c r="K9" t="n">
-        <v>5.169260641193089</v>
+        <v>3.44647446623421</v>
       </c>
       <c r="L9" t="n">
-        <v>5.443034358564623</v>
+        <v>3.498450863443668</v>
       </c>
       <c r="M9" t="n">
-        <v>5.427265976016958</v>
+        <v>3.462015222806394</v>
       </c>
       <c r="N9" t="n">
-        <v>6.013876852791992</v>
+        <v>3.847899002422434</v>
       </c>
       <c r="O9" t="n">
-        <v>6.007165500120017</v>
+        <v>3.772145276084014</v>
       </c>
       <c r="P9" t="n">
-        <v>6.54410301371345</v>
+        <v>4.021949506470116</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.5549360643785</v>
+        <v>4.149548583945562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.595632408773272</v>
+        <v>2.763900388781859</v>
       </c>
       <c r="B10" t="n">
-        <v>4.54507328903048</v>
+        <v>2.732095705988329</v>
       </c>
       <c r="C10" t="n">
-        <v>4.540504205089833</v>
+        <v>2.725426285269533</v>
       </c>
       <c r="D10" t="n">
-        <v>4.545577584273651</v>
+        <v>2.767686795907184</v>
       </c>
       <c r="E10" t="n">
-        <v>4.538021607501659</v>
+        <v>2.753252113668681</v>
       </c>
       <c r="F10" t="n">
-        <v>4.819216071635844</v>
+        <v>3.05874666086577</v>
       </c>
       <c r="G10" t="n">
-        <v>4.780456333666525</v>
+        <v>2.987439404516413</v>
       </c>
       <c r="H10" t="n">
-        <v>5.182235960589468</v>
+        <v>3.395747697082029</v>
       </c>
       <c r="I10" t="n">
-        <v>5.068128315248198</v>
+        <v>3.260860922949529</v>
       </c>
       <c r="J10" t="n">
-        <v>5.492470505771504</v>
+        <v>3.621891431171639</v>
       </c>
       <c r="K10" t="n">
-        <v>5.167557306533751</v>
+        <v>3.486321568726665</v>
       </c>
       <c r="L10" t="n">
-        <v>5.44098562392309</v>
+        <v>3.50837397905409</v>
       </c>
       <c r="M10" t="n">
-        <v>5.423912271785273</v>
+        <v>3.463685562766485</v>
       </c>
       <c r="N10" t="n">
-        <v>6.011998282578881</v>
+        <v>3.871884981914008</v>
       </c>
       <c r="O10" t="n">
-        <v>6.006084786962024</v>
+        <v>3.764977254907423</v>
       </c>
       <c r="P10" t="n">
-        <v>6.543753669522649</v>
+        <v>4.033056869234</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.555327104488847</v>
+        <v>4.11930565195883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.591673550249781</v>
+        <v>2.726277942607932</v>
       </c>
       <c r="B11" t="n">
-        <v>4.541823261139291</v>
+        <v>2.696482443415138</v>
       </c>
       <c r="C11" t="n">
-        <v>4.53678199908269</v>
+        <v>2.687528102240383</v>
       </c>
       <c r="D11" t="n">
-        <v>4.543901295616181</v>
+        <v>2.754699874290999</v>
       </c>
       <c r="E11" t="n">
-        <v>4.535314190022955</v>
+        <v>2.734860181160535</v>
       </c>
       <c r="F11" t="n">
-        <v>4.817063097195442</v>
+        <v>3.061982731339846</v>
       </c>
       <c r="G11" t="n">
-        <v>4.779728345449566</v>
+        <v>2.998915458724858</v>
       </c>
       <c r="H11" t="n">
-        <v>5.177702374526272</v>
+        <v>3.407122553021959</v>
       </c>
       <c r="I11" t="n">
-        <v>5.070597953293809</v>
+        <v>3.264887533830176</v>
       </c>
       <c r="J11" t="n">
-        <v>5.483407277853719</v>
+        <v>3.633011585851487</v>
       </c>
       <c r="K11" t="n">
-        <v>5.168283604375592</v>
+        <v>3.503168806315966</v>
       </c>
       <c r="L11" t="n">
-        <v>5.438068036471534</v>
+        <v>3.541724209560863</v>
       </c>
       <c r="M11" t="n">
-        <v>5.421804374014652</v>
+        <v>3.495166752218527</v>
       </c>
       <c r="N11" t="n">
-        <v>6.008774737231188</v>
+        <v>3.885844657673049</v>
       </c>
       <c r="O11" t="n">
-        <v>6.003886735851842</v>
+        <v>3.781746319676945</v>
       </c>
       <c r="P11" t="n">
-        <v>6.54183058609813</v>
+        <v>4.181788191881866</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.551751397658492</v>
+        <v>4.137361583474322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.591638615830701</v>
+        <v>2.72772570323025</v>
       </c>
       <c r="B12" t="n">
-        <v>4.541435601779176</v>
+        <v>2.699175568122744</v>
       </c>
       <c r="C12" t="n">
-        <v>4.536674941991961</v>
+        <v>2.689371275198387</v>
       </c>
       <c r="D12" t="n">
-        <v>4.542756348203751</v>
+        <v>2.760548054004911</v>
       </c>
       <c r="E12" t="n">
-        <v>4.534950759372848</v>
+        <v>2.741366149619792</v>
       </c>
       <c r="F12" t="n">
-        <v>4.817212977122463</v>
+        <v>3.067648697317471</v>
       </c>
       <c r="G12" t="n">
-        <v>4.780190381314819</v>
+        <v>3.000682732981475</v>
       </c>
       <c r="H12" t="n">
-        <v>5.180644190687836</v>
+        <v>3.39889678252755</v>
       </c>
       <c r="I12" t="n">
-        <v>5.07436241867887</v>
+        <v>3.264137643289891</v>
       </c>
       <c r="J12" t="n">
-        <v>5.488830001228339</v>
+        <v>3.635313562195397</v>
       </c>
       <c r="K12" t="n">
-        <v>5.167127387795717</v>
+        <v>3.50933536260498</v>
       </c>
       <c r="L12" t="n">
-        <v>5.439958439310463</v>
+        <v>3.54861308270464</v>
       </c>
       <c r="M12" t="n">
-        <v>5.423739853523362</v>
+        <v>3.498835189452184</v>
       </c>
       <c r="N12" t="n">
-        <v>6.013948412005269</v>
+        <v>3.876302741158352</v>
       </c>
       <c r="O12" t="n">
-        <v>6.008197755857995</v>
+        <v>3.788675558422208</v>
       </c>
       <c r="P12" t="n">
-        <v>6.54613090039521</v>
+        <v>4.213718803981441</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.556492336402679</v>
+        <v>4.204873336224781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.601241636869109</v>
+        <v>2.872089297238432</v>
       </c>
       <c r="B13" t="n">
-        <v>4.550276263639918</v>
+        <v>2.833650442561206</v>
       </c>
       <c r="C13" t="n">
-        <v>4.545867201876993</v>
+        <v>2.82565776920214</v>
       </c>
       <c r="D13" t="n">
-        <v>4.548818596830885</v>
+        <v>2.83101019110625</v>
       </c>
       <c r="E13" t="n">
-        <v>4.541796778595794</v>
+        <v>2.812225404645612</v>
       </c>
       <c r="F13" t="n">
-        <v>4.82029509441872</v>
+        <v>3.088315885278402</v>
       </c>
       <c r="G13" t="n">
-        <v>4.786501115084119</v>
+        <v>3.035619161067775</v>
       </c>
       <c r="H13" t="n">
-        <v>5.180018188436256</v>
+        <v>3.413726592836939</v>
       </c>
       <c r="I13" t="n">
-        <v>5.08533013589489</v>
+        <v>3.286563861828262</v>
       </c>
       <c r="J13" t="n">
-        <v>5.48332501293137</v>
+        <v>3.602058560396356</v>
       </c>
       <c r="K13" t="n">
-        <v>5.173529965279695</v>
+        <v>3.513120916935907</v>
       </c>
       <c r="L13" t="n">
-        <v>5.443422017924738</v>
+        <v>3.557350245572807</v>
       </c>
       <c r="M13" t="n">
-        <v>5.428730967784831</v>
+        <v>3.519848896203338</v>
       </c>
       <c r="N13" t="n">
-        <v>6.014859524193212</v>
+        <v>3.860979162892755</v>
       </c>
       <c r="O13" t="n">
-        <v>6.009157325465952</v>
+        <v>3.833796057204595</v>
       </c>
       <c r="P13" t="n">
-        <v>6.54354688030003</v>
+        <v>4.214284775196646</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.554259350873417</v>
+        <v>4.200545688921782</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.597624234119207</v>
+        <v>2.867116653106051</v>
       </c>
       <c r="B14" t="n">
-        <v>4.547058352875948</v>
+        <v>2.831464730520168</v>
       </c>
       <c r="C14" t="n">
-        <v>4.541342631147754</v>
+        <v>2.824219389318196</v>
       </c>
       <c r="D14" t="n">
-        <v>4.547719289546608</v>
+        <v>2.842983140183693</v>
       </c>
       <c r="E14" t="n">
-        <v>4.537930890703726</v>
+        <v>2.823984302329259</v>
       </c>
       <c r="F14" t="n">
-        <v>4.820242129331727</v>
+        <v>3.10883497127895</v>
       </c>
       <c r="G14" t="n">
-        <v>4.78799822397921</v>
+        <v>3.049749679971136</v>
       </c>
       <c r="H14" t="n">
-        <v>5.177718714819068</v>
+        <v>3.432734811429747</v>
       </c>
       <c r="I14" t="n">
-        <v>5.090524658628746</v>
+        <v>3.30159606867468</v>
       </c>
       <c r="J14" t="n">
-        <v>5.487442766715838</v>
+        <v>3.634859022781479</v>
       </c>
       <c r="K14" t="n">
-        <v>5.150484517854306</v>
+        <v>3.512075106739656</v>
       </c>
       <c r="L14" t="n">
-        <v>5.441527670877203</v>
+        <v>3.588158011715547</v>
       </c>
       <c r="M14" t="n">
-        <v>5.429367675745484</v>
+        <v>3.543463625867159</v>
       </c>
       <c r="N14" t="n">
-        <v>6.000627129168324</v>
+        <v>3.862836549090719</v>
       </c>
       <c r="O14" t="n">
-        <v>5.997834066017036</v>
+        <v>3.822569018960249</v>
       </c>
       <c r="P14" t="n">
-        <v>6.515304656307297</v>
+        <v>4.220423189270539</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.536490691104232</v>
+        <v>4.171918518053693</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.589594388856145</v>
+        <v>2.860628877593943</v>
       </c>
       <c r="B15" t="n">
-        <v>4.538308407813139</v>
+        <v>2.828545615297199</v>
       </c>
       <c r="C15" t="n">
-        <v>4.534493794632946</v>
+        <v>2.819102338667823</v>
       </c>
       <c r="D15" t="n">
-        <v>4.56502591345054</v>
+        <v>2.852639331147669</v>
       </c>
       <c r="E15" t="n">
-        <v>4.557646862607437</v>
+        <v>2.826229709978128</v>
       </c>
       <c r="F15" t="n">
-        <v>4.825627100995406</v>
+        <v>3.123679563357898</v>
       </c>
       <c r="G15" t="n">
-        <v>4.812467530711299</v>
+        <v>3.035428987917112</v>
       </c>
       <c r="H15" t="n">
-        <v>5.195535832008267</v>
+        <v>3.456516404530698</v>
       </c>
       <c r="I15" t="n">
-        <v>5.115392893888393</v>
+        <v>3.274289592063668</v>
       </c>
       <c r="J15" t="n">
-        <v>5.506607112873108</v>
+        <v>3.660074163264787</v>
       </c>
       <c r="K15" t="n">
-        <v>5.228298682521634</v>
+        <v>3.47280989429116</v>
       </c>
       <c r="L15" t="n">
-        <v>5.450937425693927</v>
+        <v>3.583196738175135</v>
       </c>
       <c r="M15" t="n">
-        <v>5.445128169875938</v>
+        <v>3.526644246228179</v>
       </c>
       <c r="N15" t="n">
-        <v>6.002193543443204</v>
+        <v>3.859229228788889</v>
       </c>
       <c r="O15" t="n">
-        <v>6.003979143024893</v>
+        <v>3.794436468842766</v>
       </c>
       <c r="P15" t="n">
-        <v>6.543798182734058</v>
+        <v>4.205071753054621</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.55142909946956</v>
+        <v>4.15852680336345</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.590304346405192</v>
+        <v>2.879551248217393</v>
       </c>
       <c r="B16" t="n">
-        <v>4.539010476944974</v>
+        <v>2.844547165108884</v>
       </c>
       <c r="C16" t="n">
-        <v>4.535216711724554</v>
+        <v>2.839121118621782</v>
       </c>
       <c r="D16" t="n">
-        <v>4.565822643588914</v>
+        <v>2.871670290924413</v>
       </c>
       <c r="E16" t="n">
-        <v>4.5584255620779</v>
+        <v>2.850887122925409</v>
       </c>
       <c r="F16" t="n">
-        <v>4.827886569068164</v>
+        <v>3.14419381685686</v>
       </c>
       <c r="G16" t="n">
-        <v>4.814362441217205</v>
+        <v>3.038984856290286</v>
       </c>
       <c r="H16" t="n">
-        <v>5.200652597486751</v>
+        <v>3.479182258294793</v>
       </c>
       <c r="I16" t="n">
-        <v>5.118529666646758</v>
+        <v>3.241479464675373</v>
       </c>
       <c r="J16" t="n">
-        <v>5.517705552431492</v>
+        <v>3.655095833836423</v>
       </c>
       <c r="K16" t="n">
-        <v>5.232104280367871</v>
+        <v>3.47094426441402</v>
       </c>
       <c r="L16" t="n">
-        <v>5.455754994776741</v>
+        <v>3.606415771238471</v>
       </c>
       <c r="M16" t="n">
-        <v>5.449629638811914</v>
+        <v>3.542852456548882</v>
       </c>
       <c r="N16" t="n">
-        <v>6.004208470582402</v>
+        <v>3.882882618465401</v>
       </c>
       <c r="O16" t="n">
-        <v>6.005850388279164</v>
+        <v>3.784040905136075</v>
       </c>
       <c r="P16" t="n">
-        <v>6.545830577082795</v>
+        <v>4.207665100817709</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.553509951238312</v>
+        <v>4.127121228347995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.592615089189826</v>
+        <v>2.89531117294976</v>
       </c>
       <c r="B17" t="n">
-        <v>4.541180355136543</v>
+        <v>2.858242758869471</v>
       </c>
       <c r="C17" t="n">
-        <v>4.537466037546612</v>
+        <v>2.854542199713504</v>
       </c>
       <c r="D17" t="n">
-        <v>4.567675858175273</v>
+        <v>2.886319024556712</v>
       </c>
       <c r="E17" t="n">
-        <v>4.560399920214294</v>
+        <v>2.870097169525648</v>
       </c>
       <c r="F17" t="n">
-        <v>4.827030675800702</v>
+        <v>3.172012254371229</v>
       </c>
       <c r="G17" t="n">
-        <v>4.814232845791586</v>
+        <v>3.076975993908774</v>
       </c>
       <c r="H17" t="n">
-        <v>5.19632974485478</v>
+        <v>3.508290120938327</v>
       </c>
       <c r="I17" t="n">
-        <v>5.120397531150796</v>
+        <v>3.282823789865207</v>
       </c>
       <c r="J17" t="n">
-        <v>5.507040975819748</v>
+        <v>3.669842638824446</v>
       </c>
       <c r="K17" t="n">
-        <v>5.244863231749302</v>
+        <v>3.498994946269334</v>
       </c>
       <c r="L17" t="n">
-        <v>5.451702038705083</v>
+        <v>3.624175783097999</v>
       </c>
       <c r="M17" t="n">
-        <v>5.445902361679422</v>
+        <v>3.567949627140523</v>
       </c>
       <c r="N17" t="n">
-        <v>6.002606558430069</v>
+        <v>3.881117334062378</v>
       </c>
       <c r="O17" t="n">
-        <v>6.004325669923832</v>
+        <v>3.812182267462333</v>
       </c>
       <c r="P17" t="n">
-        <v>6.543463488460936</v>
+        <v>4.212226129520849</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.551014394107578</v>
+        <v>4.153365691669201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.584610036095143</v>
+        <v>2.882218220563474</v>
       </c>
       <c r="B18" t="n">
-        <v>4.533653678199908</v>
+        <v>2.854612128854106</v>
       </c>
       <c r="C18" t="n">
-        <v>4.529667773674548</v>
+        <v>2.847311924545889</v>
       </c>
       <c r="D18" t="n">
-        <v>4.559023391410866</v>
+        <v>2.901622420021566</v>
       </c>
       <c r="E18" t="n">
-        <v>4.550799716467747</v>
+        <v>2.885105213864134</v>
       </c>
       <c r="F18" t="n">
-        <v>4.816646137999971</v>
+        <v>3.192934996386639</v>
       </c>
       <c r="G18" t="n">
-        <v>4.798911849191493</v>
+        <v>3.102263337651079</v>
       </c>
       <c r="H18" t="n">
-        <v>5.195573020260836</v>
+        <v>3.541596574666023</v>
       </c>
       <c r="I18" t="n">
-        <v>5.104172183863229</v>
+        <v>3.308685064237094</v>
       </c>
       <c r="J18" t="n">
-        <v>5.514626252427097</v>
+        <v>3.713133325094392</v>
       </c>
       <c r="K18" t="n">
-        <v>5.237803098344897</v>
+        <v>3.503349314463457</v>
       </c>
       <c r="L18" t="n">
-        <v>5.434252859832968</v>
+        <v>3.648102919776139</v>
       </c>
       <c r="M18" t="n">
-        <v>5.425236962418453</v>
+        <v>3.590734303590684</v>
       </c>
       <c r="N18" t="n">
-        <v>6.002265102656481</v>
+        <v>3.885153325681399</v>
       </c>
       <c r="O18" t="n">
-        <v>6.000151006843765</v>
+        <v>3.836369790696539</v>
       </c>
       <c r="P18" t="n">
-        <v>6.544872697849955</v>
+        <v>4.241646114913903</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.546925940158467</v>
+        <v>4.167747500655053</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.59158846803557</v>
+        <v>2.874171252627761</v>
       </c>
       <c r="B19" t="n">
-        <v>4.539808897458465</v>
+        <v>2.852262111759132</v>
       </c>
       <c r="C19" t="n">
-        <v>4.535443221990203</v>
+        <v>2.841326444933964</v>
       </c>
       <c r="D19" t="n">
-        <v>4.567581197168734</v>
+        <v>2.916363255448805</v>
       </c>
       <c r="E19" t="n">
-        <v>4.55880984068778</v>
+        <v>2.891945761992048</v>
       </c>
       <c r="F19" t="n">
-        <v>4.829196046325293</v>
+        <v>3.194348076703455</v>
       </c>
       <c r="G19" t="n">
-        <v>4.813830536513793</v>
+        <v>3.114775537052602</v>
       </c>
       <c r="H19" t="n">
-        <v>5.203344238131031</v>
+        <v>3.541829671801366</v>
       </c>
       <c r="I19" t="n">
-        <v>5.119800265276202</v>
+        <v>3.326022942869811</v>
       </c>
       <c r="J19" t="n">
-        <v>5.522398597214036</v>
+        <v>3.725233624801876</v>
       </c>
       <c r="K19" t="n">
-        <v>5.242647713429579</v>
+        <v>3.482222470322222</v>
       </c>
       <c r="L19" t="n">
-        <v>5.447860379523021</v>
+        <v>3.64539984580056</v>
       </c>
       <c r="M19" t="n">
-        <v>5.440456536511539</v>
+        <v>3.593201437782928</v>
       </c>
       <c r="N19" t="n">
-        <v>6.000780389845579</v>
+        <v>3.847887916095265</v>
       </c>
       <c r="O19" t="n">
-        <v>6.000959569607957</v>
+        <v>3.811875261479199</v>
       </c>
       <c r="P19" t="n">
-        <v>6.545950030257715</v>
+        <v>4.241994907822519</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.552071442013935</v>
+        <v>4.167103640884868</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.586840767790917</v>
+        <v>2.904245331323771</v>
       </c>
       <c r="B20" t="n">
-        <v>4.535606061459785</v>
+        <v>2.883386833152979</v>
       </c>
       <c r="C20" t="n">
-        <v>4.531170517153363</v>
+        <v>2.871286817710294</v>
       </c>
       <c r="D20" t="n">
-        <v>4.560860829162802</v>
+        <v>2.940602514876465</v>
       </c>
       <c r="E20" t="n">
-        <v>4.551658427027069</v>
+        <v>2.912789194128482</v>
       </c>
       <c r="F20" t="n">
-        <v>4.820167752826589</v>
+        <v>3.2232035122053</v>
       </c>
       <c r="G20" t="n">
-        <v>4.798040179089609</v>
+        <v>3.120557198803501</v>
       </c>
       <c r="H20" t="n">
-        <v>5.204149983603362</v>
+        <v>3.503112806150524</v>
       </c>
       <c r="I20" t="n">
-        <v>5.100846652550156</v>
+        <v>3.30386620736108</v>
       </c>
       <c r="J20" t="n">
-        <v>5.523930640528208</v>
+        <v>3.667171686771176</v>
       </c>
       <c r="K20" t="n">
-        <v>5.230507439340889</v>
+        <v>3.447949232012452</v>
       </c>
       <c r="L20" t="n">
-        <v>5.431213001914632</v>
+        <v>3.680886610538108</v>
       </c>
       <c r="M20" t="n">
-        <v>5.419835650461979</v>
+        <v>3.610479336543015</v>
       </c>
       <c r="N20" t="n">
-        <v>5.997898300271475</v>
+        <v>3.986650640764837</v>
       </c>
       <c r="O20" t="n">
-        <v>5.993046360227953</v>
+        <v>3.806805398785493</v>
       </c>
       <c r="P20" t="n">
-        <v>6.54182833226464</v>
+        <v>4.270436453776732</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.539993711804565</v>
+        <v>4.173452410910168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.594386602312208</v>
+        <v>2.928149158288376</v>
       </c>
       <c r="B21" t="n">
-        <v>4.542984548844516</v>
+        <v>2.903290770128062</v>
       </c>
       <c r="C21" t="n">
-        <v>4.538848200933764</v>
+        <v>2.891482126104555</v>
       </c>
       <c r="D21" t="n">
-        <v>4.569482305716736</v>
+        <v>2.95846997883009</v>
       </c>
       <c r="E21" t="n">
-        <v>4.561393297324587</v>
+        <v>2.93473102544902</v>
       </c>
       <c r="F21" t="n">
-        <v>4.828729502793063</v>
+        <v>3.229316910976864</v>
       </c>
       <c r="G21" t="n">
-        <v>4.813756160008655</v>
+        <v>3.137202039855773</v>
       </c>
       <c r="H21" t="n">
-        <v>5.201960384368763</v>
+        <v>3.520729264286456</v>
       </c>
       <c r="I21" t="n">
-        <v>5.119601364470794</v>
+        <v>3.329093855495553</v>
       </c>
       <c r="J21" t="n">
-        <v>5.514793036105286</v>
+        <v>3.605653941576619</v>
       </c>
       <c r="K21" t="n">
-        <v>5.24094156147838</v>
+        <v>3.440227178742223</v>
       </c>
       <c r="L21" t="n">
-        <v>5.451907701010957</v>
+        <v>3.70561480542039</v>
       </c>
       <c r="M21" t="n">
-        <v>5.44458499600508</v>
+        <v>3.638453551167344</v>
       </c>
       <c r="N21" t="n">
-        <v>6.00439497530362</v>
+        <v>3.96578702582766</v>
       </c>
       <c r="O21" t="n">
-        <v>6.00433524871616</v>
+        <v>3.775215051650559</v>
       </c>
       <c r="P21" t="n">
-        <v>6.546492077211828</v>
+        <v>4.281954294910658</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.551781824410594</v>
+        <v>4.165406864298452</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.588921056101296</v>
+        <v>2.908048510072248</v>
       </c>
       <c r="B22" t="n">
-        <v>4.537484631672896</v>
+        <v>2.882082057724658</v>
       </c>
       <c r="C22" t="n">
-        <v>4.533269399590028</v>
+        <v>2.871511386901661</v>
       </c>
       <c r="D22" t="n">
-        <v>4.562107762540611</v>
+        <v>2.941311755550466</v>
       </c>
       <c r="E22" t="n">
-        <v>4.553569677825772</v>
+        <v>2.920218738920335</v>
       </c>
       <c r="F22" t="n">
-        <v>4.818871235112021</v>
+        <v>3.206642813533591</v>
       </c>
       <c r="G22" t="n">
-        <v>4.798206399309425</v>
+        <v>3.135087962544133</v>
       </c>
       <c r="H22" t="n">
-        <v>5.202632590206868</v>
+        <v>3.520715051046496</v>
       </c>
       <c r="I22" t="n">
-        <v>5.100742976209661</v>
+        <v>3.332409804378204</v>
       </c>
       <c r="J22" t="n">
-        <v>5.522471283344058</v>
+        <v>3.622397706779012</v>
       </c>
       <c r="K22" t="n">
-        <v>5.226780725666768</v>
+        <v>3.408840080938716</v>
       </c>
       <c r="L22" t="n">
-        <v>5.430553192160716</v>
+        <v>3.669284058494021</v>
       </c>
       <c r="M22" t="n">
-        <v>5.419551103983989</v>
+        <v>3.623750238693598</v>
       </c>
       <c r="N22" t="n">
-        <v>5.999318778827939</v>
+        <v>3.94981560808469</v>
       </c>
       <c r="O22" t="n">
-        <v>5.995028043323187</v>
+        <v>3.822645201926434</v>
       </c>
       <c r="P22" t="n">
-        <v>6.545201757539354</v>
+        <v>4.2554087951671</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.544145836549742</v>
+        <v>4.229051762985412</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.59248887451444</v>
+        <v>2.84527914696682</v>
       </c>
       <c r="B23" t="n">
-        <v>4.538391799652233</v>
+        <v>2.818437159037698</v>
       </c>
       <c r="C23" t="n">
-        <v>4.537899900493252</v>
+        <v>2.808053534452574</v>
       </c>
       <c r="D23" t="n">
-        <v>4.5439334127434</v>
+        <v>2.886548141984866</v>
       </c>
       <c r="E23" t="n">
-        <v>4.543056671516165</v>
+        <v>2.865557460682447</v>
       </c>
       <c r="F23" t="n">
-        <v>4.810712357881712</v>
+        <v>3.162324510014542</v>
       </c>
       <c r="G23" t="n">
-        <v>4.797722388567655</v>
+        <v>3.120789158879647</v>
       </c>
       <c r="H23" t="n">
-        <v>5.185084806119609</v>
+        <v>3.473187113679696</v>
       </c>
       <c r="I23" t="n">
-        <v>5.098107681402606</v>
+        <v>3.337517474290203</v>
       </c>
       <c r="J23" t="n">
-        <v>5.501733197953069</v>
+        <v>3.675809641224422</v>
       </c>
       <c r="K23" t="n">
-        <v>5.244029313358358</v>
+        <v>3.402596773153919</v>
       </c>
       <c r="L23" t="n">
-        <v>5.453867972688045</v>
+        <v>3.634999449592283</v>
       </c>
       <c r="M23" t="n">
-        <v>5.447861506439765</v>
+        <v>3.607439977309984</v>
       </c>
       <c r="N23" t="n">
-        <v>6.007815167623231</v>
+        <v>3.898892696221062</v>
       </c>
       <c r="O23" t="n">
-        <v>6.012630482872556</v>
+        <v>3.810947989704213</v>
       </c>
       <c r="P23" t="n">
-        <v>6.532651849214032</v>
+        <v>4.245551913254891</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.53759788680572</v>
+        <v>4.210837211711966</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.589996698133938</v>
+        <v>2.832523901161982</v>
       </c>
       <c r="B24" t="n">
-        <v>4.538740016926289</v>
+        <v>2.801436986986428</v>
       </c>
       <c r="C24" t="n">
-        <v>4.533453087019384</v>
+        <v>2.794466529845281</v>
       </c>
       <c r="D24" t="n">
-        <v>4.542436303848308</v>
+        <v>2.864455650320754</v>
       </c>
       <c r="E24" t="n">
-        <v>4.534850463782586</v>
+        <v>2.850189821372975</v>
       </c>
       <c r="F24" t="n">
-        <v>4.81770600319819</v>
+        <v>3.137707462668748</v>
       </c>
       <c r="G24" t="n">
-        <v>4.783491120459511</v>
+        <v>3.114561485658805</v>
       </c>
       <c r="H24" t="n">
-        <v>5.185014373823076</v>
+        <v>3.452470179378905</v>
       </c>
       <c r="I24" t="n">
-        <v>5.07842551700123</v>
+        <v>3.332512139705915</v>
       </c>
       <c r="J24" t="n">
-        <v>5.500920127521899</v>
+        <v>3.727173163526808</v>
       </c>
       <c r="K24" t="n">
-        <v>5.193279744685742</v>
+        <v>3.418736475658014</v>
       </c>
       <c r="L24" t="n">
-        <v>5.454329445094926</v>
+        <v>3.59839325007549</v>
       </c>
       <c r="M24" t="n">
-        <v>5.438718267433121</v>
+        <v>3.584542163469742</v>
       </c>
       <c r="N24" t="n">
-        <v>6.016302541084567</v>
+        <v>3.859946144612468</v>
       </c>
       <c r="O24" t="n">
-        <v>6.003834334223222</v>
+        <v>3.828157096382894</v>
       </c>
       <c r="P24" t="n">
-        <v>6.539652256030977</v>
+        <v>4.148549677441179</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.540828757112253</v>
+        <v>4.198886719553659</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.590468312791519</v>
+        <v>2.770573220678246</v>
       </c>
       <c r="B25" t="n">
-        <v>4.538906800604478</v>
+        <v>2.740808422083765</v>
       </c>
       <c r="C25" t="n">
-        <v>4.533759608373893</v>
+        <v>2.731890751068107</v>
       </c>
       <c r="D25" t="n">
-        <v>4.542441374973659</v>
+        <v>2.792823763570713</v>
       </c>
       <c r="E25" t="n">
-        <v>4.535499567827428</v>
+        <v>2.777196874764371</v>
       </c>
       <c r="F25" t="n">
-        <v>4.815186217357448</v>
+        <v>3.075514872840893</v>
       </c>
       <c r="G25" t="n">
-        <v>4.783423505454841</v>
+        <v>3.043058370862801</v>
       </c>
       <c r="H25" t="n">
-        <v>5.18321694161557</v>
+        <v>3.416329321338401</v>
       </c>
       <c r="I25" t="n">
-        <v>5.08243170602799</v>
+        <v>3.334979273898159</v>
       </c>
       <c r="J25" t="n">
-        <v>5.499660234601528</v>
+        <v>3.735338385618987</v>
       </c>
       <c r="K25" t="n">
-        <v>5.1914383627252</v>
+        <v>3.463916385783434</v>
       </c>
       <c r="L25" t="n">
-        <v>5.451492995648975</v>
+        <v>3.554245789700759</v>
       </c>
       <c r="M25" t="n">
-        <v>5.437188477952438</v>
+        <v>3.541800676791847</v>
       </c>
       <c r="N25" t="n">
-        <v>6.0158692415963</v>
+        <v>3.896151246497591</v>
       </c>
       <c r="O25" t="n">
-        <v>6.005239599403636</v>
+        <v>3.796111925569242</v>
       </c>
       <c r="P25" t="n">
-        <v>6.539870314421041</v>
+        <v>4.038543179858531</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.548610117233149</v>
+        <v>4.19085965015389</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.593676644763161</v>
+        <v>2.704703665672759</v>
       </c>
       <c r="B26" t="n">
-        <v>4.5409476468288</v>
+        <v>2.67627491163451</v>
       </c>
       <c r="C26" t="n">
-        <v>4.537695365104121</v>
+        <v>2.666029724006596</v>
       </c>
       <c r="D26" t="n">
-        <v>4.538603096541831</v>
+        <v>2.737005811864886</v>
       </c>
       <c r="E26" t="n">
-        <v>4.536212342668336</v>
+        <v>2.721831472618868</v>
       </c>
       <c r="F26" t="n">
-        <v>4.803528827093783</v>
+        <v>3.012675580594863</v>
       </c>
       <c r="G26" t="n">
-        <v>4.779506342850897</v>
+        <v>3.002110026538251</v>
       </c>
       <c r="H26" t="n">
-        <v>5.166427572497372</v>
+        <v>3.367039795010968</v>
       </c>
       <c r="I26" t="n">
-        <v>5.091823430176802</v>
+        <v>3.295322060291569</v>
       </c>
       <c r="J26" t="n">
-        <v>5.474244881262417</v>
+        <v>3.704055897261585</v>
       </c>
       <c r="K26" t="n">
-        <v>5.175652512967995</v>
+        <v>3.496372603496727</v>
       </c>
       <c r="L26" t="n">
-        <v>5.437869699124499</v>
+        <v>3.439323500945571</v>
       </c>
       <c r="M26" t="n">
-        <v>5.425306267798241</v>
+        <v>3.44786480536709</v>
       </c>
       <c r="N26" t="n">
-        <v>6.005624441471888</v>
+        <v>3.762982284546648</v>
       </c>
       <c r="O26" t="n">
-        <v>5.990840984158932</v>
+        <v>3.791446287419996</v>
       </c>
       <c r="P26" t="n">
-        <v>6.523242094397308</v>
+        <v>3.806627449021195</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.534928221037958</v>
+        <v>4.08598299513758</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.595960905004299</v>
+        <v>2.708324346420151</v>
       </c>
       <c r="B27" t="n">
-        <v>4.540893554825063</v>
+        <v>2.675852209878102</v>
       </c>
       <c r="C27" t="n">
-        <v>4.541980466025151</v>
+        <v>2.668268025035485</v>
       </c>
       <c r="D27" t="n">
-        <v>4.54207005590634</v>
+        <v>2.721390577915312</v>
       </c>
       <c r="E27" t="n">
-        <v>4.545334733715208</v>
+        <v>2.705713658504311</v>
       </c>
       <c r="F27" t="n">
-        <v>4.797351632958708</v>
+        <v>2.996348263323296</v>
       </c>
       <c r="G27" t="n">
-        <v>4.789996810825613</v>
+        <v>2.96661359679753</v>
       </c>
       <c r="H27" t="n">
-        <v>5.166723951601179</v>
+        <v>3.338993661392441</v>
       </c>
       <c r="I27" t="n">
-        <v>5.093801732521803</v>
+        <v>3.249078715552348</v>
       </c>
       <c r="J27" t="n">
-        <v>5.464568610635615</v>
+        <v>3.668245639182548</v>
       </c>
       <c r="K27" t="n">
-        <v>5.242565448507229</v>
+        <v>3.474554427363841</v>
       </c>
       <c r="L27" t="n">
-        <v>5.444817704312823</v>
+        <v>3.458931802529488</v>
       </c>
       <c r="M27" t="n">
-        <v>5.439711644543412</v>
+        <v>3.440820155113351</v>
       </c>
       <c r="N27" t="n">
-        <v>6.012731905379562</v>
+        <v>3.82961253215479</v>
       </c>
       <c r="O27" t="n">
-        <v>6.017136459475511</v>
+        <v>3.774293465171557</v>
       </c>
       <c r="P27" t="n">
-        <v>6.538890460311682</v>
+        <v>4.024874306989069</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.54575676403603</v>
+        <v>4.074504951075541</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.588254484846914</v>
+        <v>2.771904716997692</v>
       </c>
       <c r="B28" t="n">
-        <v>4.538976669442638</v>
+        <v>2.73552166534827</v>
       </c>
       <c r="C28" t="n">
-        <v>4.534648745685318</v>
+        <v>2.729781221993255</v>
       </c>
       <c r="D28" t="n">
-        <v>4.544718873714329</v>
+        <v>2.74885084178269</v>
       </c>
       <c r="E28" t="n">
-        <v>4.537850316156493</v>
+        <v>2.736066600968334</v>
       </c>
       <c r="F28" t="n">
-        <v>4.811923793382069</v>
+        <v>2.98718157634354</v>
       </c>
       <c r="G28" t="n">
-        <v>4.786825103648168</v>
+        <v>2.965341511821116</v>
       </c>
       <c r="H28" t="n">
-        <v>5.173874801803517</v>
+        <v>3.313422905645335</v>
       </c>
       <c r="I28" t="n">
-        <v>5.090112207100252</v>
+        <v>3.230510538868699</v>
       </c>
       <c r="J28" t="n">
-        <v>5.486111878040562</v>
+        <v>3.563887767424775</v>
       </c>
       <c r="K28" t="n">
-        <v>5.206630327358045</v>
+        <v>3.385262589963591</v>
       </c>
       <c r="L28" t="n">
-        <v>5.439175795631394</v>
+        <v>3.447852013451126</v>
       </c>
       <c r="M28" t="n">
-        <v>5.428587285899905</v>
+        <v>3.429515796843623</v>
       </c>
       <c r="N28" t="n">
-        <v>6.005958008828266</v>
+        <v>3.782245772929136</v>
       </c>
       <c r="O28" t="n">
-        <v>5.997740531927242</v>
+        <v>3.745380039650676</v>
       </c>
       <c r="P28" t="n">
-        <v>6.535144589052905</v>
+        <v>4.05344405636772</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.528641152520293</v>
+        <v>3.96631206291178</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.594068248331881</v>
+        <v>2.813028736968147</v>
       </c>
       <c r="B29" t="n">
-        <v>4.542088650032624</v>
+        <v>2.779288779421673</v>
       </c>
       <c r="C29" t="n">
-        <v>4.541904399144896</v>
+        <v>2.777008975732101</v>
       </c>
       <c r="D29" t="n">
-        <v>4.546366425994814</v>
+        <v>2.790035125890575</v>
       </c>
       <c r="E29" t="n">
-        <v>4.546087514100546</v>
+        <v>2.783163308634749</v>
       </c>
       <c r="F29" t="n">
-        <v>4.801978189653327</v>
+        <v>3.003237420731872</v>
       </c>
       <c r="G29" t="n">
-        <v>4.790661691704878</v>
+        <v>2.975547470906741</v>
       </c>
       <c r="H29" t="n">
-        <v>5.169934537406311</v>
+        <v>3.253665896617014</v>
       </c>
       <c r="I29" t="n">
-        <v>5.088769485799158</v>
+        <v>3.184001122277427</v>
       </c>
       <c r="J29" t="n">
-        <v>5.487525031638188</v>
+        <v>3.496701213604601</v>
       </c>
       <c r="K29" t="n">
-        <v>5.234390794442497</v>
+        <v>3.337659890954602</v>
       </c>
       <c r="L29" t="n">
-        <v>5.44203816416247</v>
+        <v>3.448856605251494</v>
       </c>
       <c r="M29" t="n">
-        <v>5.434667001736579</v>
+        <v>3.414352828189573</v>
       </c>
       <c r="N29" t="n">
-        <v>5.97889003208332</v>
+        <v>3.797334548470595</v>
       </c>
       <c r="O29" t="n">
-        <v>5.981007508646269</v>
+        <v>3.661664340551503</v>
       </c>
       <c r="P29" t="n">
-        <v>6.478382919548286</v>
+        <v>4.11239261630712</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.483211757798546</v>
+        <v>3.874246938130548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.484014122520643</v>
+        <v>2.766642407034928</v>
       </c>
       <c r="B30" t="n">
-        <v>5.420274584533969</v>
+        <v>2.73447898206481</v>
       </c>
       <c r="C30" t="n">
-        <v>5.404595791867493</v>
+        <v>2.726563344466327</v>
       </c>
       <c r="D30" t="n">
-        <v>5.453399738780699</v>
+        <v>2.751211376675235</v>
       </c>
       <c r="E30" t="n">
-        <v>5.415303754773901</v>
+        <v>2.731984274187043</v>
       </c>
       <c r="F30" t="n">
-        <v>5.914626477810446</v>
+        <v>2.983923333215126</v>
       </c>
       <c r="G30" t="n">
-        <v>5.770917546882554</v>
+        <v>2.911463951634619</v>
       </c>
       <c r="H30" t="n">
-        <v>6.437249331456641</v>
+        <v>3.247612761982881</v>
       </c>
       <c r="I30" t="n">
-        <v>6.117669265712318</v>
+        <v>3.086340529188771</v>
       </c>
       <c r="J30" t="n">
-        <v>6.850027665806078</v>
+        <v>3.455710229560171</v>
       </c>
       <c r="K30" t="n">
-        <v>6.36191889129423</v>
+        <v>3.209329115886018</v>
       </c>
       <c r="L30" t="n">
-        <v>6.863548976365175</v>
+        <v>3.462638615511036</v>
       </c>
       <c r="M30" t="n">
-        <v>6.737009748956757</v>
+        <v>3.398837655449317</v>
       </c>
       <c r="N30" t="n">
-        <v>7.631348344615648</v>
+        <v>3.849881180867245</v>
       </c>
       <c r="O30" t="n">
-        <v>7.152046424462207</v>
+        <v>3.608245583750912</v>
       </c>
       <c r="P30" t="n">
-        <v>8.233864524322808</v>
+        <v>4.153835581382276</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.664601967371253</v>
+        <v>3.866643139016786</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.493302170328958</v>
+        <v>2.771341019900881</v>
       </c>
       <c r="B31" t="n">
-        <v>5.42630358911714</v>
+        <v>2.737563255136114</v>
       </c>
       <c r="C31" t="n">
-        <v>5.419401224056968</v>
+        <v>2.73404974221802</v>
       </c>
       <c r="D31" t="n">
-        <v>5.410645644410437</v>
+        <v>2.729695942553495</v>
       </c>
       <c r="E31" t="n">
-        <v>5.394212944441877</v>
+        <v>2.721347938195432</v>
       </c>
       <c r="F31" t="n">
-        <v>5.754307357526733</v>
+        <v>2.903067622260691</v>
       </c>
       <c r="G31" t="n">
-        <v>5.70845480556742</v>
+        <v>2.879894924359624</v>
       </c>
       <c r="H31" t="n">
-        <v>6.117913243187506</v>
+        <v>3.086496022033933</v>
       </c>
       <c r="I31" t="n">
-        <v>6.095019929522627</v>
+        <v>3.074863053656331</v>
       </c>
       <c r="J31" t="n">
-        <v>6.446802204699919</v>
+        <v>3.252421385326123</v>
       </c>
       <c r="K31" t="n">
-        <v>6.346467735810146</v>
+        <v>3.201859774022277</v>
       </c>
       <c r="L31" t="n">
-        <v>6.698242122570226</v>
+        <v>3.379224521363815</v>
       </c>
       <c r="M31" t="n">
-        <v>6.630601198814033</v>
+        <v>3.345074653976897</v>
       </c>
       <c r="N31" t="n">
-        <v>7.494582911209103</v>
+        <v>3.781062947099671</v>
       </c>
       <c r="O31" t="n">
-        <v>7.101437156924284</v>
+        <v>3.582743620085213</v>
       </c>
       <c r="P31" t="n">
-        <v>8.153684961408736</v>
+        <v>4.113681757171486</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.728378130152122</v>
+        <v>3.899039661122248</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.240153846673961</v>
+        <v>2.643705556531136</v>
       </c>
       <c r="B32" t="n">
-        <v>5.179171310502752</v>
+        <v>2.612935597606689</v>
       </c>
       <c r="C32" t="n">
-        <v>5.16466113050034</v>
+        <v>2.605619474469716</v>
       </c>
       <c r="D32" t="n">
-        <v>5.231104705215484</v>
+        <v>2.639169827395125</v>
       </c>
       <c r="E32" t="n">
-        <v>5.205951923477845</v>
+        <v>2.626490196026873</v>
       </c>
       <c r="F32" t="n">
-        <v>5.674402762298324</v>
+        <v>2.862819422136567</v>
       </c>
       <c r="G32" t="n">
-        <v>5.594257006886588</v>
+        <v>2.822387302687361</v>
       </c>
       <c r="H32" t="n">
-        <v>6.027304065802922</v>
+        <v>3.040848496313832</v>
       </c>
       <c r="I32" t="n">
-        <v>5.914596051058344</v>
+        <v>2.983904003208781</v>
       </c>
       <c r="J32" t="n">
-        <v>6.394129552602783</v>
+        <v>3.225666098160757</v>
       </c>
       <c r="K32" t="n">
-        <v>6.083289289670568</v>
+        <v>3.068821573878965</v>
       </c>
       <c r="L32" t="n">
-        <v>6.665755366659266</v>
+        <v>3.363011194276726</v>
       </c>
       <c r="M32" t="n">
-        <v>6.567086480717891</v>
+        <v>3.31323671220186</v>
       </c>
       <c r="N32" t="n">
-        <v>7.443267066872367</v>
+        <v>3.755069205331358</v>
       </c>
       <c r="O32" t="n">
-        <v>6.920494896757522</v>
+        <v>3.491357888174066</v>
       </c>
       <c r="P32" t="n">
-        <v>8.208149411129655</v>
+        <v>4.140947015386614</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.669487151458737</v>
+        <v>3.869123065124994</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.575834735405583</v>
+        <v>2.308450758976354</v>
       </c>
       <c r="B33" t="n">
-        <v>4.525553400640314</v>
+        <v>2.283084673884671</v>
       </c>
       <c r="C33" t="n">
-        <v>4.522036293480674</v>
+        <v>2.281307450360082</v>
       </c>
       <c r="D33" t="n">
-        <v>4.554655462109115</v>
+        <v>2.297769224881669</v>
       </c>
       <c r="E33" t="n">
-        <v>4.548139066033941</v>
+        <v>2.294475164388557</v>
       </c>
       <c r="F33" t="n">
-        <v>4.813464852030197</v>
+        <v>2.428363600546272</v>
       </c>
       <c r="G33" t="n">
-        <v>4.8078832333946</v>
+        <v>2.425540566825431</v>
       </c>
       <c r="H33" t="n">
-        <v>5.164126971963438</v>
+        <v>2.605298255246622</v>
       </c>
       <c r="I33" t="n">
-        <v>5.121584737941146</v>
+        <v>2.583842232467915</v>
       </c>
       <c r="J33" t="n">
-        <v>5.41828670339664</v>
+        <v>2.733424359659783</v>
       </c>
       <c r="K33" t="n">
-        <v>5.238064543029625</v>
+        <v>2.642556842477575</v>
       </c>
       <c r="L33" t="n">
-        <v>5.445062245246383</v>
+        <v>2.74706310046053</v>
       </c>
       <c r="M33" t="n">
-        <v>5.441986889450594</v>
+        <v>2.745508740538513</v>
       </c>
       <c r="N33" t="n">
-        <v>5.998274127005771</v>
+        <v>3.026166787964825</v>
       </c>
       <c r="O33" t="n">
-        <v>6.000924635188877</v>
+        <v>3.027498284284271</v>
       </c>
       <c r="P33" t="n">
-        <v>6.539097249534302</v>
+        <v>3.29902119812354</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.548593213481981</v>
+        <v>3.303803100575657</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.574718524370138</v>
+        <v>2.307864036430808</v>
       </c>
       <c r="B34" t="n">
-        <v>4.523124895055878</v>
+        <v>2.281835330092194</v>
       </c>
       <c r="C34" t="n">
-        <v>4.523466350829467</v>
+        <v>2.282004751912516</v>
       </c>
       <c r="D34" t="n">
-        <v>4.537515621883371</v>
+        <v>2.289098864241315</v>
       </c>
       <c r="E34" t="n">
-        <v>4.538579431290196</v>
+        <v>2.289628165297422</v>
       </c>
       <c r="F34" t="n">
-        <v>4.797147097569579</v>
+        <v>2.42010371827596</v>
       </c>
       <c r="G34" t="n">
-        <v>4.799645471992175</v>
+        <v>2.421356473246028</v>
       </c>
       <c r="H34" t="n">
-        <v>5.14398784282216</v>
+        <v>2.595132661762483</v>
       </c>
       <c r="I34" t="n">
-        <v>5.118282308421336</v>
+        <v>2.582144887351901</v>
       </c>
       <c r="J34" t="n">
-        <v>5.398504243405002</v>
+        <v>2.723570036130766</v>
       </c>
       <c r="K34" t="n">
-        <v>5.27817263688376</v>
+        <v>2.662812983538865</v>
       </c>
       <c r="L34" t="n">
-        <v>5.443380322005191</v>
+        <v>2.746140661187131</v>
       </c>
       <c r="M34" t="n">
-        <v>5.444692053095809</v>
+        <v>2.746801008315669</v>
       </c>
       <c r="N34" t="n">
-        <v>6.002196924193438</v>
+        <v>3.028061981381082</v>
       </c>
       <c r="O34" t="n">
-        <v>6.012307621225252</v>
+        <v>3.033165103056294</v>
       </c>
       <c r="P34" t="n">
-        <v>6.523616230756488</v>
+        <v>3.291159002307306</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.536026964863863</v>
+        <v>3.297427325394434</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.574596253903358</v>
+        <v>2.307889335997937</v>
       </c>
       <c r="B35" t="n">
-        <v>4.523555940710656</v>
+        <v>2.282138924897738</v>
       </c>
       <c r="C35" t="n">
-        <v>4.523545798459955</v>
+        <v>2.282130681218561</v>
       </c>
       <c r="D35" t="n">
-        <v>4.538327001939424</v>
+        <v>2.289594906315916</v>
       </c>
       <c r="E35" t="n">
-        <v>4.538974979067522</v>
+        <v>2.289913851420617</v>
       </c>
       <c r="F35" t="n">
-        <v>4.796318813762358</v>
+        <v>2.419765443164913</v>
       </c>
       <c r="G35" t="n">
-        <v>4.798215414643382</v>
+        <v>2.42072057289022</v>
       </c>
       <c r="H35" t="n">
-        <v>5.140217179395004</v>
+        <v>2.593275844094118</v>
       </c>
       <c r="I35" t="n">
-        <v>5.110131883066611</v>
+        <v>2.578121403384045</v>
       </c>
       <c r="J35" t="n">
-        <v>5.411104299525455</v>
+        <v>2.729940410280806</v>
       </c>
       <c r="K35" t="n">
-        <v>5.277666087807099</v>
+        <v>2.66267994761284</v>
       </c>
       <c r="L35" t="n">
-        <v>5.438953793032725</v>
+        <v>2.743972573563644</v>
       </c>
       <c r="M35" t="n">
-        <v>5.439668258248749</v>
+        <v>2.744334158388224</v>
       </c>
       <c r="N35" t="n">
-        <v>5.999322159578172</v>
+        <v>3.026664535628222</v>
       </c>
       <c r="O35" t="n">
-        <v>6.009259874889703</v>
+        <v>3.031678398156486</v>
       </c>
       <c r="P35" t="n">
-        <v>6.525343230667461</v>
+        <v>3.29205870039677</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.537090774270688</v>
+        <v>3.297985905724858</v>
       </c>
     </row>
   </sheetData>
